--- a/PH 424/LRC_lab_rawData.xlsx
+++ b/PH 424/LRC_lab_rawData.xlsx
@@ -9,17 +9,19 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="50" windowWidth="23000" windowHeight="10040" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="50" windowWidth="23000" windowHeight="10040" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Raw Data" sheetId="1" r:id="rId1"/>
     <sheet name="Preliminary Graphs" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Admittence" sheetId="4" r:id="rId3"/>
+    <sheet name="Theory" sheetId="5" r:id="rId4"/>
+    <sheet name="Raw Scope" sheetId="3" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_1.05kHz_Scope" localSheetId="2">Sheet3!$A$1:$C$600</definedName>
-    <definedName name="_1.23kHz_Scope" localSheetId="2">Sheet3!$F$1:$H$600</definedName>
-    <definedName name="_1.510kHz_Scope" localSheetId="2">Sheet3!$K$1:$M$600</definedName>
+    <definedName name="_1.05kHz_Scope" localSheetId="4">'Raw Scope'!$A$1:$C$600</definedName>
+    <definedName name="_1.23kHz_Scope" localSheetId="4">'Raw Scope'!$F$1:$H$600</definedName>
+    <definedName name="_1.510kHz_Scope" localSheetId="4">'Raw Scope'!$K$1:$M$600</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
 </workbook>
@@ -58,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
   <si>
     <t>Case</t>
   </si>
@@ -81,9 +83,6 @@
     <t>Vout (peak)</t>
   </si>
   <si>
-    <t>Vin (peak)</t>
-  </si>
-  <si>
     <t>Angular Freq (hz)</t>
   </si>
   <si>
@@ -100,6 +99,48 @@
   </si>
   <si>
     <t>resistance</t>
+  </si>
+  <si>
+    <t>Angular Freq (kHz)</t>
+  </si>
+  <si>
+    <t>Vin</t>
+  </si>
+  <si>
+    <t>Vin (mV)</t>
+  </si>
+  <si>
+    <t>Vout (mV)</t>
+  </si>
+  <si>
+    <t>Vout (peak) mV</t>
+  </si>
+  <si>
+    <t>Vin (peak) mV</t>
+  </si>
+  <si>
+    <t>Vout</t>
+  </si>
+  <si>
+    <t>admittence</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>ohms</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Inductance</t>
+  </si>
+  <si>
+    <t>uF</t>
+  </si>
+  <si>
+    <t>F</t>
   </si>
 </sst>
 </file>
@@ -129,7 +170,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -152,16 +193,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -177,2208 +232,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>LCR</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Response</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Preliminary Graphs'!$E$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Vout (peak)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Preliminary Graphs'!$D$2:$D$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>6.2831853071795862</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6.5973445725385655</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6.9115038378975457</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7.2256631032565233</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7.6654860747590954</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7.7283179278308909</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7.8539816339744828</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8.4823001646924414</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8.7964594300514207</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9.1106186954104</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>9.4247779607693793</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>10.053096491487338</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Preliminary Graphs'!$E$2:$E$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>17.2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>30.4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>42.4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>59.3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>56.8</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>35.200000000000003</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>27.2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>22.4</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>18.399999999999999</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>13.6</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-99BA-478D-874B-001A7934D379}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="391098840"/>
-        <c:axId val="391099168"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="391098840"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:min val="6"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Angular</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> Frequency (kHz)</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="391099168"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="391099168"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Output</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> Voltage (mV)</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="391098840"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>phase</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> difference</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Preliminary Graphs'!$E$15</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>phase difference</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="1270">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Preliminary Graphs'!$A$16:$A$27</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>6.2831853071795862</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6.5973445725385655</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6.9115038378975457</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7.2256631032565233</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7.6654860747590954</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7.7283179278308909</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7.8539816339744828</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8.4823001646924414</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8.7964594300514207</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9.1106186954104</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>9.4247779607693793</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>10.053096491487338</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Preliminary Graphs'!$E$16:$E$27</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>1.4074335088082274E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.3194689145077131E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.3270087368763288E-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9.2488487721683493E-4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.226477771961455E-4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-4.3982297150257102E-4</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-1.1535928223981721E-3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-1.2666901579274044E-3</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-1.3848140417023805E-3</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-1.5079644737231006E-3</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-1.5280706667060752E-3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-8F01-4C88-9AAE-733CE58ABC37}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="392794856"/>
-        <c:axId val="392797152"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="392794856"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:min val="6"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Angular</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> Frequency (kHz)</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="392797152"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="392797152"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="el-GR">
-                    <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-                    <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-                  </a:rPr>
-                  <a:t>ϕ</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US">
-                    <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-                    <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-                  </a:rPr>
-                  <a:t> (radians)</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="392794856"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>46383</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>163167</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>348974</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>144117</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>269461</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>165652</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>600490</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>133073</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 5"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2714,10 +567,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="G2" sqref="G2:G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2728,7 +581,7 @@
     <col min="5" max="5" width="15.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1" t="s">
@@ -2741,7 +594,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2752,13 +605,19 @@
         <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>18</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -2774,8 +633,16 @@
       <c r="E3" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F3">
+        <f>D3/1000</f>
+        <v>1.72E-2</v>
+      </c>
+      <c r="G3">
+        <f>E3/1000</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -2791,8 +658,16 @@
       <c r="E4" s="1">
         <v>98</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F4">
+        <f>D4/1000</f>
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="G4">
+        <f>E4/1000</f>
+        <v>9.8000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -2808,8 +683,16 @@
       <c r="E5" s="1">
         <v>98</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F5">
+        <f t="shared" ref="F5:F14" si="0">D5/1000</f>
+        <v>3.04E-2</v>
+      </c>
+      <c r="G5">
+        <f t="shared" ref="G5:G14" si="1">E5/1000</f>
+        <v>9.8000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -2825,8 +708,16 @@
       <c r="E6" s="1">
         <v>90</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>4.24E-2</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -2842,8 +733,16 @@
       <c r="E7" s="1">
         <v>70</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>5.9299999999999999E-2</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -2859,8 +758,16 @@
       <c r="E8" s="1">
         <v>70</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>0.06</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -2876,8 +783,16 @@
       <c r="E9" s="1">
         <v>74</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>5.6799999999999996E-2</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>7.3999999999999996E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -2893,8 +808,16 @@
       <c r="E10" s="1">
         <v>94</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>3.5200000000000002E-2</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>9.4E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -2910,8 +833,16 @@
       <c r="E11" s="1">
         <v>90</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>2.7199999999999998E-2</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -2927,8 +858,16 @@
       <c r="E12" s="1">
         <v>96</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>2.24E-2</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>9.6000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -2944,8 +883,16 @@
       <c r="E13" s="1">
         <v>98</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>1.84E-2</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="1"/>
+        <v>9.8000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -2960,6 +907,14 @@
       </c>
       <c r="E14" s="1">
         <v>98</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>1.3599999999999999E-2</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="1"/>
+        <v>9.8000000000000004E-2</v>
       </c>
     </row>
   </sheetData>
@@ -2970,40 +925,62 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView zoomScale="92" zoomScaleNormal="92" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="I1" sqref="I1:L1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.1796875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>6</v>
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
+        <v>15</v>
       </c>
       <c r="D1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>12</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="J1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
         <v>17.2</v>
+      </c>
+      <c r="C2" s="1">
+        <v>100</v>
       </c>
       <c r="D2">
         <f>2*PI()*A2</f>
@@ -3012,20 +989,32 @@
       <c r="E2">
         <v>17.2</v>
       </c>
-      <c r="F2">
-        <f>E2/$G$2</f>
-        <v>0.17199999999999999</v>
-      </c>
       <c r="G2">
         <v>100</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="I2">
+        <v>6.2831853071795862</v>
+      </c>
+      <c r="J2">
+        <v>1.72E-2</v>
+      </c>
+      <c r="K2">
+        <v>0.1</v>
+      </c>
+      <c r="L2">
+        <f>J2/$G$2</f>
+        <v>1.7200000000000001E-4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>1.05</v>
       </c>
       <c r="B3">
         <v>22</v>
+      </c>
+      <c r="C3" s="1">
+        <v>98</v>
       </c>
       <c r="D3">
         <f>2*PI()*A3</f>
@@ -3034,17 +1023,29 @@
       <c r="E3">
         <v>22</v>
       </c>
-      <c r="F3">
-        <f>E3/$G$2</f>
-        <v>0.22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="I3">
+        <v>6.5973445725385655</v>
+      </c>
+      <c r="J3">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="K3">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="L3">
+        <f>J3/$G$2</f>
+        <v>2.1999999999999998E-4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>1.1000000000000001</v>
       </c>
       <c r="B4">
         <v>30.4</v>
+      </c>
+      <c r="C4" s="1">
+        <v>98</v>
       </c>
       <c r="D4">
         <f t="shared" ref="D4:D13" si="0">2*PI()*A4</f>
@@ -3053,17 +1054,29 @@
       <c r="E4">
         <v>30.4</v>
       </c>
-      <c r="F4">
-        <f t="shared" ref="F4:F13" si="1">E4/$G$2</f>
-        <v>0.30399999999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="I4">
+        <v>6.9115038378975457</v>
+      </c>
+      <c r="J4">
+        <v>3.04E-2</v>
+      </c>
+      <c r="K4">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="L4">
+        <f t="shared" ref="L4:L13" si="1">J4/$G$2</f>
+        <v>3.0400000000000002E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>1.1499999999999999</v>
       </c>
       <c r="B5">
         <v>42.4</v>
+      </c>
+      <c r="C5" s="1">
+        <v>90</v>
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
@@ -3072,17 +1085,29 @@
       <c r="E5">
         <v>42.4</v>
       </c>
-      <c r="F5">
+      <c r="I5">
+        <v>7.2256631032565233</v>
+      </c>
+      <c r="J5">
+        <v>4.24E-2</v>
+      </c>
+      <c r="K5">
+        <v>0.09</v>
+      </c>
+      <c r="L5">
         <f t="shared" si="1"/>
-        <v>0.42399999999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+        <v>4.2400000000000001E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>1.22</v>
       </c>
       <c r="B6">
         <v>59.3</v>
+      </c>
+      <c r="C6" s="1">
+        <v>70</v>
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
@@ -3091,17 +1116,29 @@
       <c r="E6">
         <v>59.3</v>
       </c>
-      <c r="F6">
+      <c r="I6">
+        <v>7.6654860747590954</v>
+      </c>
+      <c r="J6">
+        <v>5.9299999999999999E-2</v>
+      </c>
+      <c r="K6">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="L6">
         <f t="shared" si="1"/>
-        <v>0.59299999999999997</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+        <v>5.9299999999999999E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>1.23</v>
       </c>
       <c r="B7">
         <v>60</v>
+      </c>
+      <c r="C7" s="1">
+        <v>70</v>
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
@@ -3110,17 +1147,29 @@
       <c r="E7">
         <v>60</v>
       </c>
-      <c r="F7">
+      <c r="I7">
+        <v>7.7283179278308909</v>
+      </c>
+      <c r="J7">
+        <v>0.06</v>
+      </c>
+      <c r="K7">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="L7">
         <f t="shared" si="1"/>
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+        <v>5.9999999999999995E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>1.25</v>
       </c>
       <c r="B8">
         <v>56.8</v>
+      </c>
+      <c r="C8" s="1">
+        <v>74</v>
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
@@ -3129,17 +1178,29 @@
       <c r="E8">
         <v>56.8</v>
       </c>
-      <c r="F8">
+      <c r="I8">
+        <v>7.8539816339744828</v>
+      </c>
+      <c r="J8">
+        <v>5.6799999999999996E-2</v>
+      </c>
+      <c r="K8">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="L8">
         <f t="shared" si="1"/>
-        <v>0.56799999999999995</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+        <v>5.6799999999999993E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>1.35</v>
       </c>
       <c r="B9">
         <v>35.200000000000003</v>
+      </c>
+      <c r="C9" s="1">
+        <v>94</v>
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
@@ -3148,17 +1209,29 @@
       <c r="E9">
         <v>35.200000000000003</v>
       </c>
-      <c r="F9">
+      <c r="I9">
+        <v>8.4823001646924414</v>
+      </c>
+      <c r="J9">
+        <v>3.5200000000000002E-2</v>
+      </c>
+      <c r="K9">
+        <v>9.4E-2</v>
+      </c>
+      <c r="L9">
         <f t="shared" si="1"/>
-        <v>0.35200000000000004</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+        <v>3.5200000000000005E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>1.4</v>
       </c>
       <c r="B10">
         <v>27.2</v>
+      </c>
+      <c r="C10" s="1">
+        <v>90</v>
       </c>
       <c r="D10">
         <f t="shared" si="0"/>
@@ -3167,17 +1240,29 @@
       <c r="E10">
         <v>27.2</v>
       </c>
-      <c r="F10">
+      <c r="I10">
+        <v>8.7964594300514207</v>
+      </c>
+      <c r="J10">
+        <v>2.7199999999999998E-2</v>
+      </c>
+      <c r="K10">
+        <v>0.09</v>
+      </c>
+      <c r="L10">
         <f t="shared" si="1"/>
-        <v>0.27200000000000002</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+        <v>2.72E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>1.45</v>
       </c>
       <c r="B11">
         <v>22.4</v>
+      </c>
+      <c r="C11" s="1">
+        <v>96</v>
       </c>
       <c r="D11">
         <f t="shared" si="0"/>
@@ -3186,17 +1271,29 @@
       <c r="E11">
         <v>22.4</v>
       </c>
-      <c r="F11">
+      <c r="I11">
+        <v>9.1106186954104</v>
+      </c>
+      <c r="J11">
+        <v>2.24E-2</v>
+      </c>
+      <c r="K11">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="L11">
         <f t="shared" si="1"/>
-        <v>0.22399999999999998</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+        <v>2.24E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>1.5</v>
       </c>
       <c r="B12">
         <v>18.399999999999999</v>
+      </c>
+      <c r="C12" s="1">
+        <v>98</v>
       </c>
       <c r="D12">
         <f t="shared" si="0"/>
@@ -3205,17 +1302,29 @@
       <c r="E12">
         <v>18.399999999999999</v>
       </c>
-      <c r="F12">
+      <c r="I12">
+        <v>9.4247779607693793</v>
+      </c>
+      <c r="J12">
+        <v>1.84E-2</v>
+      </c>
+      <c r="K12">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="L12">
         <f t="shared" si="1"/>
-        <v>0.184</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1.84E-4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>1.6</v>
       </c>
       <c r="B13">
         <v>13.6</v>
+      </c>
+      <c r="C13" s="1">
+        <v>98</v>
       </c>
       <c r="D13">
         <f t="shared" si="0"/>
@@ -3224,29 +1333,38 @@
       <c r="E13">
         <v>13.6</v>
       </c>
-      <c r="F13">
+      <c r="I13">
+        <v>10.053096491487338</v>
+      </c>
+      <c r="J13">
+        <v>1.3599999999999999E-2</v>
+      </c>
+      <c r="K13">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="L13">
         <f t="shared" si="1"/>
-        <v>0.13600000000000001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1.36E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" t="s">
         <v>8</v>
-      </c>
-      <c r="B15" t="s">
-        <v>9</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
       </c>
       <c r="D15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>6.2831853071795862</v>
       </c>
@@ -3488,15 +1606,446 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N1" sqref="N1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="16.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.90625" customWidth="1"/>
+    <col min="5" max="5" width="4.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.81640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>100</v>
+      </c>
+      <c r="C2">
+        <v>6.2831853071795862</v>
+      </c>
+      <c r="D2">
+        <v>1.72E-2</v>
+      </c>
+      <c r="E2">
+        <v>0.1</v>
+      </c>
+      <c r="F2">
+        <v>1.7200000000000001E-4</v>
+      </c>
+      <c r="G2">
+        <v>1.4074335088082274E-3</v>
+      </c>
+      <c r="H2">
+        <f>F2/E2</f>
+        <v>1.72E-3</v>
+      </c>
+      <c r="M2">
+        <v>6.2831853071795862</v>
+      </c>
+      <c r="N2">
+        <v>1.72E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="C3">
+        <v>6.5973445725385655</v>
+      </c>
+      <c r="D3">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="E3">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="F3">
+        <v>2.1999999999999998E-4</v>
+      </c>
+      <c r="G3">
+        <v>1.3194689145077131E-3</v>
+      </c>
+      <c r="H3">
+        <f>F3/E3</f>
+        <v>2.2448979591836731E-3</v>
+      </c>
+      <c r="M3">
+        <v>6.5973445725385655</v>
+      </c>
+      <c r="N3">
+        <v>2.2448979591836731E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="C4">
+        <v>6.9115038378975457</v>
+      </c>
+      <c r="D4">
+        <v>3.04E-2</v>
+      </c>
+      <c r="E4">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="F4">
+        <v>3.0400000000000002E-4</v>
+      </c>
+      <c r="G4">
+        <v>1.3270087368763288E-3</v>
+      </c>
+      <c r="H4">
+        <f t="shared" ref="H4:H13" si="0">F4/E4</f>
+        <v>3.1020408163265306E-3</v>
+      </c>
+      <c r="M4">
+        <v>6.9115038378975457</v>
+      </c>
+      <c r="N4">
+        <v>3.1020408163265306E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="C5">
+        <v>7.2256631032565233</v>
+      </c>
+      <c r="D5">
+        <v>4.24E-2</v>
+      </c>
+      <c r="E5">
+        <v>0.09</v>
+      </c>
+      <c r="F5">
+        <v>4.2400000000000001E-4</v>
+      </c>
+      <c r="G5">
+        <v>9.2488487721683493E-4</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="0"/>
+        <v>4.7111111111111112E-3</v>
+      </c>
+      <c r="M5">
+        <v>7.2256631032565233</v>
+      </c>
+      <c r="N5">
+        <v>4.7111111111111112E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="C6">
+        <v>7.6654860747590954</v>
+      </c>
+      <c r="D6">
+        <v>5.9299999999999999E-2</v>
+      </c>
+      <c r="E6">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F6">
+        <v>5.9299999999999999E-4</v>
+      </c>
+      <c r="G6">
+        <v>1.226477771961455E-4</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>8.4714285714285707E-3</v>
+      </c>
+      <c r="M6">
+        <v>7.6654860747590954</v>
+      </c>
+      <c r="N6">
+        <v>8.4714285714285707E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="C7">
+        <v>7.7283179278308909</v>
+      </c>
+      <c r="D7">
+        <v>0.06</v>
+      </c>
+      <c r="E7">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F7">
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>8.5714285714285701E-3</v>
+      </c>
+      <c r="M7">
+        <v>7.7283179278308909</v>
+      </c>
+      <c r="N7">
+        <v>8.5714285714285701E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="C8">
+        <v>7.8539816339744828</v>
+      </c>
+      <c r="D8">
+        <v>5.6799999999999996E-2</v>
+      </c>
+      <c r="E8">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="F8">
+        <v>5.6799999999999993E-4</v>
+      </c>
+      <c r="G8">
+        <v>-4.3982297150257102E-4</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>7.675675675675675E-3</v>
+      </c>
+      <c r="M8">
+        <v>7.8539816339744828</v>
+      </c>
+      <c r="N8">
+        <v>7.675675675675675E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="C9">
+        <v>8.4823001646924414</v>
+      </c>
+      <c r="D9">
+        <v>3.5200000000000002E-2</v>
+      </c>
+      <c r="E9">
+        <v>9.4E-2</v>
+      </c>
+      <c r="F9">
+        <v>3.5200000000000005E-4</v>
+      </c>
+      <c r="G9">
+        <v>-1.1535928223981721E-3</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>3.7446808510638303E-3</v>
+      </c>
+      <c r="M9">
+        <v>8.4823001646924414</v>
+      </c>
+      <c r="N9">
+        <v>3.7446808510638303E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="C10">
+        <v>8.7964594300514207</v>
+      </c>
+      <c r="D10">
+        <v>2.7199999999999998E-2</v>
+      </c>
+      <c r="E10">
+        <v>0.09</v>
+      </c>
+      <c r="F10">
+        <v>2.72E-4</v>
+      </c>
+      <c r="G10">
+        <v>-1.2666901579274044E-3</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>3.0222222222222222E-3</v>
+      </c>
+      <c r="M10">
+        <v>8.7964594300514207</v>
+      </c>
+      <c r="N10">
+        <v>3.0222222222222222E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="C11">
+        <v>9.1106186954104</v>
+      </c>
+      <c r="D11">
+        <v>2.24E-2</v>
+      </c>
+      <c r="E11">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="F11">
+        <v>2.24E-4</v>
+      </c>
+      <c r="G11">
+        <v>-1.3848140417023805E-3</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="0"/>
+        <v>2.3333333333333331E-3</v>
+      </c>
+      <c r="M11">
+        <v>9.1106186954104</v>
+      </c>
+      <c r="N11">
+        <v>2.3333333333333331E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="C12">
+        <v>9.4247779607693793</v>
+      </c>
+      <c r="D12">
+        <v>1.84E-2</v>
+      </c>
+      <c r="E12">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="F12">
+        <v>1.84E-4</v>
+      </c>
+      <c r="G12">
+        <v>-1.5079644737231006E-3</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="0"/>
+        <v>1.8775510204081631E-3</v>
+      </c>
+      <c r="M12">
+        <v>9.4247779607693793</v>
+      </c>
+      <c r="N12">
+        <v>1.8775510204081631E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="C13">
+        <v>10.053096491487338</v>
+      </c>
+      <c r="D13">
+        <v>1.3599999999999999E-2</v>
+      </c>
+      <c r="E13">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="F13">
+        <v>1.36E-4</v>
+      </c>
+      <c r="G13">
+        <v>-1.5280706667060752E-3</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="0"/>
+        <v>1.3877551020408162E-3</v>
+      </c>
+      <c r="M13">
+        <v>10.053096491487338</v>
+      </c>
+      <c r="N13">
+        <v>1.3877551020408162E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="9.81640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1">
+        <v>100</v>
+      </c>
+      <c r="C1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2">
+        <v>0.1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B3">
+        <f>0.1*10^-6</f>
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M600"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A573" workbookViewId="0">
+    <sheetView topLeftCell="A486" workbookViewId="0">
       <selection activeCell="A573" sqref="A1:C1048576"/>
     </sheetView>
   </sheetViews>

--- a/PH 424/LRC_lab_rawData.xlsx
+++ b/PH 424/LRC_lab_rawData.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="16925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\John\Desktop\homeworkRepo\PH 424\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\waczakj\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="50" windowWidth="23000" windowHeight="10040" activeTab="3"/>
+    <workbookView xWindow="480" yWindow="48" windowWidth="23004" windowHeight="10044" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Raw Data" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
     <definedName name="_1.23kHz_Scope" localSheetId="4">'Raw Scope'!$F$1:$H$600</definedName>
     <definedName name="_1.510kHz_Scope" localSheetId="4">'Raw Scope'!$K$1:$M$600</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="31">
   <si>
     <t>Case</t>
   </si>
@@ -134,13 +134,25 @@
     <t>C</t>
   </si>
   <si>
-    <t>Inductance</t>
-  </si>
-  <si>
     <t>uF</t>
   </si>
   <si>
     <t>F</t>
+  </si>
+  <si>
+    <t>w_f</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>freq(hz)</t>
+  </si>
+  <si>
+    <t>Hz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Henry </t>
   </si>
 </sst>
 </file>
@@ -235,15 +247,15 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="1.510kHz_Scope" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="1.23kHz_Scope" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="1.23kHz_Scope" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="1.05kHz_Scope" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="1.05kHz_Scope" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="1.510kHz_Scope" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -322,23 +334,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -374,23 +369,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -573,15 +551,15 @@
       <selection activeCell="G2" sqref="G2:G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1" t="s">
@@ -594,7 +572,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -617,7 +595,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -642,7 +620,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -667,7 +645,7 @@
         <v>9.8000000000000004E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -692,7 +670,7 @@
         <v>9.8000000000000004E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -717,7 +695,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -742,7 +720,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -767,7 +745,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -792,7 +770,7 @@
         <v>7.3999999999999996E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -817,7 +795,7 @@
         <v>9.4E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -842,7 +820,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -867,7 +845,7 @@
         <v>9.6000000000000002E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -892,7 +870,7 @@
         <v>9.8000000000000004E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -928,19 +906,19 @@
   <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView zoomScale="92" zoomScaleNormal="92" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:L1048576"/>
+      <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="11.36328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -959,6 +937,9 @@
       <c r="G1" t="s">
         <v>12</v>
       </c>
+      <c r="H1" t="s">
+        <v>28</v>
+      </c>
       <c r="I1" t="s">
         <v>13</v>
       </c>
@@ -972,7 +953,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -992,8 +973,13 @@
       <c r="G2">
         <v>100</v>
       </c>
+      <c r="H2">
+        <f>A2*1000</f>
+        <v>1000</v>
+      </c>
       <c r="I2">
-        <v>6.2831853071795862</v>
+        <f>2*PI()*H2</f>
+        <v>6283.1853071795858</v>
       </c>
       <c r="J2">
         <v>1.72E-2</v>
@@ -1006,7 +992,7 @@
         <v>1.7200000000000001E-4</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1.05</v>
       </c>
@@ -1023,8 +1009,13 @@
       <c r="E3">
         <v>22</v>
       </c>
+      <c r="H3">
+        <f>A3*1000</f>
+        <v>1050</v>
+      </c>
       <c r="I3">
-        <v>6.5973445725385655</v>
+        <f>2*PI()*H3</f>
+        <v>6597.3445725385654</v>
       </c>
       <c r="J3">
         <v>2.1999999999999999E-2</v>
@@ -1037,7 +1028,7 @@
         <v>2.1999999999999998E-4</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>1.1000000000000001</v>
       </c>
@@ -1054,8 +1045,13 @@
       <c r="E4">
         <v>30.4</v>
       </c>
+      <c r="H4">
+        <f t="shared" ref="H4:H13" si="1">A4*1000</f>
+        <v>1100</v>
+      </c>
       <c r="I4">
-        <v>6.9115038378975457</v>
+        <f t="shared" ref="I4:I13" si="2">2*PI()*H4</f>
+        <v>6911.5038378975451</v>
       </c>
       <c r="J4">
         <v>3.04E-2</v>
@@ -1064,11 +1060,11 @@
         <v>9.8000000000000004E-2</v>
       </c>
       <c r="L4">
-        <f t="shared" ref="L4:L13" si="1">J4/$G$2</f>
+        <f t="shared" ref="L4:L13" si="3">J4/$G$2</f>
         <v>3.0400000000000002E-4</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>1.1499999999999999</v>
       </c>
@@ -1085,8 +1081,13 @@
       <c r="E5">
         <v>42.4</v>
       </c>
+      <c r="H5">
+        <f t="shared" si="1"/>
+        <v>1150</v>
+      </c>
       <c r="I5">
-        <v>7.2256631032565233</v>
+        <f t="shared" si="2"/>
+        <v>7225.6631032565238</v>
       </c>
       <c r="J5">
         <v>4.24E-2</v>
@@ -1095,11 +1096,11 @@
         <v>0.09</v>
       </c>
       <c r="L5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4.2400000000000001E-4</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>1.22</v>
       </c>
@@ -1116,8 +1117,13 @@
       <c r="E6">
         <v>59.3</v>
       </c>
+      <c r="H6">
+        <f t="shared" si="1"/>
+        <v>1220</v>
+      </c>
       <c r="I6">
-        <v>7.6654860747590954</v>
+        <f t="shared" si="2"/>
+        <v>7665.4860747590956</v>
       </c>
       <c r="J6">
         <v>5.9299999999999999E-2</v>
@@ -1126,11 +1132,11 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="L6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5.9299999999999999E-4</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>1.23</v>
       </c>
@@ -1147,8 +1153,13 @@
       <c r="E7">
         <v>60</v>
       </c>
+      <c r="H7">
+        <f t="shared" si="1"/>
+        <v>1230</v>
+      </c>
       <c r="I7">
-        <v>7.7283179278308909</v>
+        <f t="shared" si="2"/>
+        <v>7728.3179278308908</v>
       </c>
       <c r="J7">
         <v>0.06</v>
@@ -1157,11 +1168,11 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="L7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5.9999999999999995E-4</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>1.25</v>
       </c>
@@ -1178,8 +1189,13 @@
       <c r="E8">
         <v>56.8</v>
       </c>
+      <c r="H8">
+        <f t="shared" si="1"/>
+        <v>1250</v>
+      </c>
       <c r="I8">
-        <v>7.8539816339744828</v>
+        <f t="shared" si="2"/>
+        <v>7853.981633974483</v>
       </c>
       <c r="J8">
         <v>5.6799999999999996E-2</v>
@@ -1188,11 +1204,11 @@
         <v>7.3999999999999996E-2</v>
       </c>
       <c r="L8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5.6799999999999993E-4</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>1.35</v>
       </c>
@@ -1209,8 +1225,13 @@
       <c r="E9">
         <v>35.200000000000003</v>
       </c>
+      <c r="H9">
+        <f t="shared" si="1"/>
+        <v>1350</v>
+      </c>
       <c r="I9">
-        <v>8.4823001646924414</v>
+        <f t="shared" si="2"/>
+        <v>8482.3001646924422</v>
       </c>
       <c r="J9">
         <v>3.5200000000000002E-2</v>
@@ -1219,11 +1240,11 @@
         <v>9.4E-2</v>
       </c>
       <c r="L9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3.5200000000000005E-4</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>1.4</v>
       </c>
@@ -1240,8 +1261,13 @@
       <c r="E10">
         <v>27.2</v>
       </c>
+      <c r="H10">
+        <f t="shared" si="1"/>
+        <v>1400</v>
+      </c>
       <c r="I10">
-        <v>8.7964594300514207</v>
+        <f t="shared" si="2"/>
+        <v>8796.45943005142</v>
       </c>
       <c r="J10">
         <v>2.7199999999999998E-2</v>
@@ -1250,11 +1276,11 @@
         <v>0.09</v>
       </c>
       <c r="L10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2.72E-4</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>1.45</v>
       </c>
@@ -1271,8 +1297,13 @@
       <c r="E11">
         <v>22.4</v>
       </c>
+      <c r="H11">
+        <f t="shared" si="1"/>
+        <v>1450</v>
+      </c>
       <c r="I11">
-        <v>9.1106186954104</v>
+        <f t="shared" si="2"/>
+        <v>9110.6186954103996</v>
       </c>
       <c r="J11">
         <v>2.24E-2</v>
@@ -1281,11 +1312,11 @@
         <v>9.6000000000000002E-2</v>
       </c>
       <c r="L11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2.24E-4</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>1.5</v>
       </c>
@@ -1302,8 +1333,13 @@
       <c r="E12">
         <v>18.399999999999999</v>
       </c>
+      <c r="H12">
+        <f t="shared" si="1"/>
+        <v>1500</v>
+      </c>
       <c r="I12">
-        <v>9.4247779607693793</v>
+        <f t="shared" si="2"/>
+        <v>9424.7779607693792</v>
       </c>
       <c r="J12">
         <v>1.84E-2</v>
@@ -1312,11 +1348,11 @@
         <v>9.8000000000000004E-2</v>
       </c>
       <c r="L12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.84E-4</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>1.6</v>
       </c>
@@ -1333,8 +1369,13 @@
       <c r="E13">
         <v>13.6</v>
       </c>
+      <c r="H13">
+        <f t="shared" si="1"/>
+        <v>1600</v>
+      </c>
       <c r="I13">
-        <v>10.053096491487338</v>
+        <f t="shared" si="2"/>
+        <v>10053.096491487338</v>
       </c>
       <c r="J13">
         <v>1.3599999999999999E-2</v>
@@ -1343,11 +1384,11 @@
         <v>9.8000000000000004E-2</v>
       </c>
       <c r="L13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.36E-4</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>7</v>
       </c>
@@ -1364,7 +1405,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>6.2831853071795862</v>
       </c>
@@ -1384,7 +1425,7 @@
         <v>1.4074335088082274E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>6.5973445725385655</v>
       </c>
@@ -1404,203 +1445,203 @@
         <v>1.3194689145077131E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>6.9115038378975457</v>
       </c>
       <c r="B18">
-        <f t="shared" ref="B18:B27" si="2">2*PI()/A18</f>
+        <f t="shared" ref="B18:B27" si="4">2*PI()/A18</f>
         <v>0.90909090909090895</v>
       </c>
       <c r="C18">
         <v>192</v>
       </c>
       <c r="D18">
-        <f t="shared" ref="D18:D27" si="3">C18*10^-6</f>
+        <f t="shared" ref="D18:D27" si="5">C18*10^-6</f>
         <v>1.92E-4</v>
       </c>
       <c r="E18">
-        <f t="shared" ref="E18:E27" si="4">2*PI()*D18/B18</f>
+        <f t="shared" ref="E18:E27" si="6">2*PI()*D18/B18</f>
         <v>1.3270087368763288E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>7.2256631032565233</v>
       </c>
       <c r="B19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.86956521739130443</v>
       </c>
       <c r="C19">
         <v>128</v>
       </c>
       <c r="D19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.2799999999999999E-4</v>
       </c>
       <c r="E19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>9.2488487721683493E-4</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>7.6654860747590954</v>
       </c>
       <c r="B20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.81967213114754101</v>
       </c>
       <c r="C20">
         <v>16</v>
       </c>
       <c r="D20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.5999999999999999E-5</v>
       </c>
       <c r="E20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.226477771961455E-4</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>7.7283179278308909</v>
       </c>
       <c r="B21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.81300813008130079</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>7.8539816339744828</v>
       </c>
       <c r="B22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.8</v>
       </c>
       <c r="C22">
         <v>-56</v>
       </c>
       <c r="D22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-5.5999999999999999E-5</v>
       </c>
       <c r="E22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-4.3982297150257102E-4</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>8.4823001646924414</v>
       </c>
       <c r="B23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.7407407407407407</v>
       </c>
       <c r="C23">
         <v>-136</v>
       </c>
       <c r="D23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-1.36E-4</v>
       </c>
       <c r="E23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-1.1535928223981721E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>8.7964594300514207</v>
       </c>
       <c r="B24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.7142857142857143</v>
       </c>
       <c r="C24">
         <v>-144</v>
       </c>
       <c r="D24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-1.44E-4</v>
       </c>
       <c r="E24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-1.2666901579274044E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>9.1106186954104</v>
       </c>
       <c r="B25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.68965517241379315</v>
       </c>
       <c r="C25">
         <v>-152</v>
       </c>
       <c r="D25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-1.5199999999999998E-4</v>
       </c>
       <c r="E25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-1.3848140417023805E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>9.4247779607693793</v>
       </c>
       <c r="B26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="C26">
         <v>-160</v>
       </c>
       <c r="D26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-1.5999999999999999E-4</v>
       </c>
       <c r="E26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-1.5079644737231006E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>10.053096491487338</v>
       </c>
       <c r="B27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.625</v>
       </c>
       <c r="C27">
         <v>-152</v>
       </c>
       <c r="D27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-1.5199999999999998E-4</v>
       </c>
       <c r="E27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-1.5280706667060752E-3</v>
       </c>
     </row>
@@ -1614,19 +1655,18 @@
   <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="16.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.90625" customWidth="1"/>
-    <col min="5" max="5" width="4.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" customWidth="1"/>
+    <col min="5" max="5" width="4.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -1655,12 +1695,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>100</v>
       </c>
       <c r="C2">
-        <v>6.2831853071795862</v>
+        <v>6283.1853071795858</v>
       </c>
       <c r="D2">
         <v>1.72E-2</v>
@@ -1679,15 +1719,15 @@
         <v>1.72E-3</v>
       </c>
       <c r="M2">
-        <v>6.2831853071795862</v>
+        <v>6283.1853071795858</v>
       </c>
       <c r="N2">
         <v>1.72E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C3">
-        <v>6.5973445725385655</v>
+        <v>6597.3445725385654</v>
       </c>
       <c r="D3">
         <v>2.1999999999999999E-2</v>
@@ -1706,15 +1746,15 @@
         <v>2.2448979591836731E-3</v>
       </c>
       <c r="M3">
-        <v>6.5973445725385655</v>
+        <v>6597.3445725385654</v>
       </c>
       <c r="N3">
         <v>2.2448979591836731E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C4">
-        <v>6.9115038378975457</v>
+        <v>6911.5038378975451</v>
       </c>
       <c r="D4">
         <v>3.04E-2</v>
@@ -1733,15 +1773,15 @@
         <v>3.1020408163265306E-3</v>
       </c>
       <c r="M4">
-        <v>6.9115038378975457</v>
+        <v>6911.5038378975451</v>
       </c>
       <c r="N4">
         <v>3.1020408163265306E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C5">
-        <v>7.2256631032565233</v>
+        <v>7225.6631032565238</v>
       </c>
       <c r="D5">
         <v>4.24E-2</v>
@@ -1760,15 +1800,15 @@
         <v>4.7111111111111112E-3</v>
       </c>
       <c r="M5">
-        <v>7.2256631032565233</v>
+        <v>7225.6631032565238</v>
       </c>
       <c r="N5">
         <v>4.7111111111111112E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C6">
-        <v>7.6654860747590954</v>
+        <v>7665.4860747590956</v>
       </c>
       <c r="D6">
         <v>5.9299999999999999E-2</v>
@@ -1787,15 +1827,15 @@
         <v>8.4714285714285707E-3</v>
       </c>
       <c r="M6">
-        <v>7.6654860747590954</v>
+        <v>7665.4860747590956</v>
       </c>
       <c r="N6">
         <v>8.4714285714285707E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C7">
-        <v>7.7283179278308909</v>
+        <v>7728.3179278308908</v>
       </c>
       <c r="D7">
         <v>0.06</v>
@@ -1814,15 +1854,15 @@
         <v>8.5714285714285701E-3</v>
       </c>
       <c r="M7">
-        <v>7.7283179278308909</v>
+        <v>7728.3179278308908</v>
       </c>
       <c r="N7">
         <v>8.5714285714285701E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C8">
-        <v>7.8539816339744828</v>
+        <v>7853.981633974483</v>
       </c>
       <c r="D8">
         <v>5.6799999999999996E-2</v>
@@ -1841,15 +1881,15 @@
         <v>7.675675675675675E-3</v>
       </c>
       <c r="M8">
-        <v>7.8539816339744828</v>
+        <v>7853.981633974483</v>
       </c>
       <c r="N8">
         <v>7.675675675675675E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C9">
-        <v>8.4823001646924414</v>
+        <v>8482.3001646924422</v>
       </c>
       <c r="D9">
         <v>3.5200000000000002E-2</v>
@@ -1868,15 +1908,15 @@
         <v>3.7446808510638303E-3</v>
       </c>
       <c r="M9">
-        <v>8.4823001646924414</v>
+        <v>8482.3001646924422</v>
       </c>
       <c r="N9">
         <v>3.7446808510638303E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C10">
-        <v>8.7964594300514207</v>
+        <v>8796.45943005142</v>
       </c>
       <c r="D10">
         <v>2.7199999999999998E-2</v>
@@ -1895,15 +1935,15 @@
         <v>3.0222222222222222E-3</v>
       </c>
       <c r="M10">
-        <v>8.7964594300514207</v>
+        <v>8796.45943005142</v>
       </c>
       <c r="N10">
         <v>3.0222222222222222E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C11">
-        <v>9.1106186954104</v>
+        <v>9110.6186954103996</v>
       </c>
       <c r="D11">
         <v>2.24E-2</v>
@@ -1922,15 +1962,15 @@
         <v>2.3333333333333331E-3</v>
       </c>
       <c r="M11">
-        <v>9.1106186954104</v>
+        <v>9110.6186954103996</v>
       </c>
       <c r="N11">
         <v>2.3333333333333331E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C12">
-        <v>9.4247779607693793</v>
+        <v>9424.7779607693792</v>
       </c>
       <c r="D12">
         <v>1.84E-2</v>
@@ -1949,15 +1989,15 @@
         <v>1.8775510204081631E-3</v>
       </c>
       <c r="M12">
-        <v>9.4247779607693793</v>
+        <v>9424.7779607693792</v>
       </c>
       <c r="N12">
         <v>1.8775510204081631E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C13">
-        <v>10.053096491487338</v>
+        <v>10053.096491487338</v>
       </c>
       <c r="D13">
         <v>1.3599999999999999E-2</v>
@@ -1976,7 +2016,7 @@
         <v>1.3877551020408162E-3</v>
       </c>
       <c r="M13">
-        <v>10.053096491487338</v>
+        <v>10053.096491487338</v>
       </c>
       <c r="N13">
         <v>1.3877551020408162E-3</v>
@@ -1992,15 +2032,15 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>21</v>
       </c>
@@ -2011,7 +2051,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -2019,21 +2059,39 @@
         <v>0.1</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B3">
         <f>0.1*10^-6</f>
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="C3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B4">
+        <v>7728.3179278308908</v>
+      </c>
+      <c r="C4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>27</v>
+      </c>
+      <c r="B5">
+        <f>1/(B4^2*B3)</f>
+        <v>0.16742875213553077</v>
+      </c>
+      <c r="C5" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -2049,15 +2107,15 @@
       <selection activeCell="A573" sqref="A1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="8.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="8.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="8.7265625" style="2"/>
-    <col min="11" max="13" width="8.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="8.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="8.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="8.77734375" style="2"/>
+    <col min="11" max="13" width="8.6640625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="2">
         <v>-1.1999999999999999E-3</v>
       </c>
@@ -2086,7 +2144,7 @@
         <v>9.4E-2</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>-1.1999999999999999E-3</v>
       </c>
@@ -2115,7 +2173,7 @@
         <v>9.8000000000000004E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>-1.1900000000000001E-3</v>
       </c>
@@ -2144,7 +2202,7 @@
         <v>9.6000000000000002E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>-1.1900000000000001E-3</v>
       </c>
@@ -2173,7 +2231,7 @@
         <v>9.8000000000000004E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>-1.1800000000000001E-3</v>
       </c>
@@ -2202,7 +2260,7 @@
         <v>9.8000000000000004E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>-1.1800000000000001E-3</v>
       </c>
@@ -2231,7 +2289,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>-1.1800000000000001E-3</v>
       </c>
@@ -2260,7 +2318,7 @@
         <v>9.8000000000000004E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>-1.17E-3</v>
       </c>
@@ -2289,7 +2347,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>-1.17E-3</v>
       </c>
@@ -2318,7 +2376,7 @@
         <v>9.8000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>-1.16E-3</v>
       </c>
@@ -2347,7 +2405,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>-1.16E-3</v>
       </c>
@@ -2376,7 +2434,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>-1.16E-3</v>
       </c>
@@ -2405,7 +2463,7 @@
         <v>9.8000000000000004E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>-1.15E-3</v>
       </c>
@@ -2434,7 +2492,7 @@
         <v>9.8000000000000004E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>-1.15E-3</v>
       </c>
@@ -2463,7 +2521,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>-1.14E-3</v>
       </c>
@@ -2492,7 +2550,7 @@
         <v>9.6000000000000002E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>-1.14E-3</v>
       </c>
@@ -2521,7 +2579,7 @@
         <v>9.8000000000000004E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>-1.14E-3</v>
       </c>
@@ -2550,7 +2608,7 @@
         <v>9.6000000000000002E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>-1.1299999999999999E-3</v>
       </c>
@@ -2579,7 +2637,7 @@
         <v>9.4E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>-1.1299999999999999E-3</v>
       </c>
@@ -2608,7 +2666,7 @@
         <v>9.4E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>-1.1199999999999999E-3</v>
       </c>
@@ -2637,7 +2695,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>-1.1199999999999999E-3</v>
       </c>
@@ -2666,7 +2724,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>-1.1199999999999999E-3</v>
       </c>
@@ -2695,7 +2753,7 @@
         <v>8.7900000000000006E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>-1.1100000000000001E-3</v>
       </c>
@@ -2724,7 +2782,7 @@
         <v>8.7900000000000006E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>-1.1100000000000001E-3</v>
       </c>
@@ -2753,7 +2811,7 @@
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>-1.1000000000000001E-3</v>
       </c>
@@ -2782,7 +2840,7 @@
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>-1.1000000000000001E-3</v>
       </c>
@@ -2811,7 +2869,7 @@
         <v>7.8E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>-1.1000000000000001E-3</v>
       </c>
@@ -2840,7 +2898,7 @@
         <v>7.8E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>-1.09E-3</v>
       </c>
@@ -2869,7 +2927,7 @@
         <v>7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>-1.09E-3</v>
       </c>
@@ -2898,7 +2956,7 @@
         <v>7.3999999999999996E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>-1.08E-3</v>
       </c>
@@ -2927,7 +2985,7 @@
         <v>6.8000000000000005E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>-1.08E-3</v>
       </c>
@@ -2956,7 +3014,7 @@
         <v>6.59E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>-1.08E-3</v>
       </c>
@@ -2985,7 +3043,7 @@
         <v>6.4000000000000001E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>-1.07E-3</v>
       </c>
@@ -3014,7 +3072,7 @@
         <v>6.2E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>-1.07E-3</v>
       </c>
@@ -3043,7 +3101,7 @@
         <v>5.8000000000000003E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>-1.06E-3</v>
       </c>
@@ -3072,7 +3130,7 @@
         <v>5.8000000000000003E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>-1.06E-3</v>
       </c>
@@ -3101,7 +3159,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>-1.06E-3</v>
       </c>
@@ -3130,7 +3188,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>-1.0499999999999999E-3</v>
       </c>
@@ -3159,7 +3217,7 @@
         <v>4.3999999999999997E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>-1.0499999999999999E-3</v>
       </c>
@@ -3188,7 +3246,7 @@
         <v>4.3999999999999997E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>-1.0399999999999999E-3</v>
       </c>
@@ -3217,7 +3275,7 @@
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>-1.0399999999999999E-3</v>
       </c>
@@ -3246,7 +3304,7 @@
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>-1.0399999999999999E-3</v>
       </c>
@@ -3275,7 +3333,7 @@
         <v>3.2000000000000001E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>-1.0300000000000001E-3</v>
       </c>
@@ -3304,7 +3362,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>-1.0300000000000001E-3</v>
       </c>
@@ -3333,7 +3391,7 @@
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>-1.0200000000000001E-3</v>
       </c>
@@ -3362,7 +3420,7 @@
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>-1.0200000000000001E-3</v>
       </c>
@@ -3391,7 +3449,7 @@
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <v>-1.0200000000000001E-3</v>
       </c>
@@ -3420,7 +3478,7 @@
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <v>-1.01E-3</v>
       </c>
@@ -3449,7 +3507,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <v>-1.01E-3</v>
       </c>
@@ -3478,7 +3536,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <v>-1E-3</v>
       </c>
@@ -3507,7 +3565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <v>-1E-3</v>
       </c>
@@ -3536,7 +3594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <v>-9.9599999999999992E-4</v>
       </c>
@@ -3565,7 +3623,7 @@
         <v>-8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <v>-9.9200000000000004E-4</v>
       </c>
@@ -3594,7 +3652,7 @@
         <v>-8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <v>-9.8799999999999995E-4</v>
       </c>
@@ -3623,7 +3681,7 @@
         <v>-1.6E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <v>-9.8400000000000007E-4</v>
       </c>
@@ -3652,7 +3710,7 @@
         <v>-1.6E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <v>-9.7999999999999997E-4</v>
       </c>
@@ -3681,7 +3739,7 @@
         <v>-2.4E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <v>-9.7599999999999998E-4</v>
       </c>
@@ -3710,7 +3768,7 @@
         <v>-2.4E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <v>-9.7199999999999999E-4</v>
       </c>
@@ -3739,7 +3797,7 @@
         <v>-3.2000000000000001E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <v>-9.68E-4</v>
       </c>
@@ -3768,7 +3826,7 @@
         <v>-3.2000000000000001E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <v>-9.6400000000000001E-4</v>
       </c>
@@ -3797,7 +3855,7 @@
         <v>-3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
         <v>-9.6000000000000002E-4</v>
       </c>
@@ -3826,7 +3884,7 @@
         <v>-3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
         <v>-9.5600000000000004E-4</v>
       </c>
@@ -3855,7 +3913,7 @@
         <v>-4.3999999999999997E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
         <v>-9.5200000000000005E-4</v>
       </c>
@@ -3884,7 +3942,7 @@
         <v>-4.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
         <v>-9.4799999999999995E-4</v>
       </c>
@@ -3913,7 +3971,7 @@
         <v>-5.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
         <v>-9.4399999999999996E-4</v>
       </c>
@@ -3942,7 +4000,7 @@
         <v>-5.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
         <v>-9.3999999999999997E-4</v>
       </c>
@@ -3971,7 +4029,7 @@
         <v>-5.6000000000000001E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
         <v>-9.3599999999999998E-4</v>
       </c>
@@ -4000,7 +4058,7 @@
         <v>-5.8000000000000003E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
         <v>-9.3199999999999999E-4</v>
       </c>
@@ -4029,7 +4087,7 @@
         <v>-6.4000000000000001E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
         <v>-9.2800000000000001E-4</v>
       </c>
@@ -4058,7 +4116,7 @@
         <v>-6.4000000000000001E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
         <v>-9.2400000000000002E-4</v>
       </c>
@@ -4087,7 +4145,7 @@
         <v>-7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
         <v>-9.2000000000000003E-4</v>
       </c>
@@ -4116,7 +4174,7 @@
         <v>-7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
         <v>-9.1600000000000004E-4</v>
       </c>
@@ -4145,7 +4203,7 @@
         <v>-7.5899999999999995E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
         <v>-9.1200000000000005E-4</v>
       </c>
@@ -4174,7 +4232,7 @@
         <v>-7.5899999999999995E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
         <v>-9.0799999999999995E-4</v>
       </c>
@@ -4203,7 +4261,7 @@
         <v>-7.9899999999999999E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
         <v>-9.0399999999999996E-4</v>
       </c>
@@ -4232,7 +4290,7 @@
         <v>-7.9899999999999999E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
         <v>-8.9999999999999998E-4</v>
       </c>
@@ -4261,7 +4319,7 @@
         <v>-8.4000000000000005E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
         <v>-8.9599999999999999E-4</v>
       </c>
@@ -4290,7 +4348,7 @@
         <v>-8.4000000000000005E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
         <v>-8.92E-4</v>
       </c>
@@ -4319,7 +4377,7 @@
         <v>-0.09</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
         <v>-8.8800000000000001E-4</v>
       </c>
@@ -4348,7 +4406,7 @@
         <v>-8.7900000000000006E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
         <v>-8.8400000000000002E-4</v>
       </c>
@@ -4377,7 +4435,7 @@
         <v>-9.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
         <v>-8.8000000000000003E-4</v>
       </c>
@@ -4406,7 +4464,7 @@
         <v>-9.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
         <v>-8.7600000000000004E-4</v>
       </c>
@@ -4435,7 +4493,7 @@
         <v>-9.6000000000000002E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
         <v>-8.7200000000000005E-4</v>
       </c>
@@ -4464,7 +4522,7 @@
         <v>-9.6000000000000002E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
         <v>-8.6799999999999996E-4</v>
       </c>
@@ -4493,7 +4551,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
         <v>-8.6399999999999997E-4</v>
       </c>
@@ -4522,7 +4580,7 @@
         <v>-9.8000000000000004E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
         <v>-8.5999999999999998E-4</v>
       </c>
@@ -4551,7 +4609,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
         <v>-8.5599999999999999E-4</v>
       </c>
@@ -4580,7 +4638,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A88" s="2">
         <v>-8.52E-4</v>
       </c>
@@ -4609,7 +4667,7 @@
         <v>-0.10199999999999999</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
         <v>-8.4800000000000001E-4</v>
       </c>
@@ -4638,7 +4696,7 @@
         <v>-0.104</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A90" s="2">
         <v>-8.4400000000000002E-4</v>
       </c>
@@ -4667,7 +4725,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
         <v>-8.4000000000000003E-4</v>
       </c>
@@ -4696,7 +4754,7 @@
         <v>-0.10199999999999999</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A92" s="2">
         <v>-8.3600000000000005E-4</v>
       </c>
@@ -4725,7 +4783,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A93" s="2">
         <v>-8.3199999999999995E-4</v>
       </c>
@@ -4754,7 +4812,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A94" s="2">
         <v>-8.2799999999999996E-4</v>
       </c>
@@ -4783,7 +4841,7 @@
         <v>-0.10199999999999999</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A95" s="2">
         <v>-8.2399999999999997E-4</v>
       </c>
@@ -4812,7 +4870,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A96" s="2">
         <v>-8.1999999999999998E-4</v>
       </c>
@@ -4841,7 +4899,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A97" s="2">
         <v>-8.1599999999999999E-4</v>
       </c>
@@ -4870,7 +4928,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A98" s="2">
         <v>-8.12E-4</v>
       </c>
@@ -4899,7 +4957,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A99" s="2">
         <v>-8.0800000000000002E-4</v>
       </c>
@@ -4928,7 +4986,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A100" s="2">
         <v>-8.0400000000000003E-4</v>
       </c>
@@ -4957,7 +5015,7 @@
         <v>-9.8000000000000004E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A101" s="2">
         <v>-8.0000000000000004E-4</v>
       </c>
@@ -4986,7 +5044,7 @@
         <v>-9.8000000000000004E-2</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A102" s="2">
         <v>-7.9600000000000005E-4</v>
       </c>
@@ -5015,7 +5073,7 @@
         <v>-9.6000000000000002E-2</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A103" s="2">
         <v>-7.9199999999999995E-4</v>
       </c>
@@ -5044,7 +5102,7 @@
         <v>-9.6000000000000002E-2</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A104" s="2">
         <v>-7.8799999999999996E-4</v>
       </c>
@@ -5073,7 +5131,7 @@
         <v>-0.09</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A105" s="2">
         <v>-7.8399999999999997E-4</v>
       </c>
@@ -5102,7 +5160,7 @@
         <v>-9.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A106" s="2">
         <v>-7.7999999999999999E-4</v>
       </c>
@@ -5131,7 +5189,7 @@
         <v>-8.7900000000000006E-2</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A107" s="2">
         <v>-7.76E-4</v>
       </c>
@@ -5160,7 +5218,7 @@
         <v>-8.7900000000000006E-2</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A108" s="2">
         <v>-7.7200000000000001E-4</v>
       </c>
@@ -5189,7 +5247,7 @@
         <v>-8.4000000000000005E-2</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A109" s="2">
         <v>-7.6800000000000002E-4</v>
       </c>
@@ -5218,7 +5276,7 @@
         <v>-8.4000000000000005E-2</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A110" s="2">
         <v>-7.6400000000000003E-4</v>
       </c>
@@ -5247,7 +5305,7 @@
         <v>-7.8E-2</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A111" s="2">
         <v>-7.6000000000000004E-4</v>
       </c>
@@ -5276,7 +5334,7 @@
         <v>-7.8E-2</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A112" s="2">
         <v>-7.5600000000000005E-4</v>
       </c>
@@ -5305,7 +5363,7 @@
         <v>-7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A113" s="2">
         <v>-7.5199999999999996E-4</v>
       </c>
@@ -5334,7 +5392,7 @@
         <v>-7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A114" s="2">
         <v>-7.4799999999999997E-4</v>
       </c>
@@ -5363,7 +5421,7 @@
         <v>-6.8000000000000005E-2</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A115" s="2">
         <v>-7.4399999999999998E-4</v>
       </c>
@@ -5392,7 +5450,7 @@
         <v>-6.59E-2</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A116" s="2">
         <v>-7.3999999999999999E-4</v>
       </c>
@@ -5421,7 +5479,7 @@
         <v>-6.2E-2</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A117" s="2">
         <v>-7.36E-4</v>
       </c>
@@ -5450,7 +5508,7 @@
         <v>-6.2E-2</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A118" s="2">
         <v>-7.3200000000000001E-4</v>
       </c>
@@ -5479,7 +5537,7 @@
         <v>-5.6000000000000001E-2</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A119" s="2">
         <v>-7.2800000000000002E-4</v>
       </c>
@@ -5508,7 +5566,7 @@
         <v>-5.6000000000000001E-2</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A120" s="2">
         <v>-7.2400000000000003E-4</v>
       </c>
@@ -5537,7 +5595,7 @@
         <v>-0.05</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A121" s="2">
         <v>-7.2000000000000005E-4</v>
       </c>
@@ -5566,7 +5624,7 @@
         <v>-4.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A122" s="2">
         <v>-7.1599999999999995E-4</v>
       </c>
@@ -5595,7 +5653,7 @@
         <v>-4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A123" s="2">
         <v>-7.1199999999999996E-4</v>
       </c>
@@ -5624,7 +5682,7 @@
         <v>-0.04</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A124" s="2">
         <v>-7.0799999999999997E-4</v>
       </c>
@@ -5653,7 +5711,7 @@
         <v>-3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A125" s="2">
         <v>-7.0399999999999998E-4</v>
       </c>
@@ -5682,7 +5740,7 @@
         <v>-3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A126" s="2">
         <v>-6.9999999999999999E-4</v>
       </c>
@@ -5711,7 +5769,7 @@
         <v>-2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A127" s="2">
         <v>-6.96E-4</v>
       </c>
@@ -5740,7 +5798,7 @@
         <v>-2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A128" s="2">
         <v>-6.9200000000000002E-4</v>
       </c>
@@ -5769,7 +5827,7 @@
         <v>-0.02</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A129" s="2">
         <v>-6.8800000000000003E-4</v>
       </c>
@@ -5798,7 +5856,7 @@
         <v>-0.02</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A130" s="2">
         <v>-6.8400000000000004E-4</v>
       </c>
@@ -5827,7 +5885,7 @@
         <v>-1.2E-2</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A131" s="2">
         <v>-6.8000000000000005E-4</v>
       </c>
@@ -5856,7 +5914,7 @@
         <v>-1.2E-2</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A132" s="2">
         <v>-6.7599999999999995E-4</v>
       </c>
@@ -5885,7 +5943,7 @@
         <v>-6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A133" s="2">
         <v>-6.7199999999999996E-4</v>
       </c>
@@ -5914,7 +5972,7 @@
         <v>-4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A134" s="2">
         <v>-6.6799999999999997E-4</v>
       </c>
@@ -5943,7 +6001,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A135" s="2">
         <v>-6.6399999999999999E-4</v>
       </c>
@@ -5972,7 +6030,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A136" s="2">
         <v>-6.6E-4</v>
       </c>
@@ -6001,7 +6059,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A137" s="2">
         <v>-6.5600000000000001E-4</v>
       </c>
@@ -6030,7 +6088,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A138" s="2">
         <v>-6.5200000000000002E-4</v>
       </c>
@@ -6059,7 +6117,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A139" s="2">
         <v>-6.4800000000000003E-4</v>
       </c>
@@ -6088,7 +6146,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A140" s="2">
         <v>-6.4400000000000004E-4</v>
       </c>
@@ -6117,7 +6175,7 @@
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A141" s="2">
         <v>-6.4000000000000005E-4</v>
       </c>
@@ -6146,7 +6204,7 @@
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A142" s="2">
         <v>-6.3599999999999996E-4</v>
       </c>
@@ -6175,7 +6233,7 @@
         <v>3.2000000000000001E-2</v>
       </c>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A143" s="2">
         <v>-6.3199999999999997E-4</v>
       </c>
@@ -6204,7 +6262,7 @@
         <v>3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A144" s="2">
         <v>-6.2799999999999998E-4</v>
       </c>
@@ -6233,7 +6291,7 @@
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A145" s="2">
         <v>-6.2399999999999999E-4</v>
       </c>
@@ -6262,7 +6320,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A146" s="2">
         <v>-6.2E-4</v>
       </c>
@@ -6291,7 +6349,7 @@
         <v>4.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A147" s="2">
         <v>-6.1600000000000001E-4</v>
       </c>
@@ -6320,7 +6378,7 @@
         <v>4.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A148" s="2">
         <v>-6.1200000000000002E-4</v>
       </c>
@@ -6349,7 +6407,7 @@
         <v>5.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A149" s="2">
         <v>-6.0800000000000003E-4</v>
       </c>
@@ -6378,7 +6436,7 @@
         <v>5.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A150" s="2">
         <v>-6.0400000000000004E-4</v>
       </c>
@@ -6407,7 +6465,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A151" s="2">
         <v>-5.9999999999999995E-4</v>
       </c>
@@ -6436,7 +6494,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A152" s="2">
         <v>-5.9599999999999996E-4</v>
       </c>
@@ -6465,7 +6523,7 @@
         <v>6.59E-2</v>
       </c>
     </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A153" s="2">
         <v>-5.9199999999999997E-4</v>
       </c>
@@ -6494,7 +6552,7 @@
         <v>6.59E-2</v>
       </c>
     </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A154" s="2">
         <v>-5.8799999999999998E-4</v>
       </c>
@@ -6523,7 +6581,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A155" s="2">
         <v>-5.8399999999999999E-4</v>
       </c>
@@ -6552,7 +6610,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A156" s="2">
         <v>-5.8E-4</v>
       </c>
@@ -6581,7 +6639,7 @@
         <v>7.8E-2</v>
       </c>
     </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A157" s="2">
         <v>-5.7600000000000001E-4</v>
       </c>
@@ -6610,7 +6668,7 @@
         <v>7.8E-2</v>
       </c>
     </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A158" s="2">
         <v>-5.7200000000000003E-4</v>
       </c>
@@ -6639,7 +6697,7 @@
         <v>7.9899999999999999E-2</v>
       </c>
     </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A159" s="2">
         <v>-5.6800000000000004E-4</v>
       </c>
@@ -6668,7 +6726,7 @@
         <v>8.1900000000000001E-2</v>
       </c>
     </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A160" s="2">
         <v>-5.6400000000000005E-4</v>
       </c>
@@ -6697,7 +6755,7 @@
         <v>8.5999999999999993E-2</v>
       </c>
     </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A161" s="2">
         <v>-5.5999999999999995E-4</v>
       </c>
@@ -6726,7 +6784,7 @@
         <v>8.5999999999999993E-2</v>
       </c>
     </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A162" s="2">
         <v>-5.5599999999999996E-4</v>
       </c>
@@ -6755,7 +6813,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A163" s="2">
         <v>-5.5199999999999997E-4</v>
       </c>
@@ -6784,7 +6842,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A164" s="2">
         <v>-5.4799999999999998E-4</v>
       </c>
@@ -6813,7 +6871,7 @@
         <v>9.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A165" s="2">
         <v>-5.44E-4</v>
       </c>
@@ -6842,7 +6900,7 @@
         <v>9.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A166" s="2">
         <v>-5.4000000000000001E-4</v>
       </c>
@@ -6871,7 +6929,7 @@
         <v>9.4E-2</v>
       </c>
     </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A167" s="2">
         <v>-5.3600000000000002E-4</v>
       </c>
@@ -6900,7 +6958,7 @@
         <v>9.4E-2</v>
       </c>
     </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A168" s="2">
         <v>-5.3200000000000003E-4</v>
       </c>
@@ -6929,7 +6987,7 @@
         <v>9.6000000000000002E-2</v>
       </c>
     </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A169" s="2">
         <v>-5.2800000000000004E-4</v>
       </c>
@@ -6958,7 +7016,7 @@
         <v>9.4E-2</v>
       </c>
     </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A170" s="2">
         <v>-5.2400000000000005E-4</v>
       </c>
@@ -6987,7 +7045,7 @@
         <v>9.8000000000000004E-2</v>
       </c>
     </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A171" s="2">
         <v>-5.1999999999999995E-4</v>
       </c>
@@ -7016,7 +7074,7 @@
         <v>9.8000000000000004E-2</v>
       </c>
     </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A172" s="2">
         <v>-5.1599999999999997E-4</v>
       </c>
@@ -7045,7 +7103,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A173" s="2">
         <v>-5.1199999999999998E-4</v>
       </c>
@@ -7074,7 +7132,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A174" s="2">
         <v>-5.0799999999999999E-4</v>
       </c>
@@ -7103,7 +7161,7 @@
         <v>9.8000000000000004E-2</v>
       </c>
     </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A175" s="2">
         <v>-5.04E-4</v>
       </c>
@@ -7132,7 +7190,7 @@
         <v>0.10199999999999999</v>
       </c>
     </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A176" s="2">
         <v>-5.0000000000000001E-4</v>
       </c>
@@ -7161,7 +7219,7 @@
         <v>9.8000000000000004E-2</v>
       </c>
     </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A177" s="2">
         <v>-4.9600000000000002E-4</v>
       </c>
@@ -7190,7 +7248,7 @@
         <v>9.8000000000000004E-2</v>
       </c>
     </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A178" s="2">
         <v>-4.9200000000000003E-4</v>
       </c>
@@ -7219,7 +7277,7 @@
         <v>9.8000000000000004E-2</v>
       </c>
     </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A179" s="2">
         <v>-4.8799999999999999E-4</v>
       </c>
@@ -7248,7 +7306,7 @@
         <v>9.8000000000000004E-2</v>
       </c>
     </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A180" s="2">
         <v>-4.84E-4</v>
       </c>
@@ -7277,7 +7335,7 @@
         <v>9.8000000000000004E-2</v>
       </c>
     </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A181" s="2">
         <v>-4.8000000000000001E-4</v>
       </c>
@@ -7306,7 +7364,7 @@
         <v>9.8000000000000004E-2</v>
       </c>
     </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A182" s="2">
         <v>-4.7600000000000002E-4</v>
       </c>
@@ -7335,7 +7393,7 @@
         <v>9.6000000000000002E-2</v>
       </c>
     </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A183" s="2">
         <v>-4.7199999999999998E-4</v>
       </c>
@@ -7364,7 +7422,7 @@
         <v>9.6000000000000002E-2</v>
       </c>
     </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A184" s="2">
         <v>-4.6799999999999999E-4</v>
       </c>
@@ -7393,7 +7451,7 @@
         <v>9.4E-2</v>
       </c>
     </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A185" s="2">
         <v>-4.64E-4</v>
       </c>
@@ -7422,7 +7480,7 @@
         <v>9.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A186" s="2">
         <v>-4.6000000000000001E-4</v>
       </c>
@@ -7451,7 +7509,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A187" s="2">
         <v>-4.5600000000000003E-4</v>
       </c>
@@ -7480,7 +7538,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A188" s="2">
         <v>-4.5199999999999998E-4</v>
       </c>
@@ -7509,7 +7567,7 @@
         <v>8.5999999999999993E-2</v>
       </c>
     </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A189" s="2">
         <v>-4.4799999999999999E-4</v>
       </c>
@@ -7538,7 +7596,7 @@
         <v>8.5999999999999993E-2</v>
       </c>
     </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A190" s="2">
         <v>-4.44E-4</v>
       </c>
@@ -7567,7 +7625,7 @@
         <v>8.1900000000000001E-2</v>
       </c>
     </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A191" s="2">
         <v>-4.4000000000000002E-4</v>
       </c>
@@ -7596,7 +7654,7 @@
         <v>8.1900000000000001E-2</v>
       </c>
     </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A192" s="2">
         <v>-4.3600000000000003E-4</v>
       </c>
@@ -7625,7 +7683,7 @@
         <v>7.8E-2</v>
       </c>
     </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A193" s="2">
         <v>-4.3199999999999998E-4</v>
       </c>
@@ -7654,7 +7712,7 @@
         <v>7.5899999999999995E-2</v>
       </c>
     </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A194" s="2">
         <v>-4.28E-4</v>
       </c>
@@ -7683,7 +7741,7 @@
         <v>7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A195" s="2">
         <v>-4.2400000000000001E-4</v>
       </c>
@@ -7712,7 +7770,7 @@
         <v>7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A196" s="2">
         <v>-4.2000000000000002E-4</v>
       </c>
@@ -7741,7 +7799,7 @@
         <v>6.59E-2</v>
       </c>
     </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A197" s="2">
         <v>-4.1599999999999997E-4</v>
       </c>
@@ -7770,7 +7828,7 @@
         <v>6.59E-2</v>
       </c>
     </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A198" s="2">
         <v>-4.1199999999999999E-4</v>
       </c>
@@ -7799,7 +7857,7 @@
         <v>6.2E-2</v>
       </c>
     </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A199" s="2">
         <v>-4.08E-4</v>
       </c>
@@ -7828,7 +7886,7 @@
         <v>6.2E-2</v>
       </c>
     </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A200" s="2">
         <v>-4.0400000000000001E-4</v>
       </c>
@@ -7857,7 +7915,7 @@
         <v>5.6000000000000001E-2</v>
       </c>
     </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A201" s="2">
         <v>-4.0000000000000002E-4</v>
       </c>
@@ -7886,7 +7944,7 @@
         <v>5.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A202" s="2">
         <v>-3.9599999999999998E-4</v>
       </c>
@@ -7915,7 +7973,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A203" s="2">
         <v>-3.9199999999999999E-4</v>
       </c>
@@ -7944,7 +8002,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A204" s="2">
         <v>-3.88E-4</v>
       </c>
@@ -7973,7 +8031,7 @@
         <v>4.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A205" s="2">
         <v>-3.8400000000000001E-4</v>
       </c>
@@ -8002,7 +8060,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A206" s="2">
         <v>-3.8000000000000002E-4</v>
       </c>
@@ -8031,7 +8089,7 @@
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A207" s="2">
         <v>-3.7599999999999998E-4</v>
       </c>
@@ -8060,7 +8118,7 @@
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A208" s="2">
         <v>-3.7199999999999999E-4</v>
       </c>
@@ -8089,7 +8147,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="209" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A209" s="2">
         <v>-3.68E-4</v>
       </c>
@@ -8118,7 +8176,7 @@
         <v>2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="210" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A210" s="2">
         <v>-3.6400000000000001E-4</v>
       </c>
@@ -8147,7 +8205,7 @@
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="211" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A211" s="2">
         <v>-3.6000000000000002E-4</v>
       </c>
@@ -8176,7 +8234,7 @@
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="212" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A212" s="2">
         <v>-3.5599999999999998E-4</v>
       </c>
@@ -8205,7 +8263,7 @@
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="213" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A213" s="2">
         <v>-3.5199999999999999E-4</v>
       </c>
@@ -8234,7 +8292,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="214" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A214" s="2">
         <v>-3.48E-4</v>
       </c>
@@ -8263,7 +8321,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="215" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A215" s="2">
         <v>-3.4400000000000001E-4</v>
       </c>
@@ -8292,7 +8350,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="216" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A216" s="2">
         <v>-3.4000000000000002E-4</v>
       </c>
@@ -8321,7 +8379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A217" s="2">
         <v>-3.3599999999999998E-4</v>
       </c>
@@ -8350,7 +8408,7 @@
         <v>-4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="218" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A218" s="2">
         <v>-3.3199999999999999E-4</v>
       </c>
@@ -8379,7 +8437,7 @@
         <v>-8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="219" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A219" s="2">
         <v>-3.28E-4</v>
       </c>
@@ -8408,7 +8466,7 @@
         <v>-8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="220" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A220" s="2">
         <v>-3.2400000000000001E-4</v>
       </c>
@@ -8437,7 +8495,7 @@
         <v>-1.6E-2</v>
       </c>
     </row>
-    <row r="221" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A221" s="2">
         <v>-3.2000000000000003E-4</v>
       </c>
@@ -8466,7 +8524,7 @@
         <v>-1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="222" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A222" s="2">
         <v>-3.1599999999999998E-4</v>
       </c>
@@ -8495,7 +8553,7 @@
         <v>-2.4E-2</v>
       </c>
     </row>
-    <row r="223" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A223" s="2">
         <v>-3.1199999999999999E-4</v>
       </c>
@@ -8524,7 +8582,7 @@
         <v>-2.4E-2</v>
       </c>
     </row>
-    <row r="224" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A224" s="2">
         <v>-3.0800000000000001E-4</v>
       </c>
@@ -8553,7 +8611,7 @@
         <v>-3.2000000000000001E-2</v>
       </c>
     </row>
-    <row r="225" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A225" s="2">
         <v>-3.0400000000000002E-4</v>
       </c>
@@ -8582,7 +8640,7 @@
         <v>-3.2000000000000001E-2</v>
       </c>
     </row>
-    <row r="226" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A226" s="2">
         <v>-2.9999999999999997E-4</v>
       </c>
@@ -8611,7 +8669,7 @@
         <v>-0.04</v>
       </c>
     </row>
-    <row r="227" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A227" s="2">
         <v>-2.9599999999999998E-4</v>
       </c>
@@ -8640,7 +8698,7 @@
         <v>-0.04</v>
       </c>
     </row>
-    <row r="228" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A228" s="2">
         <v>-2.92E-4</v>
       </c>
@@ -8669,7 +8727,7 @@
         <v>-4.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="229" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A229" s="2">
         <v>-2.8800000000000001E-4</v>
       </c>
@@ -8698,7 +8756,7 @@
         <v>-4.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="230" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A230" s="2">
         <v>-2.8400000000000002E-4</v>
       </c>
@@ -8727,7 +8785,7 @@
         <v>-5.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="231" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A231" s="2">
         <v>-2.7999999999999998E-4</v>
       </c>
@@ -8756,7 +8814,7 @@
         <v>-5.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="232" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A232" s="2">
         <v>-2.7599999999999999E-4</v>
       </c>
@@ -8785,7 +8843,7 @@
         <v>-0.06</v>
       </c>
     </row>
-    <row r="233" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A233" s="2">
         <v>-2.72E-4</v>
       </c>
@@ -8814,7 +8872,7 @@
         <v>-0.06</v>
       </c>
     </row>
-    <row r="234" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A234" s="2">
         <v>-2.6800000000000001E-4</v>
       </c>
@@ -8843,7 +8901,7 @@
         <v>-6.4000000000000001E-2</v>
       </c>
     </row>
-    <row r="235" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A235" s="2">
         <v>-2.6400000000000002E-4</v>
       </c>
@@ -8872,7 +8930,7 @@
         <v>-6.59E-2</v>
       </c>
     </row>
-    <row r="236" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A236" s="2">
         <v>-2.5999999999999998E-4</v>
       </c>
@@ -8901,7 +8959,7 @@
         <v>-7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="237" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A237" s="2">
         <v>-2.5599999999999999E-4</v>
       </c>
@@ -8930,7 +8988,7 @@
         <v>-7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="238" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A238" s="2">
         <v>-2.52E-4</v>
       </c>
@@ -8959,7 +9017,7 @@
         <v>-7.5899999999999995E-2</v>
       </c>
     </row>
-    <row r="239" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A239" s="2">
         <v>-2.4800000000000001E-4</v>
       </c>
@@ -8988,7 +9046,7 @@
         <v>-7.5899999999999995E-2</v>
       </c>
     </row>
-    <row r="240" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A240" s="2">
         <v>-2.4399999999999999E-4</v>
       </c>
@@ -9017,7 +9075,7 @@
         <v>-8.4000000000000005E-2</v>
       </c>
     </row>
-    <row r="241" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A241" s="2">
         <v>-2.4000000000000001E-4</v>
       </c>
@@ -9046,7 +9104,7 @@
         <v>-8.1900000000000001E-2</v>
       </c>
     </row>
-    <row r="242" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A242" s="2">
         <v>-2.3599999999999999E-4</v>
       </c>
@@ -9075,7 +9133,7 @@
         <v>-8.4000000000000005E-2</v>
       </c>
     </row>
-    <row r="243" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A243" s="2">
         <v>-2.32E-4</v>
       </c>
@@ -9104,7 +9162,7 @@
         <v>-8.5999999999999993E-2</v>
       </c>
     </row>
-    <row r="244" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A244" s="2">
         <v>-2.2800000000000001E-4</v>
       </c>
@@ -9133,7 +9191,7 @@
         <v>-0.09</v>
       </c>
     </row>
-    <row r="245" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A245" s="2">
         <v>-2.24E-4</v>
       </c>
@@ -9162,7 +9220,7 @@
         <v>-0.09</v>
       </c>
     </row>
-    <row r="246" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A246" s="2">
         <v>-2.2000000000000001E-4</v>
       </c>
@@ -9191,7 +9249,7 @@
         <v>-9.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="247" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A247" s="2">
         <v>-2.1599999999999999E-4</v>
       </c>
@@ -9220,7 +9278,7 @@
         <v>-9.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="248" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A248" s="2">
         <v>-2.12E-4</v>
       </c>
@@ -9249,7 +9307,7 @@
         <v>-9.4E-2</v>
       </c>
     </row>
-    <row r="249" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A249" s="2">
         <v>-2.0799999999999999E-4</v>
       </c>
@@ -9278,7 +9336,7 @@
         <v>-9.6000000000000002E-2</v>
       </c>
     </row>
-    <row r="250" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A250" s="2">
         <v>-2.04E-4</v>
       </c>
@@ -9307,7 +9365,7 @@
         <v>-9.8000000000000004E-2</v>
       </c>
     </row>
-    <row r="251" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A251" s="2">
         <v>-2.0000000000000001E-4</v>
       </c>
@@ -9336,7 +9394,7 @@
         <v>-9.8000000000000004E-2</v>
       </c>
     </row>
-    <row r="252" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A252" s="2">
         <v>-1.9599999999999999E-4</v>
       </c>
@@ -9365,7 +9423,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="253" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A253" s="2">
         <v>-1.92E-4</v>
       </c>
@@ -9394,7 +9452,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="254" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A254" s="2">
         <v>-1.8799999999999999E-4</v>
       </c>
@@ -9423,7 +9481,7 @@
         <v>-0.10199999999999999</v>
       </c>
     </row>
-    <row r="255" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A255" s="2">
         <v>-1.84E-4</v>
       </c>
@@ -9452,7 +9510,7 @@
         <v>-0.10199999999999999</v>
       </c>
     </row>
-    <row r="256" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A256" s="2">
         <v>-1.8000000000000001E-4</v>
       </c>
@@ -9481,7 +9539,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="257" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A257" s="2">
         <v>-1.76E-4</v>
       </c>
@@ -9510,7 +9568,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="258" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A258" s="2">
         <v>-1.7200000000000001E-4</v>
       </c>
@@ -9539,7 +9597,7 @@
         <v>-0.104</v>
       </c>
     </row>
-    <row r="259" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A259" s="2">
         <v>-1.6799999999999999E-4</v>
       </c>
@@ -9568,7 +9626,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="260" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A260" s="2">
         <v>-1.64E-4</v>
       </c>
@@ -9597,7 +9655,7 @@
         <v>-0.10199999999999999</v>
       </c>
     </row>
-    <row r="261" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A261" s="2">
         <v>-1.6000000000000001E-4</v>
       </c>
@@ -9626,7 +9684,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="262" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A262" s="2">
         <v>-1.56E-4</v>
       </c>
@@ -9655,7 +9713,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="263" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A263" s="2">
         <v>-1.5200000000000001E-4</v>
       </c>
@@ -9684,7 +9742,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="264" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A264" s="2">
         <v>-1.4799999999999999E-4</v>
       </c>
@@ -9713,7 +9771,7 @@
         <v>-9.8000000000000004E-2</v>
       </c>
     </row>
-    <row r="265" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A265" s="2">
         <v>-1.44E-4</v>
       </c>
@@ -9742,7 +9800,7 @@
         <v>-9.8000000000000004E-2</v>
       </c>
     </row>
-    <row r="266" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A266" s="2">
         <v>-1.3999999999999999E-4</v>
       </c>
@@ -9771,7 +9829,7 @@
         <v>-9.6000000000000002E-2</v>
       </c>
     </row>
-    <row r="267" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A267" s="2">
         <v>-1.36E-4</v>
       </c>
@@ -9800,7 +9858,7 @@
         <v>-9.6000000000000002E-2</v>
       </c>
     </row>
-    <row r="268" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A268" s="2">
         <v>-1.3200000000000001E-4</v>
       </c>
@@ -9829,7 +9887,7 @@
         <v>-9.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="269" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A269" s="2">
         <v>-1.2799999999999999E-4</v>
       </c>
@@ -9858,7 +9916,7 @@
         <v>-9.4E-2</v>
       </c>
     </row>
-    <row r="270" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A270" s="2">
         <v>-1.2400000000000001E-4</v>
       </c>
@@ -9887,7 +9945,7 @@
         <v>-0.09</v>
       </c>
     </row>
-    <row r="271" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A271" s="2">
         <v>-1.2E-4</v>
       </c>
@@ -9916,7 +9974,7 @@
         <v>-0.09</v>
       </c>
     </row>
-    <row r="272" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A272" s="2">
         <v>-1.16E-4</v>
       </c>
@@ -9945,7 +10003,7 @@
         <v>-8.5999999999999993E-2</v>
       </c>
     </row>
-    <row r="273" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A273" s="2">
         <v>-1.12E-4</v>
       </c>
@@ -9974,7 +10032,7 @@
         <v>-8.5999999999999993E-2</v>
       </c>
     </row>
-    <row r="274" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A274" s="2">
         <v>-1.08E-4</v>
       </c>
@@ -10003,7 +10061,7 @@
         <v>-8.1900000000000001E-2</v>
       </c>
     </row>
-    <row r="275" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A275" s="2">
         <v>-1.0399999999999999E-4</v>
       </c>
@@ -10032,7 +10090,7 @@
         <v>-8.4000000000000005E-2</v>
       </c>
     </row>
-    <row r="276" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A276" s="2">
         <v>-1E-4</v>
       </c>
@@ -10061,7 +10119,7 @@
         <v>-7.8E-2</v>
       </c>
     </row>
-    <row r="277" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A277" s="2">
         <v>-9.6000000000000002E-5</v>
       </c>
@@ -10090,7 +10148,7 @@
         <v>-7.8E-2</v>
       </c>
     </row>
-    <row r="278" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A278" s="2">
         <v>-9.2E-5</v>
       </c>
@@ -10119,7 +10177,7 @@
         <v>-7.3999999999999996E-2</v>
       </c>
     </row>
-    <row r="279" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A279" s="2">
         <v>-8.7999999999999998E-5</v>
       </c>
@@ -10148,7 +10206,7 @@
         <v>-7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="280" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A280" s="2">
         <v>-8.3999999999999995E-5</v>
       </c>
@@ -10177,7 +10235,7 @@
         <v>-6.59E-2</v>
       </c>
     </row>
-    <row r="281" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A281" s="2">
         <v>-8.0000000000000007E-5</v>
       </c>
@@ -10206,7 +10264,7 @@
         <v>-6.59E-2</v>
       </c>
     </row>
-    <row r="282" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A282" s="2">
         <v>-7.6000000000000004E-5</v>
       </c>
@@ -10235,7 +10293,7 @@
         <v>-0.06</v>
       </c>
     </row>
-    <row r="283" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A283" s="2">
         <v>-7.2000000000000002E-5</v>
       </c>
@@ -10264,7 +10322,7 @@
         <v>-0.06</v>
       </c>
     </row>
-    <row r="284" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A284" s="2">
         <v>-6.7999999999999999E-5</v>
       </c>
@@ -10293,7 +10351,7 @@
         <v>-5.6000000000000001E-2</v>
       </c>
     </row>
-    <row r="285" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A285" s="2">
         <v>-6.3999999999999997E-5</v>
       </c>
@@ -10322,7 +10380,7 @@
         <v>-5.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="286" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A286" s="2">
         <v>-6.0000000000000002E-5</v>
       </c>
@@ -10351,7 +10409,7 @@
         <v>-0.05</v>
       </c>
     </row>
-    <row r="287" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A287" s="2">
         <v>-5.5999999999999999E-5</v>
       </c>
@@ -10380,7 +10438,7 @@
         <v>-4.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="288" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A288" s="2">
         <v>-5.1999999999999997E-5</v>
       </c>
@@ -10409,7 +10467,7 @@
         <v>-4.3999999999999997E-2</v>
       </c>
     </row>
-    <row r="289" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A289" s="2">
         <v>-4.8000000000000001E-5</v>
       </c>
@@ -10438,7 +10496,7 @@
         <v>-0.04</v>
       </c>
     </row>
-    <row r="290" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A290" s="2">
         <v>-4.3999999999999999E-5</v>
       </c>
@@ -10467,7 +10525,7 @@
         <v>-3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="291" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A291" s="2">
         <v>-4.0000000000000003E-5</v>
       </c>
@@ -10496,7 +10554,7 @@
         <v>-3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="292" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A292" s="2">
         <v>-3.6000000000000001E-5</v>
       </c>
@@ -10525,7 +10583,7 @@
         <v>-2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="293" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A293" s="2">
         <v>-3.1999999999999999E-5</v>
       </c>
@@ -10554,7 +10612,7 @@
         <v>-2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="294" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A294" s="2">
         <v>-2.8E-5</v>
       </c>
@@ -10583,7 +10641,7 @@
         <v>-0.02</v>
       </c>
     </row>
-    <row r="295" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A295" s="2">
         <v>-2.4000000000000001E-5</v>
       </c>
@@ -10612,7 +10670,7 @@
         <v>-1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="296" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A296" s="2">
         <v>-2.0000000000000002E-5</v>
       </c>
@@ -10641,7 +10699,7 @@
         <v>-1.2E-2</v>
       </c>
     </row>
-    <row r="297" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A297" s="2">
         <v>-1.5999999999999999E-5</v>
       </c>
@@ -10670,7 +10728,7 @@
         <v>-1.2E-2</v>
       </c>
     </row>
-    <row r="298" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A298" s="2">
         <v>-1.2E-5</v>
       </c>
@@ -10699,7 +10757,7 @@
         <v>-4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="299" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A299" s="2">
         <v>-7.9999999999999996E-6</v>
       </c>
@@ -10728,7 +10786,7 @@
         <v>-4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="300" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A300" s="2">
         <v>-3.9999999999999998E-6</v>
       </c>
@@ -10757,7 +10815,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="301" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A301" s="2">
         <v>0</v>
       </c>
@@ -10786,7 +10844,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="302" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A302" s="2">
         <v>3.9999999999999998E-6</v>
       </c>
@@ -10815,7 +10873,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="303" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A303" s="2">
         <v>7.9999999999999996E-6</v>
       </c>
@@ -10844,7 +10902,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="304" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A304" s="2">
         <v>1.2E-5</v>
       </c>
@@ -10873,7 +10931,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="305" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A305" s="2">
         <v>1.5999999999999999E-5</v>
       </c>
@@ -10902,7 +10960,7 @@
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="306" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A306" s="2">
         <v>2.0000000000000002E-5</v>
       </c>
@@ -10931,7 +10989,7 @@
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="307" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A307" s="2">
         <v>2.4000000000000001E-5</v>
       </c>
@@ -10960,7 +11018,7 @@
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="308" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A308" s="2">
         <v>2.8E-5</v>
       </c>
@@ -10989,7 +11047,7 @@
         <v>3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="309" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A309" s="2">
         <v>3.1999999999999999E-5</v>
       </c>
@@ -11018,7 +11076,7 @@
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="310" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A310" s="2">
         <v>3.6000000000000001E-5</v>
       </c>
@@ -11047,7 +11105,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="311" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A311" s="2">
         <v>4.0000000000000003E-5</v>
       </c>
@@ -11076,7 +11134,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="312" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A312" s="2">
         <v>4.3999999999999999E-5</v>
       </c>
@@ -11105,7 +11163,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="313" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A313" s="2">
         <v>4.8000000000000001E-5</v>
       </c>
@@ -11134,7 +11192,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="314" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A314" s="2">
         <v>5.1999999999999997E-5</v>
       </c>
@@ -11163,7 +11221,7 @@
         <v>5.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="315" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A315" s="2">
         <v>5.5999999999999999E-5</v>
       </c>
@@ -11192,7 +11250,7 @@
         <v>5.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="316" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A316" s="2">
         <v>6.0000000000000002E-5</v>
       </c>
@@ -11221,7 +11279,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="317" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A317" s="2">
         <v>6.3999999999999997E-5</v>
       </c>
@@ -11250,7 +11308,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="318" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A318" s="2">
         <v>6.7999999999999999E-5</v>
       </c>
@@ -11279,7 +11337,7 @@
         <v>6.4000000000000001E-2</v>
       </c>
     </row>
-    <row r="319" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A319" s="2">
         <v>7.2000000000000002E-5</v>
       </c>
@@ -11308,7 +11366,7 @@
         <v>6.59E-2</v>
       </c>
     </row>
-    <row r="320" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A320" s="2">
         <v>7.6000000000000004E-5</v>
       </c>
@@ -11337,7 +11395,7 @@
         <v>7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="321" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A321" s="2">
         <v>8.0000000000000007E-5</v>
       </c>
@@ -11366,7 +11424,7 @@
         <v>7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="322" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A322" s="2">
         <v>8.3999999999999995E-5</v>
       </c>
@@ -11395,7 +11453,7 @@
         <v>7.5899999999999995E-2</v>
       </c>
     </row>
-    <row r="323" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A323" s="2">
         <v>8.7999999999999998E-5</v>
       </c>
@@ -11424,7 +11482,7 @@
         <v>7.5899999999999995E-2</v>
       </c>
     </row>
-    <row r="324" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A324" s="2">
         <v>9.2E-5</v>
       </c>
@@ -11453,7 +11511,7 @@
         <v>8.1900000000000001E-2</v>
       </c>
     </row>
-    <row r="325" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A325" s="2">
         <v>9.6000000000000002E-5</v>
       </c>
@@ -11482,7 +11540,7 @@
         <v>7.9899999999999999E-2</v>
       </c>
     </row>
-    <row r="326" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A326" s="2">
         <v>1E-4</v>
       </c>
@@ -11511,7 +11569,7 @@
         <v>8.5999999999999993E-2</v>
       </c>
     </row>
-    <row r="327" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A327" s="2">
         <v>1.0399999999999999E-4</v>
       </c>
@@ -11540,7 +11598,7 @@
         <v>8.5999999999999993E-2</v>
       </c>
     </row>
-    <row r="328" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A328" s="2">
         <v>1.08E-4</v>
       </c>
@@ -11569,7 +11627,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="329" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A329" s="2">
         <v>1.12E-4</v>
       </c>
@@ -11598,7 +11656,7 @@
         <v>8.7900000000000006E-2</v>
       </c>
     </row>
-    <row r="330" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A330" s="2">
         <v>1.16E-4</v>
       </c>
@@ -11627,7 +11685,7 @@
         <v>9.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="331" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A331" s="2">
         <v>1.2E-4</v>
       </c>
@@ -11656,7 +11714,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="332" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A332" s="2">
         <v>1.2400000000000001E-4</v>
       </c>
@@ -11685,7 +11743,7 @@
         <v>9.4E-2</v>
       </c>
     </row>
-    <row r="333" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A333" s="2">
         <v>1.2799999999999999E-4</v>
       </c>
@@ -11714,7 +11772,7 @@
         <v>9.4E-2</v>
       </c>
     </row>
-    <row r="334" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A334" s="2">
         <v>1.3200000000000001E-4</v>
       </c>
@@ -11743,7 +11801,7 @@
         <v>9.8000000000000004E-2</v>
       </c>
     </row>
-    <row r="335" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A335" s="2">
         <v>1.36E-4</v>
       </c>
@@ -11772,7 +11830,7 @@
         <v>9.6000000000000002E-2</v>
       </c>
     </row>
-    <row r="336" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A336" s="2">
         <v>1.3999999999999999E-4</v>
       </c>
@@ -11801,7 +11859,7 @@
         <v>9.8000000000000004E-2</v>
       </c>
     </row>
-    <row r="337" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A337" s="2">
         <v>1.44E-4</v>
       </c>
@@ -11830,7 +11888,7 @@
         <v>9.8000000000000004E-2</v>
       </c>
     </row>
-    <row r="338" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A338" s="2">
         <v>1.4799999999999999E-4</v>
       </c>
@@ -11859,7 +11917,7 @@
         <v>9.6000000000000002E-2</v>
       </c>
     </row>
-    <row r="339" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A339" s="2">
         <v>1.5200000000000001E-4</v>
       </c>
@@ -11888,7 +11946,7 @@
         <v>9.8000000000000004E-2</v>
       </c>
     </row>
-    <row r="340" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A340" s="2">
         <v>1.56E-4</v>
       </c>
@@ -11917,7 +11975,7 @@
         <v>0.10199999999999999</v>
       </c>
     </row>
-    <row r="341" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A341" s="2">
         <v>1.6000000000000001E-4</v>
       </c>
@@ -11946,7 +12004,7 @@
         <v>9.8000000000000004E-2</v>
       </c>
     </row>
-    <row r="342" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A342" s="2">
         <v>1.64E-4</v>
       </c>
@@ -11975,7 +12033,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="343" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A343" s="2">
         <v>1.6799999999999999E-4</v>
       </c>
@@ -12004,7 +12062,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="344" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A344" s="2">
         <v>1.7200000000000001E-4</v>
       </c>
@@ -12033,7 +12091,7 @@
         <v>9.6000000000000002E-2</v>
       </c>
     </row>
-    <row r="345" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A345" s="2">
         <v>1.76E-4</v>
       </c>
@@ -12062,7 +12120,7 @@
         <v>9.8000000000000004E-2</v>
       </c>
     </row>
-    <row r="346" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A346" s="2">
         <v>1.8000000000000001E-4</v>
       </c>
@@ -12091,7 +12149,7 @@
         <v>9.6000000000000002E-2</v>
       </c>
     </row>
-    <row r="347" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A347" s="2">
         <v>1.84E-4</v>
       </c>
@@ -12120,7 +12178,7 @@
         <v>9.6000000000000002E-2</v>
       </c>
     </row>
-    <row r="348" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A348" s="2">
         <v>1.8799999999999999E-4</v>
       </c>
@@ -12149,7 +12207,7 @@
         <v>9.4E-2</v>
       </c>
     </row>
-    <row r="349" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A349" s="2">
         <v>1.92E-4</v>
       </c>
@@ -12178,7 +12236,7 @@
         <v>9.4E-2</v>
       </c>
     </row>
-    <row r="350" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A350" s="2">
         <v>1.9599999999999999E-4</v>
       </c>
@@ -12207,7 +12265,7 @@
         <v>9.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="351" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A351" s="2">
         <v>2.0000000000000001E-4</v>
       </c>
@@ -12236,7 +12294,7 @@
         <v>9.4E-2</v>
       </c>
     </row>
-    <row r="352" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A352" s="2">
         <v>2.04E-4</v>
       </c>
@@ -12265,7 +12323,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="353" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A353" s="2">
         <v>2.0799999999999999E-4</v>
       </c>
@@ -12294,7 +12352,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="354" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A354" s="2">
         <v>2.12E-4</v>
       </c>
@@ -12323,7 +12381,7 @@
         <v>8.5999999999999993E-2</v>
       </c>
     </row>
-    <row r="355" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A355" s="2">
         <v>2.1599999999999999E-4</v>
       </c>
@@ -12352,7 +12410,7 @@
         <v>8.5999999999999993E-2</v>
       </c>
     </row>
-    <row r="356" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A356" s="2">
         <v>2.2000000000000001E-4</v>
       </c>
@@ -12381,7 +12439,7 @@
         <v>8.1900000000000001E-2</v>
       </c>
     </row>
-    <row r="357" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A357" s="2">
         <v>2.24E-4</v>
       </c>
@@ -12410,7 +12468,7 @@
         <v>8.1900000000000001E-2</v>
       </c>
     </row>
-    <row r="358" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A358" s="2">
         <v>2.2800000000000001E-4</v>
       </c>
@@ -12439,7 +12497,7 @@
         <v>7.8E-2</v>
       </c>
     </row>
-    <row r="359" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A359" s="2">
         <v>2.32E-4</v>
       </c>
@@ -12468,7 +12526,7 @@
         <v>7.8E-2</v>
       </c>
     </row>
-    <row r="360" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A360" s="2">
         <v>2.3599999999999999E-4</v>
       </c>
@@ -12497,7 +12555,7 @@
         <v>7.3999999999999996E-2</v>
       </c>
     </row>
-    <row r="361" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A361" s="2">
         <v>2.4000000000000001E-4</v>
       </c>
@@ -12526,7 +12584,7 @@
         <v>7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="362" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A362" s="2">
         <v>2.4399999999999999E-4</v>
       </c>
@@ -12555,7 +12613,7 @@
         <v>6.59E-2</v>
       </c>
     </row>
-    <row r="363" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A363" s="2">
         <v>2.4800000000000001E-4</v>
       </c>
@@ -12584,7 +12642,7 @@
         <v>6.59E-2</v>
       </c>
     </row>
-    <row r="364" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A364" s="2">
         <v>2.52E-4</v>
       </c>
@@ -12613,7 +12671,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="365" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A365" s="2">
         <v>2.5599999999999999E-4</v>
       </c>
@@ -12642,7 +12700,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="366" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A366" s="2">
         <v>2.5999999999999998E-4</v>
       </c>
@@ -12671,7 +12729,7 @@
         <v>5.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="367" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A367" s="2">
         <v>2.6400000000000002E-4</v>
       </c>
@@ -12700,7 +12758,7 @@
         <v>5.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="368" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A368" s="2">
         <v>2.6800000000000001E-4</v>
       </c>
@@ -12729,7 +12787,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="369" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A369" s="2">
         <v>2.72E-4</v>
       </c>
@@ -12758,7 +12816,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="370" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A370" s="2">
         <v>2.7599999999999999E-4</v>
       </c>
@@ -12787,7 +12845,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="371" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A371" s="2">
         <v>2.7999999999999998E-4</v>
       </c>
@@ -12816,7 +12874,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="372" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A372" s="2">
         <v>2.8400000000000002E-4</v>
       </c>
@@ -12845,7 +12903,7 @@
         <v>3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="373" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A373" s="2">
         <v>2.8800000000000001E-4</v>
       </c>
@@ -12874,7 +12932,7 @@
         <v>3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="374" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A374" s="2">
         <v>2.92E-4</v>
       </c>
@@ -12903,7 +12961,7 @@
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="375" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A375" s="2">
         <v>2.9599999999999998E-4</v>
       </c>
@@ -12932,7 +12990,7 @@
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="376" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A376" s="2">
         <v>2.9999999999999997E-4</v>
       </c>
@@ -12961,7 +13019,7 @@
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="377" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A377" s="2">
         <v>3.0400000000000002E-4</v>
       </c>
@@ -12990,7 +13048,7 @@
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="378" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A378" s="2">
         <v>3.0800000000000001E-4</v>
       </c>
@@ -13019,7 +13077,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="379" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A379" s="2">
         <v>3.1199999999999999E-4</v>
       </c>
@@ -13048,7 +13106,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="380" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A380" s="2">
         <v>3.1599999999999998E-4</v>
       </c>
@@ -13077,7 +13135,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="381" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A381" s="2">
         <v>3.2000000000000003E-4</v>
       </c>
@@ -13106,7 +13164,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="382" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A382" s="2">
         <v>3.2400000000000001E-4</v>
       </c>
@@ -13135,7 +13193,7 @@
         <v>-4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="383" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A383" s="2">
         <v>3.28E-4</v>
       </c>
@@ -13164,7 +13222,7 @@
         <v>-4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="384" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A384" s="2">
         <v>3.3199999999999999E-4</v>
       </c>
@@ -13193,7 +13251,7 @@
         <v>-1.2E-2</v>
       </c>
     </row>
-    <row r="385" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A385" s="2">
         <v>3.3599999999999998E-4</v>
       </c>
@@ -13222,7 +13280,7 @@
         <v>-0.01</v>
       </c>
     </row>
-    <row r="386" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A386" s="2">
         <v>3.4000000000000002E-4</v>
       </c>
@@ -13251,7 +13309,7 @@
         <v>-1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="387" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A387" s="2">
         <v>3.4400000000000001E-4</v>
       </c>
@@ -13280,7 +13338,7 @@
         <v>-0.02</v>
       </c>
     </row>
-    <row r="388" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A388" s="2">
         <v>3.48E-4</v>
       </c>
@@ -13309,7 +13367,7 @@
         <v>-2.4E-2</v>
       </c>
     </row>
-    <row r="389" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A389" s="2">
         <v>3.5199999999999999E-4</v>
       </c>
@@ -13338,7 +13396,7 @@
         <v>-2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="390" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A390" s="2">
         <v>3.5599999999999998E-4</v>
       </c>
@@ -13367,7 +13425,7 @@
         <v>-3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="391" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A391" s="2">
         <v>3.6000000000000002E-4</v>
       </c>
@@ -13396,7 +13454,7 @@
         <v>-3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="392" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A392" s="2">
         <v>3.6400000000000001E-4</v>
       </c>
@@ -13425,7 +13483,7 @@
         <v>-0.04</v>
       </c>
     </row>
-    <row r="393" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A393" s="2">
         <v>3.68E-4</v>
       </c>
@@ -13454,7 +13512,7 @@
         <v>-4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="394" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A394" s="2">
         <v>3.7199999999999999E-4</v>
       </c>
@@ -13483,7 +13541,7 @@
         <v>-4.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="395" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A395" s="2">
         <v>3.7599999999999998E-4</v>
       </c>
@@ -13512,7 +13570,7 @@
         <v>-4.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="396" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A396" s="2">
         <v>3.8000000000000002E-4</v>
       </c>
@@ -13541,7 +13599,7 @@
         <v>-5.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="397" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A397" s="2">
         <v>3.8400000000000001E-4</v>
       </c>
@@ -13570,7 +13628,7 @@
         <v>-5.6000000000000001E-2</v>
       </c>
     </row>
-    <row r="398" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A398" s="2">
         <v>3.88E-4</v>
       </c>
@@ -13599,7 +13657,7 @@
         <v>-0.06</v>
       </c>
     </row>
-    <row r="399" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A399" s="2">
         <v>3.9199999999999999E-4</v>
       </c>
@@ -13628,7 +13686,7 @@
         <v>-0.06</v>
       </c>
     </row>
-    <row r="400" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A400" s="2">
         <v>3.9599999999999998E-4</v>
       </c>
@@ -13657,7 +13715,7 @@
         <v>-6.59E-2</v>
       </c>
     </row>
-    <row r="401" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A401" s="2">
         <v>4.0000000000000002E-4</v>
       </c>
@@ -13686,7 +13744,7 @@
         <v>-6.59E-2</v>
       </c>
     </row>
-    <row r="402" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A402" s="2">
         <v>4.0400000000000001E-4</v>
       </c>
@@ -13715,7 +13773,7 @@
         <v>-7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="403" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A403" s="2">
         <v>4.08E-4</v>
       </c>
@@ -13744,7 +13802,7 @@
         <v>-7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="404" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="404" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A404" s="2">
         <v>4.1199999999999999E-4</v>
       </c>
@@ -13773,7 +13831,7 @@
         <v>-7.5899999999999995E-2</v>
       </c>
     </row>
-    <row r="405" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A405" s="2">
         <v>4.1599999999999997E-4</v>
       </c>
@@ -13802,7 +13860,7 @@
         <v>-7.8E-2</v>
       </c>
     </row>
-    <row r="406" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A406" s="2">
         <v>4.2000000000000002E-4</v>
       </c>
@@ -13831,7 +13889,7 @@
         <v>-7.9899999999999999E-2</v>
       </c>
     </row>
-    <row r="407" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A407" s="2">
         <v>4.2400000000000001E-4</v>
       </c>
@@ -13860,7 +13918,7 @@
         <v>-8.1900000000000001E-2</v>
       </c>
     </row>
-    <row r="408" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A408" s="2">
         <v>4.28E-4</v>
       </c>
@@ -13889,7 +13947,7 @@
         <v>-8.5999999999999993E-2</v>
       </c>
     </row>
-    <row r="409" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A409" s="2">
         <v>4.3199999999999998E-4</v>
       </c>
@@ -13918,7 +13976,7 @@
         <v>-8.5999999999999993E-2</v>
       </c>
     </row>
-    <row r="410" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A410" s="2">
         <v>4.3600000000000003E-4</v>
       </c>
@@ -13947,7 +14005,7 @@
         <v>-0.09</v>
       </c>
     </row>
-    <row r="411" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A411" s="2">
         <v>4.4000000000000002E-4</v>
       </c>
@@ -13976,7 +14034,7 @@
         <v>-0.09</v>
       </c>
     </row>
-    <row r="412" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A412" s="2">
         <v>4.44E-4</v>
       </c>
@@ -14005,7 +14063,7 @@
         <v>-9.4E-2</v>
       </c>
     </row>
-    <row r="413" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A413" s="2">
         <v>4.4799999999999999E-4</v>
       </c>
@@ -14034,7 +14092,7 @@
         <v>-9.4E-2</v>
       </c>
     </row>
-    <row r="414" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A414" s="2">
         <v>4.5199999999999998E-4</v>
       </c>
@@ -14063,7 +14121,7 @@
         <v>-9.6000000000000002E-2</v>
       </c>
     </row>
-    <row r="415" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="415" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A415" s="2">
         <v>4.5600000000000003E-4</v>
       </c>
@@ -14092,7 +14150,7 @@
         <v>-9.8000000000000004E-2</v>
       </c>
     </row>
-    <row r="416" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="416" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A416" s="2">
         <v>4.6000000000000001E-4</v>
       </c>
@@ -14121,7 +14179,7 @@
         <v>-9.6000000000000002E-2</v>
       </c>
     </row>
-    <row r="417" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="417" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A417" s="2">
         <v>4.64E-4</v>
       </c>
@@ -14150,7 +14208,7 @@
         <v>-9.8000000000000004E-2</v>
       </c>
     </row>
-    <row r="418" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="418" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A418" s="2">
         <v>4.6799999999999999E-4</v>
       </c>
@@ -14179,7 +14237,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="419" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="419" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A419" s="2">
         <v>4.7199999999999998E-4</v>
       </c>
@@ -14208,7 +14266,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="420" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="420" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A420" s="2">
         <v>4.7600000000000002E-4</v>
       </c>
@@ -14237,7 +14295,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="421" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="421" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A421" s="2">
         <v>4.8000000000000001E-4</v>
       </c>
@@ -14266,7 +14324,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="422" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="422" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A422" s="2">
         <v>4.84E-4</v>
       </c>
@@ -14295,7 +14353,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="423" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="423" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A423" s="2">
         <v>4.8799999999999999E-4</v>
       </c>
@@ -14324,7 +14382,7 @@
         <v>-0.10199999999999999</v>
       </c>
     </row>
-    <row r="424" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="424" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A424" s="2">
         <v>4.9200000000000003E-4</v>
       </c>
@@ -14353,7 +14411,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="425" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="425" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A425" s="2">
         <v>4.9600000000000002E-4</v>
       </c>
@@ -14382,7 +14440,7 @@
         <v>-0.10199999999999999</v>
       </c>
     </row>
-    <row r="426" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="426" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A426" s="2">
         <v>5.0000000000000001E-4</v>
       </c>
@@ -14411,7 +14469,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="427" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="427" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A427" s="2">
         <v>5.04E-4</v>
       </c>
@@ -14440,7 +14498,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="428" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="428" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A428" s="2">
         <v>5.0799999999999999E-4</v>
       </c>
@@ -14469,7 +14527,7 @@
         <v>-0.10199999999999999</v>
       </c>
     </row>
-    <row r="429" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="429" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A429" s="2">
         <v>5.1199999999999998E-4</v>
       </c>
@@ -14498,7 +14556,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="430" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="430" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A430" s="2">
         <v>5.1599999999999997E-4</v>
       </c>
@@ -14527,7 +14585,7 @@
         <v>-9.8000000000000004E-2</v>
       </c>
     </row>
-    <row r="431" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="431" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A431" s="2">
         <v>5.1999999999999995E-4</v>
       </c>
@@ -14556,7 +14614,7 @@
         <v>-9.8000000000000004E-2</v>
       </c>
     </row>
-    <row r="432" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="432" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A432" s="2">
         <v>5.2400000000000005E-4</v>
       </c>
@@ -14585,7 +14643,7 @@
         <v>-9.6000000000000002E-2</v>
       </c>
     </row>
-    <row r="433" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="433" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A433" s="2">
         <v>5.2800000000000004E-4</v>
       </c>
@@ -14614,7 +14672,7 @@
         <v>-9.6000000000000002E-2</v>
       </c>
     </row>
-    <row r="434" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="434" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A434" s="2">
         <v>5.3200000000000003E-4</v>
       </c>
@@ -14643,7 +14701,7 @@
         <v>-9.4E-2</v>
       </c>
     </row>
-    <row r="435" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="435" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A435" s="2">
         <v>5.3600000000000002E-4</v>
       </c>
@@ -14672,7 +14730,7 @@
         <v>-9.4E-2</v>
       </c>
     </row>
-    <row r="436" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="436" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A436" s="2">
         <v>5.4000000000000001E-4</v>
       </c>
@@ -14701,7 +14759,7 @@
         <v>-0.09</v>
       </c>
     </row>
-    <row r="437" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="437" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A437" s="2">
         <v>5.44E-4</v>
       </c>
@@ -14730,7 +14788,7 @@
         <v>-0.09</v>
       </c>
     </row>
-    <row r="438" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="438" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A438" s="2">
         <v>5.4799999999999998E-4</v>
       </c>
@@ -14759,7 +14817,7 @@
         <v>-8.5999999999999993E-2</v>
       </c>
     </row>
-    <row r="439" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="439" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A439" s="2">
         <v>5.5199999999999997E-4</v>
       </c>
@@ -14788,7 +14846,7 @@
         <v>-8.5999999999999993E-2</v>
       </c>
     </row>
-    <row r="440" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="440" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A440" s="2">
         <v>5.5599999999999996E-4</v>
       </c>
@@ -14817,7 +14875,7 @@
         <v>-8.1900000000000001E-2</v>
       </c>
     </row>
-    <row r="441" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="441" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A441" s="2">
         <v>5.5999999999999995E-4</v>
       </c>
@@ -14846,7 +14904,7 @@
         <v>-8.1900000000000001E-2</v>
       </c>
     </row>
-    <row r="442" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="442" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A442" s="2">
         <v>5.6400000000000005E-4</v>
       </c>
@@ -14875,7 +14933,7 @@
         <v>-7.5899999999999995E-2</v>
       </c>
     </row>
-    <row r="443" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="443" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A443" s="2">
         <v>5.6800000000000004E-4</v>
       </c>
@@ -14904,7 +14962,7 @@
         <v>-7.5899999999999995E-2</v>
       </c>
     </row>
-    <row r="444" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="444" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A444" s="2">
         <v>5.7200000000000003E-4</v>
       </c>
@@ -14933,7 +14991,7 @@
         <v>-7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="445" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="445" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A445" s="2">
         <v>5.7600000000000001E-4</v>
       </c>
@@ -14962,7 +15020,7 @@
         <v>-7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="446" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="446" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A446" s="2">
         <v>5.8E-4</v>
       </c>
@@ -14991,7 +15049,7 @@
         <v>-6.8000000000000005E-2</v>
       </c>
     </row>
-    <row r="447" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="447" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A447" s="2">
         <v>5.8399999999999999E-4</v>
       </c>
@@ -15020,7 +15078,7 @@
         <v>-6.59E-2</v>
       </c>
     </row>
-    <row r="448" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="448" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A448" s="2">
         <v>5.8799999999999998E-4</v>
       </c>
@@ -15049,7 +15107,7 @@
         <v>-0.06</v>
       </c>
     </row>
-    <row r="449" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="449" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A449" s="2">
         <v>5.9199999999999997E-4</v>
       </c>
@@ -15078,7 +15136,7 @@
         <v>-0.06</v>
       </c>
     </row>
-    <row r="450" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="450" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A450" s="2">
         <v>5.9599999999999996E-4</v>
       </c>
@@ -15107,7 +15165,7 @@
         <v>-5.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="451" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="451" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A451" s="2">
         <v>5.9999999999999995E-4</v>
       </c>
@@ -15136,7 +15194,7 @@
         <v>-5.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="452" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="452" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A452" s="2">
         <v>6.0400000000000004E-4</v>
       </c>
@@ -15165,7 +15223,7 @@
         <v>-4.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="453" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="453" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A453" s="2">
         <v>6.0800000000000003E-4</v>
       </c>
@@ -15194,7 +15252,7 @@
         <v>-4.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="454" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="454" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A454" s="2">
         <v>6.1200000000000002E-4</v>
       </c>
@@ -15223,7 +15281,7 @@
         <v>-0.04</v>
       </c>
     </row>
-    <row r="455" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="455" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A455" s="2">
         <v>6.1600000000000001E-4</v>
       </c>
@@ -15252,7 +15310,7 @@
         <v>-0.04</v>
       </c>
     </row>
-    <row r="456" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="456" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A456" s="2">
         <v>6.2E-4</v>
       </c>
@@ -15281,7 +15339,7 @@
         <v>-3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="457" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="457" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A457" s="2">
         <v>6.2399999999999999E-4</v>
       </c>
@@ -15310,7 +15368,7 @@
         <v>-3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="458" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="458" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A458" s="2">
         <v>6.2799999999999998E-4</v>
       </c>
@@ -15339,7 +15397,7 @@
         <v>-2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="459" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="459" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A459" s="2">
         <v>6.3199999999999997E-4</v>
       </c>
@@ -15368,7 +15426,7 @@
         <v>-2.4E-2</v>
       </c>
     </row>
-    <row r="460" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="460" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A460" s="2">
         <v>6.3599999999999996E-4</v>
       </c>
@@ -15397,7 +15455,7 @@
         <v>-0.02</v>
       </c>
     </row>
-    <row r="461" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="461" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A461" s="2">
         <v>6.4000000000000005E-4</v>
       </c>
@@ -15426,7 +15484,7 @@
         <v>-1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="462" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="462" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A462" s="2">
         <v>6.4400000000000004E-4</v>
       </c>
@@ -15455,7 +15513,7 @@
         <v>-0.01</v>
       </c>
     </row>
-    <row r="463" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="463" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A463" s="2">
         <v>6.4800000000000003E-4</v>
       </c>
@@ -15484,7 +15542,7 @@
         <v>-0.01</v>
       </c>
     </row>
-    <row r="464" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="464" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A464" s="2">
         <v>6.5200000000000002E-4</v>
       </c>
@@ -15513,7 +15571,7 @@
         <v>-4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="465" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="465" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A465" s="2">
         <v>6.5600000000000001E-4</v>
       </c>
@@ -15542,7 +15600,7 @@
         <v>-4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="466" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="466" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A466" s="2">
         <v>6.6E-4</v>
       </c>
@@ -15571,7 +15629,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="467" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="467" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A467" s="2">
         <v>6.6399999999999999E-4</v>
       </c>
@@ -15600,7 +15658,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="468" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="468" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A468" s="2">
         <v>6.6799999999999997E-4</v>
       </c>
@@ -15629,7 +15687,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="469" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="469" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A469" s="2">
         <v>6.7199999999999996E-4</v>
       </c>
@@ -15658,7 +15716,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="470" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="470" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A470" s="2">
         <v>6.7599999999999995E-4</v>
       </c>
@@ -15687,7 +15745,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="471" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="471" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A471" s="2">
         <v>6.8000000000000005E-4</v>
       </c>
@@ -15716,7 +15774,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="472" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="472" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A472" s="2">
         <v>6.8400000000000004E-4</v>
       </c>
@@ -15745,7 +15803,7 @@
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="473" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="473" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A473" s="2">
         <v>6.8800000000000003E-4</v>
       </c>
@@ -15774,7 +15832,7 @@
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="474" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="474" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A474" s="2">
         <v>6.9200000000000002E-4</v>
       </c>
@@ -15803,7 +15861,7 @@
         <v>3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="475" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="475" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A475" s="2">
         <v>6.96E-4</v>
       </c>
@@ -15832,7 +15890,7 @@
         <v>3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="476" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="476" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A476" s="2">
         <v>6.9999999999999999E-4</v>
       </c>
@@ -15861,7 +15919,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="477" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="477" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A477" s="2">
         <v>7.0399999999999998E-4</v>
       </c>
@@ -15890,7 +15948,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="478" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="478" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A478" s="2">
         <v>7.0799999999999997E-4</v>
       </c>
@@ -15919,7 +15977,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="479" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="479" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A479" s="2">
         <v>7.1199999999999996E-4</v>
       </c>
@@ -15948,7 +16006,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="480" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="480" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A480" s="2">
         <v>7.1599999999999995E-4</v>
       </c>
@@ -15977,7 +16035,7 @@
         <v>5.6000000000000001E-2</v>
       </c>
     </row>
-    <row r="481" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="481" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A481" s="2">
         <v>7.2000000000000005E-4</v>
       </c>
@@ -16006,7 +16064,7 @@
         <v>5.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="482" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="482" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A482" s="2">
         <v>7.2400000000000003E-4</v>
       </c>
@@ -16035,7 +16093,7 @@
         <v>6.2E-2</v>
       </c>
     </row>
-    <row r="483" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="483" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A483" s="2">
         <v>7.2800000000000002E-4</v>
       </c>
@@ -16064,7 +16122,7 @@
         <v>6.2E-2</v>
       </c>
     </row>
-    <row r="484" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="484" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A484" s="2">
         <v>7.3200000000000001E-4</v>
       </c>
@@ -16093,7 +16151,7 @@
         <v>6.59E-2</v>
       </c>
     </row>
-    <row r="485" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="485" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A485" s="2">
         <v>7.36E-4</v>
       </c>
@@ -16122,7 +16180,7 @@
         <v>6.59E-2</v>
       </c>
     </row>
-    <row r="486" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="486" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A486" s="2">
         <v>7.3999999999999999E-4</v>
       </c>
@@ -16151,7 +16209,7 @@
         <v>7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="487" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="487" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A487" s="2">
         <v>7.4399999999999998E-4</v>
       </c>
@@ -16180,7 +16238,7 @@
         <v>7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="488" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="488" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A488" s="2">
         <v>7.4799999999999997E-4</v>
       </c>
@@ -16209,7 +16267,7 @@
         <v>7.8E-2</v>
       </c>
     </row>
-    <row r="489" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="489" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A489" s="2">
         <v>7.5199999999999996E-4</v>
       </c>
@@ -16238,7 +16296,7 @@
         <v>7.8E-2</v>
       </c>
     </row>
-    <row r="490" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="490" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A490" s="2">
         <v>7.5600000000000005E-4</v>
       </c>
@@ -16267,7 +16325,7 @@
         <v>8.1900000000000001E-2</v>
       </c>
     </row>
-    <row r="491" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="491" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A491" s="2">
         <v>7.6000000000000004E-4</v>
       </c>
@@ -16296,7 +16354,7 @@
         <v>8.1900000000000001E-2</v>
       </c>
     </row>
-    <row r="492" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="492" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A492" s="2">
         <v>7.6400000000000003E-4</v>
       </c>
@@ -16325,7 +16383,7 @@
         <v>8.5999999999999993E-2</v>
       </c>
     </row>
-    <row r="493" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="493" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A493" s="2">
         <v>7.6800000000000002E-4</v>
       </c>
@@ -16354,7 +16412,7 @@
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
-    <row r="494" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="494" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A494" s="2">
         <v>7.7200000000000001E-4</v>
       </c>
@@ -16383,7 +16441,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="495" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="495" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A495" s="2">
         <v>7.76E-4</v>
       </c>
@@ -16412,7 +16470,7 @@
         <v>8.7900000000000006E-2</v>
       </c>
     </row>
-    <row r="496" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="496" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A496" s="2">
         <v>7.7999999999999999E-4</v>
       </c>
@@ -16441,7 +16499,7 @@
         <v>9.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="497" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="497" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A497" s="2">
         <v>7.8399999999999997E-4</v>
       </c>
@@ -16470,7 +16528,7 @@
         <v>9.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="498" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="498" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A498" s="2">
         <v>7.8799999999999996E-4</v>
       </c>
@@ -16499,7 +16557,7 @@
         <v>9.4E-2</v>
       </c>
     </row>
-    <row r="499" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="499" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A499" s="2">
         <v>7.9199999999999995E-4</v>
       </c>
@@ -16528,7 +16586,7 @@
         <v>9.4E-2</v>
       </c>
     </row>
-    <row r="500" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="500" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A500" s="2">
         <v>7.9600000000000005E-4</v>
       </c>
@@ -16557,7 +16615,7 @@
         <v>9.6000000000000002E-2</v>
       </c>
     </row>
-    <row r="501" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="501" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A501" s="2">
         <v>8.0000000000000004E-4</v>
       </c>
@@ -16586,7 +16644,7 @@
         <v>9.6000000000000002E-2</v>
       </c>
     </row>
-    <row r="502" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="502" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A502" s="2">
         <v>8.0400000000000003E-4</v>
       </c>
@@ -16615,7 +16673,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="503" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="503" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A503" s="2">
         <v>8.0800000000000002E-4</v>
       </c>
@@ -16644,7 +16702,7 @@
         <v>9.6000000000000002E-2</v>
       </c>
     </row>
-    <row r="504" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="504" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A504" s="2">
         <v>8.12E-4</v>
       </c>
@@ -16673,7 +16731,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="505" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="505" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A505" s="2">
         <v>8.1599999999999999E-4</v>
       </c>
@@ -16702,7 +16760,7 @@
         <v>9.8000000000000004E-2</v>
       </c>
     </row>
-    <row r="506" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="506" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A506" s="2">
         <v>8.1999999999999998E-4</v>
       </c>
@@ -16731,7 +16789,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="507" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="507" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A507" s="2">
         <v>8.2399999999999997E-4</v>
       </c>
@@ -16760,7 +16818,7 @@
         <v>9.8000000000000004E-2</v>
       </c>
     </row>
-    <row r="508" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="508" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A508" s="2">
         <v>8.2799999999999996E-4</v>
       </c>
@@ -16789,7 +16847,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="509" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="509" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A509" s="2">
         <v>8.3199999999999995E-4</v>
       </c>
@@ -16818,7 +16876,7 @@
         <v>9.8000000000000004E-2</v>
       </c>
     </row>
-    <row r="510" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="510" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A510" s="2">
         <v>8.3600000000000005E-4</v>
       </c>
@@ -16847,7 +16905,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="511" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="511" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A511" s="2">
         <v>8.4000000000000003E-4</v>
       </c>
@@ -16876,7 +16934,7 @@
         <v>9.8000000000000004E-2</v>
       </c>
     </row>
-    <row r="512" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="512" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A512" s="2">
         <v>8.4400000000000002E-4</v>
       </c>
@@ -16905,7 +16963,7 @@
         <v>9.6000000000000002E-2</v>
       </c>
     </row>
-    <row r="513" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="513" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A513" s="2">
         <v>8.4800000000000001E-4</v>
       </c>
@@ -16934,7 +16992,7 @@
         <v>9.6000000000000002E-2</v>
       </c>
     </row>
-    <row r="514" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="514" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A514" s="2">
         <v>8.52E-4</v>
       </c>
@@ -16963,7 +17021,7 @@
         <v>9.4E-2</v>
       </c>
     </row>
-    <row r="515" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="515" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A515" s="2">
         <v>8.5599999999999999E-4</v>
       </c>
@@ -16992,7 +17050,7 @@
         <v>9.4E-2</v>
       </c>
     </row>
-    <row r="516" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="516" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A516" s="2">
         <v>8.5999999999999998E-4</v>
       </c>
@@ -17021,7 +17079,7 @@
         <v>9.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="517" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="517" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A517" s="2">
         <v>8.6399999999999997E-4</v>
       </c>
@@ -17050,7 +17108,7 @@
         <v>9.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="518" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="518" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A518" s="2">
         <v>8.6799999999999996E-4</v>
       </c>
@@ -17079,7 +17137,7 @@
         <v>8.7900000000000006E-2</v>
       </c>
     </row>
-    <row r="519" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="519" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A519" s="2">
         <v>8.7200000000000005E-4</v>
       </c>
@@ -17108,7 +17166,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="520" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="520" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A520" s="2">
         <v>8.7600000000000004E-4</v>
       </c>
@@ -17137,7 +17195,7 @@
         <v>8.5999999999999993E-2</v>
       </c>
     </row>
-    <row r="521" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="521" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A521" s="2">
         <v>8.8000000000000003E-4</v>
       </c>
@@ -17166,7 +17224,7 @@
         <v>8.5999999999999993E-2</v>
       </c>
     </row>
-    <row r="522" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="522" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A522" s="2">
         <v>8.8400000000000002E-4</v>
       </c>
@@ -17195,7 +17253,7 @@
         <v>8.1900000000000001E-2</v>
       </c>
     </row>
-    <row r="523" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="523" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A523" s="2">
         <v>8.8800000000000001E-4</v>
       </c>
@@ -17224,7 +17282,7 @@
         <v>7.9899999999999999E-2</v>
       </c>
     </row>
-    <row r="524" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="524" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A524" s="2">
         <v>8.92E-4</v>
       </c>
@@ -17253,7 +17311,7 @@
         <v>7.5899999999999995E-2</v>
       </c>
     </row>
-    <row r="525" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="525" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A525" s="2">
         <v>8.9599999999999999E-4</v>
       </c>
@@ -17282,7 +17340,7 @@
         <v>7.5899999999999995E-2</v>
       </c>
     </row>
-    <row r="526" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="526" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A526" s="2">
         <v>8.9999999999999998E-4</v>
       </c>
@@ -17311,7 +17369,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="527" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="527" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A527" s="2">
         <v>9.0399999999999996E-4</v>
       </c>
@@ -17340,7 +17398,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="528" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="528" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A528" s="2">
         <v>9.0799999999999995E-4</v>
       </c>
@@ -17369,7 +17427,7 @@
         <v>6.59E-2</v>
       </c>
     </row>
-    <row r="529" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="529" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A529" s="2">
         <v>9.1200000000000005E-4</v>
       </c>
@@ -17398,7 +17456,7 @@
         <v>6.59E-2</v>
       </c>
     </row>
-    <row r="530" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="530" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A530" s="2">
         <v>9.1600000000000004E-4</v>
       </c>
@@ -17427,7 +17485,7 @@
         <v>6.2E-2</v>
       </c>
     </row>
-    <row r="531" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="531" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A531" s="2">
         <v>9.2000000000000003E-4</v>
       </c>
@@ -17456,7 +17514,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="532" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="532" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A532" s="2">
         <v>9.2400000000000002E-4</v>
       </c>
@@ -17485,7 +17543,7 @@
         <v>5.6000000000000001E-2</v>
       </c>
     </row>
-    <row r="533" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="533" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A533" s="2">
         <v>9.2800000000000001E-4</v>
       </c>
@@ -17514,7 +17572,7 @@
         <v>5.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="534" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="534" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A534" s="2">
         <v>9.3199999999999999E-4</v>
       </c>
@@ -17543,7 +17601,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="535" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="535" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A535" s="2">
         <v>9.3599999999999998E-4</v>
       </c>
@@ -17572,7 +17630,7 @@
         <v>4.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="536" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="536" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A536" s="2">
         <v>9.3999999999999997E-4</v>
       </c>
@@ -17601,7 +17659,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="537" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="537" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A537" s="2">
         <v>9.4399999999999996E-4</v>
       </c>
@@ -17630,7 +17688,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="538" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="538" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A538" s="2">
         <v>9.4799999999999995E-4</v>
       </c>
@@ -17659,7 +17717,7 @@
         <v>3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="539" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="539" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A539" s="2">
         <v>9.5200000000000005E-4</v>
       </c>
@@ -17688,7 +17746,7 @@
         <v>3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="540" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="540" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A540" s="2">
         <v>9.5600000000000004E-4</v>
       </c>
@@ -17717,7 +17775,7 @@
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="541" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="541" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A541" s="2">
         <v>9.6000000000000002E-4</v>
       </c>
@@ -17746,7 +17804,7 @@
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="542" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="542" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A542" s="2">
         <v>9.6400000000000001E-4</v>
       </c>
@@ -17775,7 +17833,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="543" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="543" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A543" s="2">
         <v>9.68E-4</v>
       </c>
@@ -17804,7 +17862,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="544" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="544" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A544" s="2">
         <v>9.7199999999999999E-4</v>
       </c>
@@ -17833,7 +17891,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="545" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="545" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A545" s="2">
         <v>9.7599999999999998E-4</v>
       </c>
@@ -17862,7 +17920,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="546" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="546" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A546" s="2">
         <v>9.7999999999999997E-4</v>
       </c>
@@ -17891,7 +17949,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="547" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="547" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A547" s="2">
         <v>9.8400000000000007E-4</v>
       </c>
@@ -17920,7 +17978,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="548" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="548" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A548" s="2">
         <v>9.8799999999999995E-4</v>
       </c>
@@ -17949,7 +18007,7 @@
         <v>-4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="549" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="549" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A549" s="2">
         <v>9.9200000000000004E-4</v>
       </c>
@@ -17978,7 +18036,7 @@
         <v>-4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="550" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="550" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A550" s="2">
         <v>9.9599999999999992E-4</v>
       </c>
@@ -18007,7 +18065,7 @@
         <v>-1.2E-2</v>
       </c>
     </row>
-    <row r="551" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="551" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A551" s="2">
         <v>1E-3</v>
       </c>
@@ -18036,7 +18094,7 @@
         <v>-1.2E-2</v>
       </c>
     </row>
-    <row r="552" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="552" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A552" s="2">
         <v>1E-3</v>
       </c>
@@ -18065,7 +18123,7 @@
         <v>-0.02</v>
       </c>
     </row>
-    <row r="553" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="553" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A553" s="2">
         <v>1.01E-3</v>
       </c>
@@ -18094,7 +18152,7 @@
         <v>-0.02</v>
       </c>
     </row>
-    <row r="554" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="554" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A554" s="2">
         <v>1.01E-3</v>
       </c>
@@ -18123,7 +18181,7 @@
         <v>-2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="555" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="555" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A555" s="2">
         <v>1.0200000000000001E-3</v>
       </c>
@@ -18152,7 +18210,7 @@
         <v>-2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="556" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="556" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A556" s="2">
         <v>1.0200000000000001E-3</v>
       </c>
@@ -18181,7 +18239,7 @@
         <v>-3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="557" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="557" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A557" s="2">
         <v>1.0200000000000001E-3</v>
       </c>
@@ -18210,7 +18268,7 @@
         <v>-3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="558" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="558" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A558" s="2">
         <v>1.0300000000000001E-3</v>
       </c>
@@ -18239,7 +18297,7 @@
         <v>-4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="559" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="559" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A559" s="2">
         <v>1.0300000000000001E-3</v>
       </c>
@@ -18268,7 +18326,7 @@
         <v>-4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="560" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="560" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A560" s="2">
         <v>1.0399999999999999E-3</v>
       </c>
@@ -18297,7 +18355,7 @@
         <v>-4.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="561" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="561" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A561" s="2">
         <v>1.0399999999999999E-3</v>
       </c>
@@ -18326,7 +18384,7 @@
         <v>-4.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="562" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="562" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A562" s="2">
         <v>1.0399999999999999E-3</v>
       </c>
@@ -18355,7 +18413,7 @@
         <v>-5.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="563" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="563" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A563" s="2">
         <v>1.0499999999999999E-3</v>
       </c>
@@ -18384,7 +18442,7 @@
         <v>-5.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="564" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="564" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A564" s="2">
         <v>1.0499999999999999E-3</v>
       </c>
@@ -18413,7 +18471,7 @@
         <v>-0.06</v>
       </c>
     </row>
-    <row r="565" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="565" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A565" s="2">
         <v>1.06E-3</v>
       </c>
@@ -18442,7 +18500,7 @@
         <v>-0.06</v>
       </c>
     </row>
-    <row r="566" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="566" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A566" s="2">
         <v>1.06E-3</v>
       </c>
@@ -18471,7 +18529,7 @@
         <v>-6.59E-2</v>
       </c>
     </row>
-    <row r="567" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="567" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A567" s="2">
         <v>1.06E-3</v>
       </c>
@@ -18500,7 +18558,7 @@
         <v>-6.8000000000000005E-2</v>
       </c>
     </row>
-    <row r="568" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="568" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A568" s="2">
         <v>1.07E-3</v>
       </c>
@@ -18529,7 +18587,7 @@
         <v>-7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="569" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="569" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A569" s="2">
         <v>1.07E-3</v>
       </c>
@@ -18558,7 +18616,7 @@
         <v>-7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="570" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="570" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A570" s="2">
         <v>1.08E-3</v>
       </c>
@@ -18587,7 +18645,7 @@
         <v>-7.8E-2</v>
       </c>
     </row>
-    <row r="571" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="571" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A571" s="2">
         <v>1.08E-3</v>
       </c>
@@ -18616,7 +18674,7 @@
         <v>-7.8E-2</v>
       </c>
     </row>
-    <row r="572" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="572" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A572" s="2">
         <v>1.08E-3</v>
       </c>
@@ -18645,7 +18703,7 @@
         <v>-8.1900000000000001E-2</v>
       </c>
     </row>
-    <row r="573" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="573" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A573" s="2">
         <v>1.09E-3</v>
       </c>
@@ -18674,7 +18732,7 @@
         <v>-8.1900000000000001E-2</v>
       </c>
     </row>
-    <row r="574" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="574" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A574" s="2">
         <v>1.09E-3</v>
       </c>
@@ -18703,7 +18761,7 @@
         <v>-8.7900000000000006E-2</v>
       </c>
     </row>
-    <row r="575" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="575" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A575" s="2">
         <v>1.1000000000000001E-3</v>
       </c>
@@ -18732,7 +18790,7 @@
         <v>-8.5999999999999993E-2</v>
       </c>
     </row>
-    <row r="576" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="576" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A576" s="2">
         <v>1.1000000000000001E-3</v>
       </c>
@@ -18761,7 +18819,7 @@
         <v>-0.09</v>
       </c>
     </row>
-    <row r="577" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="577" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A577" s="2">
         <v>1.1000000000000001E-3</v>
       </c>
@@ -18790,7 +18848,7 @@
         <v>-0.09</v>
       </c>
     </row>
-    <row r="578" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="578" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A578" s="2">
         <v>1.1100000000000001E-3</v>
       </c>
@@ -18819,7 +18877,7 @@
         <v>-9.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="579" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="579" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A579" s="2">
         <v>1.1100000000000001E-3</v>
       </c>
@@ -18848,7 +18906,7 @@
         <v>-9.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="580" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="580" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A580" s="2">
         <v>1.1199999999999999E-3</v>
       </c>
@@ -18877,7 +18935,7 @@
         <v>-9.8000000000000004E-2</v>
       </c>
     </row>
-    <row r="581" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="581" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A581" s="2">
         <v>1.1199999999999999E-3</v>
       </c>
@@ -18906,7 +18964,7 @@
         <v>-9.6000000000000002E-2</v>
       </c>
     </row>
-    <row r="582" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="582" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A582" s="2">
         <v>1.1199999999999999E-3</v>
       </c>
@@ -18935,7 +18993,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="583" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="583" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A583" s="2">
         <v>1.1299999999999999E-3</v>
       </c>
@@ -18964,7 +19022,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="584" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="584" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A584" s="2">
         <v>1.1299999999999999E-3</v>
       </c>
@@ -18993,7 +19051,7 @@
         <v>-9.8000000000000004E-2</v>
       </c>
     </row>
-    <row r="585" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="585" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A585" s="2">
         <v>1.14E-3</v>
       </c>
@@ -19022,7 +19080,7 @@
         <v>-0.10199999999999999</v>
       </c>
     </row>
-    <row r="586" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="586" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A586" s="2">
         <v>1.14E-3</v>
       </c>
@@ -19051,7 +19109,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="587" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="587" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A587" s="2">
         <v>1.14E-3</v>
       </c>
@@ -19080,7 +19138,7 @@
         <v>-9.4E-2</v>
       </c>
     </row>
-    <row r="588" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="588" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A588" s="2">
         <v>1.15E-3</v>
       </c>
@@ -19109,7 +19167,7 @@
         <v>-0.10199999999999999</v>
       </c>
     </row>
-    <row r="589" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="589" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A589" s="2">
         <v>1.15E-3</v>
       </c>
@@ -19138,7 +19196,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="590" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="590" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A590" s="2">
         <v>1.16E-3</v>
       </c>
@@ -19167,7 +19225,7 @@
         <v>-0.10199999999999999</v>
       </c>
     </row>
-    <row r="591" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="591" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A591" s="2">
         <v>1.16E-3</v>
       </c>
@@ -19196,7 +19254,7 @@
         <v>-0.10199999999999999</v>
       </c>
     </row>
-    <row r="592" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="592" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A592" s="2">
         <v>1.16E-3</v>
       </c>
@@ -19225,7 +19283,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="593" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="593" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A593" s="2">
         <v>1.17E-3</v>
       </c>
@@ -19254,7 +19312,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="594" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="594" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A594" s="2">
         <v>1.17E-3</v>
       </c>
@@ -19283,7 +19341,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="595" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="595" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A595" s="2">
         <v>1.1800000000000001E-3</v>
       </c>
@@ -19312,7 +19370,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="596" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="596" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A596" s="2">
         <v>1.1800000000000001E-3</v>
       </c>
@@ -19341,7 +19399,7 @@
         <v>-9.8000000000000004E-2</v>
       </c>
     </row>
-    <row r="597" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="597" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A597" s="2">
         <v>1.1800000000000001E-3</v>
       </c>
@@ -19370,7 +19428,7 @@
         <v>-9.8000000000000004E-2</v>
       </c>
     </row>
-    <row r="598" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="598" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A598" s="2">
         <v>1.1900000000000001E-3</v>
       </c>
@@ -19399,7 +19457,7 @@
         <v>-9.6000000000000002E-2</v>
       </c>
     </row>
-    <row r="599" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="599" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A599" s="2">
         <v>1.1900000000000001E-3</v>
       </c>
@@ -19428,7 +19486,7 @@
         <v>-9.6000000000000002E-2</v>
       </c>
     </row>
-    <row r="600" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="600" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A600" s="2">
         <v>1.1999999999999999E-3</v>
       </c>

--- a/PH 424/LRC_lab_rawData.xlsx
+++ b/PH 424/LRC_lab_rawData.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="16925"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\waczakj\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\John\Desktop\homeworkRepo\PH 424\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="48" windowWidth="23004" windowHeight="10044" activeTab="3"/>
+    <workbookView xWindow="480" yWindow="50" windowWidth="23000" windowHeight="10040" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Raw Data" sheetId="1" r:id="rId1"/>
@@ -22,8 +22,35 @@
     <definedName name="_1.05kHz_Scope" localSheetId="4">'Raw Scope'!$A$1:$C$600</definedName>
     <definedName name="_1.23kHz_Scope" localSheetId="4">'Raw Scope'!$F$1:$H$600</definedName>
     <definedName name="_1.510kHz_Scope" localSheetId="4">'Raw Scope'!$K$1:$M$600</definedName>
+    <definedName name="solver_adj" localSheetId="3" hidden="1">Theory!$B$5</definedName>
+    <definedName name="solver_cvg" localSheetId="3" hidden="1">0.0001</definedName>
+    <definedName name="solver_drv" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_eng" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_itr" localSheetId="3" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="3" hidden="1">2147483647</definedName>
+    <definedName name="solver_mni" localSheetId="3" hidden="1">30</definedName>
+    <definedName name="solver_mrt" localSheetId="3" hidden="1">0.075</definedName>
+    <definedName name="solver_msl" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_neg" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_nod" localSheetId="3" hidden="1">2147483647</definedName>
+    <definedName name="solver_num" localSheetId="3" hidden="1">0</definedName>
+    <definedName name="solver_nwt" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_opt" localSheetId="3" hidden="1">Theory!$J$2</definedName>
+    <definedName name="solver_pre" localSheetId="3" hidden="1">0.000001</definedName>
+    <definedName name="solver_rbv" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_rsd" localSheetId="3" hidden="1">0</definedName>
+    <definedName name="solver_scl" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_ssz" localSheetId="3" hidden="1">100</definedName>
+    <definedName name="solver_tim" localSheetId="3" hidden="1">2147483647</definedName>
+    <definedName name="solver_tol" localSheetId="3" hidden="1">0.01</definedName>
+    <definedName name="solver_typ" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_val" localSheetId="3" hidden="1">0</definedName>
+    <definedName name="solver_ver" localSheetId="3" hidden="1">3</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
@@ -60,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="35">
   <si>
     <t>Case</t>
   </si>
@@ -81,9 +108,6 @@
   </si>
   <si>
     <t>Vout (peak)</t>
-  </si>
-  <si>
-    <t>Angular Freq (hz)</t>
   </si>
   <si>
     <t>Corresponding Period (s)</t>
@@ -153,6 +177,21 @@
   </si>
   <si>
     <t xml:space="preserve">Henry </t>
+  </si>
+  <si>
+    <t>impedence (theory)</t>
+  </si>
+  <si>
+    <t>admittance (theory)</t>
+  </si>
+  <si>
+    <t>difference squared</t>
+  </si>
+  <si>
+    <t>sum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">phase (theory) </t>
   </si>
 </sst>
 </file>
@@ -246,6 +285,960 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Admittence!$N$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>admittence</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Admittence!$M$2:$M$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>6283.1853071795858</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6597.3445725385654</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6911.5038378975451</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7225.6631032565238</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7665.4860747590956</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7728.3179278308908</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7853.981633974483</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8482.3001646924422</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8796.45943005142</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9110.6186954103996</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9424.7779607693792</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10053.096491487338</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Admittence!$N$2:$N$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1.72E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.2448979591836731E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.1020408163265306E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.7111111111111112E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.4714285714285707E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.5714285714285701E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.675675675675675E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.7446808510638303E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.0222222222222222E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.3333333333333331E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.8775510204081631E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.3877551020408162E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0051-4674-9273-F03C3E8AD1DC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="359058896"/>
+        <c:axId val="359056928"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="359058896"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="359056928"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="359056928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="359058896"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>250825</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>555625</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="1.23kHz_Scope" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
@@ -334,6 +1327,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -369,6 +1379,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -548,18 +1575,18 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G14"/>
+      <selection activeCell="C3" sqref="C3:C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1" t="s">
@@ -572,7 +1599,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -583,19 +1610,19 @@
         <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="G2" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -603,7 +1630,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="1">
-        <v>224</v>
+        <v>-224</v>
       </c>
       <c r="D3" s="1">
         <v>17.2</v>
@@ -620,7 +1647,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -628,7 +1655,7 @@
         <v>1.05</v>
       </c>
       <c r="C4" s="1">
-        <v>200</v>
+        <v>-200</v>
       </c>
       <c r="D4" s="1">
         <v>22</v>
@@ -645,7 +1672,7 @@
         <v>9.8000000000000004E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -653,7 +1680,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C5" s="1">
-        <v>192</v>
+        <v>-192</v>
       </c>
       <c r="D5" s="1">
         <v>30.4</v>
@@ -670,7 +1697,7 @@
         <v>9.8000000000000004E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -678,7 +1705,7 @@
         <v>1.1499999999999999</v>
       </c>
       <c r="C6" s="1">
-        <v>128</v>
+        <v>-128</v>
       </c>
       <c r="D6" s="1">
         <v>42.4</v>
@@ -695,7 +1722,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -703,7 +1730,7 @@
         <v>1.22</v>
       </c>
       <c r="C7" s="1">
-        <v>16</v>
+        <v>-16</v>
       </c>
       <c r="D7" s="1">
         <v>59.3</v>
@@ -720,7 +1747,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -745,7 +1772,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -753,7 +1780,7 @@
         <v>1.25</v>
       </c>
       <c r="C9" s="1">
-        <v>-56</v>
+        <v>56</v>
       </c>
       <c r="D9" s="1">
         <v>56.8</v>
@@ -770,7 +1797,7 @@
         <v>7.3999999999999996E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -778,7 +1805,7 @@
         <v>1.35</v>
       </c>
       <c r="C10" s="1">
-        <v>-136</v>
+        <v>136</v>
       </c>
       <c r="D10" s="1">
         <v>35.200000000000003</v>
@@ -795,7 +1822,7 @@
         <v>9.4E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -803,7 +1830,7 @@
         <v>1.4</v>
       </c>
       <c r="C11" s="1">
-        <v>-144</v>
+        <v>144</v>
       </c>
       <c r="D11" s="1">
         <v>27.2</v>
@@ -820,7 +1847,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -828,7 +1855,7 @@
         <v>1.45</v>
       </c>
       <c r="C12" s="1">
-        <v>-152</v>
+        <v>152</v>
       </c>
       <c r="D12" s="1">
         <v>22.4</v>
@@ -845,7 +1872,7 @@
         <v>9.6000000000000002E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -853,7 +1880,7 @@
         <v>1.5</v>
       </c>
       <c r="C13" s="1">
-        <v>-160</v>
+        <v>160</v>
       </c>
       <c r="D13" s="1">
         <v>18.399999999999999</v>
@@ -870,7 +1897,7 @@
         <v>9.8000000000000004E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -878,7 +1905,7 @@
         <v>1.6</v>
       </c>
       <c r="C14" s="1">
-        <v>-152</v>
+        <v>152</v>
       </c>
       <c r="D14" s="1">
         <v>13.6</v>
@@ -906,54 +1933,54 @@
   <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView zoomScale="92" zoomScaleNormal="92" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+      <selection activeCell="E15" sqref="E15:E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E1" t="s">
         <v>6</v>
       </c>
       <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" t="s">
         <v>12</v>
       </c>
-      <c r="H1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" t="s">
         <v>13</v>
       </c>
-      <c r="J1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K1" t="s">
-        <v>14</v>
-      </c>
       <c r="L1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -992,7 +2019,7 @@
         <v>1.7200000000000001E-4</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>1.05</v>
       </c>
@@ -1028,7 +2055,7 @@
         <v>2.1999999999999998E-4</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>1.1000000000000001</v>
       </c>
@@ -1064,7 +2091,7 @@
         <v>3.0400000000000002E-4</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>1.1499999999999999</v>
       </c>
@@ -1100,7 +2127,7 @@
         <v>4.2400000000000001E-4</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>1.22</v>
       </c>
@@ -1136,7 +2163,7 @@
         <v>5.9299999999999999E-4</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>1.23</v>
       </c>
@@ -1172,7 +2199,7 @@
         <v>5.9999999999999995E-4</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>1.25</v>
       </c>
@@ -1208,7 +2235,7 @@
         <v>5.6799999999999993E-4</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>1.35</v>
       </c>
@@ -1244,7 +2271,7 @@
         <v>3.5200000000000005E-4</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>1.4</v>
       </c>
@@ -1280,7 +2307,7 @@
         <v>2.72E-4</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>1.45</v>
       </c>
@@ -1316,7 +2343,7 @@
         <v>2.24E-4</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>1.5</v>
       </c>
@@ -1352,7 +2379,7 @@
         <v>1.84E-4</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>1.6</v>
       </c>
@@ -1388,132 +2415,132 @@
         <v>1.36E-4</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
         <v>7</v>
-      </c>
-      <c r="B15" t="s">
-        <v>8</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E15" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16">
-        <v>6.2831853071795862</v>
+        <v>6283.1853071795858</v>
       </c>
       <c r="B16">
         <f>2*PI()/A16</f>
-        <v>1</v>
-      </c>
-      <c r="C16">
-        <v>224</v>
+        <v>1E-3</v>
+      </c>
+      <c r="C16" s="1">
+        <v>-224</v>
       </c>
       <c r="D16">
         <f>C16*10^-6</f>
-        <v>2.24E-4</v>
+        <v>-2.24E-4</v>
       </c>
       <c r="E16">
         <f>2*PI()*D16/B16</f>
-        <v>1.4074335088082274E-3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+        <v>-1.4074335088082273</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17">
-        <v>6.5973445725385655</v>
+        <v>6597.3445725385654</v>
       </c>
       <c r="B17">
         <f>2*PI()/A17</f>
-        <v>0.95238095238095233</v>
-      </c>
-      <c r="C17">
-        <v>200</v>
+        <v>9.5238095238095238E-4</v>
+      </c>
+      <c r="C17" s="1">
+        <v>-200</v>
       </c>
       <c r="D17">
         <f>C17*10^-6</f>
-        <v>1.9999999999999998E-4</v>
+        <v>-1.9999999999999998E-4</v>
       </c>
       <c r="E17">
         <f>2*PI()*D17/B17</f>
-        <v>1.3194689145077131E-3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+        <v>-1.3194689145077132</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18">
-        <v>6.9115038378975457</v>
+        <v>6911.5038378975451</v>
       </c>
       <c r="B18">
         <f t="shared" ref="B18:B27" si="4">2*PI()/A18</f>
-        <v>0.90909090909090895</v>
-      </c>
-      <c r="C18">
-        <v>192</v>
+        <v>9.0909090909090909E-4</v>
+      </c>
+      <c r="C18" s="1">
+        <v>-192</v>
       </c>
       <c r="D18">
         <f t="shared" ref="D18:D27" si="5">C18*10^-6</f>
-        <v>1.92E-4</v>
+        <v>-1.92E-4</v>
       </c>
       <c r="E18">
         <f t="shared" ref="E18:E27" si="6">2*PI()*D18/B18</f>
-        <v>1.3270087368763288E-3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+        <v>-1.3270087368763286</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19">
-        <v>7.2256631032565233</v>
+        <v>7225.6631032565238</v>
       </c>
       <c r="B19">
         <f t="shared" si="4"/>
-        <v>0.86956521739130443</v>
-      </c>
-      <c r="C19">
-        <v>128</v>
+        <v>8.6956521739130438E-4</v>
+      </c>
+      <c r="C19" s="1">
+        <v>-128</v>
       </c>
       <c r="D19">
         <f t="shared" si="5"/>
-        <v>1.2799999999999999E-4</v>
+        <v>-1.2799999999999999E-4</v>
       </c>
       <c r="E19">
         <f t="shared" si="6"/>
-        <v>9.2488487721683493E-4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+        <v>-0.92488487721683499</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20">
-        <v>7.6654860747590954</v>
+        <v>7665.4860747590956</v>
       </c>
       <c r="B20">
         <f t="shared" si="4"/>
-        <v>0.81967213114754101</v>
-      </c>
-      <c r="C20">
-        <v>16</v>
+        <v>8.1967213114754098E-4</v>
+      </c>
+      <c r="C20" s="1">
+        <v>-16</v>
       </c>
       <c r="D20">
         <f t="shared" si="5"/>
-        <v>1.5999999999999999E-5</v>
+        <v>-1.5999999999999999E-5</v>
       </c>
       <c r="E20">
         <f t="shared" si="6"/>
-        <v>1.226477771961455E-4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+        <v>-0.12264777719614552</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21">
-        <v>7.7283179278308909</v>
+        <v>7728.3179278308908</v>
       </c>
       <c r="B21">
         <f t="shared" si="4"/>
-        <v>0.81300813008130079</v>
-      </c>
-      <c r="C21">
+        <v>8.1300813008130081E-4</v>
+      </c>
+      <c r="C21" s="1">
         <v>0</v>
       </c>
       <c r="D21">
@@ -1525,124 +2552,124 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22">
-        <v>7.8539816339744828</v>
+        <v>7853.981633974483</v>
       </c>
       <c r="B22">
         <f t="shared" si="4"/>
-        <v>0.8</v>
-      </c>
-      <c r="C22">
-        <v>-56</v>
+        <v>7.9999999999999993E-4</v>
+      </c>
+      <c r="C22" s="1">
+        <v>56</v>
       </c>
       <c r="D22">
         <f t="shared" si="5"/>
-        <v>-5.5999999999999999E-5</v>
+        <v>5.5999999999999999E-5</v>
       </c>
       <c r="E22">
         <f t="shared" si="6"/>
-        <v>-4.3982297150257102E-4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0.4398229715025711</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23">
-        <v>8.4823001646924414</v>
+        <v>8482.3001646924422</v>
       </c>
       <c r="B23">
         <f t="shared" si="4"/>
-        <v>0.7407407407407407</v>
-      </c>
-      <c r="C23">
-        <v>-136</v>
+        <v>7.407407407407407E-4</v>
+      </c>
+      <c r="C23" s="1">
+        <v>136</v>
       </c>
       <c r="D23">
         <f t="shared" si="5"/>
-        <v>-1.36E-4</v>
+        <v>1.36E-4</v>
       </c>
       <c r="E23">
         <f t="shared" si="6"/>
-        <v>-1.1535928223981721E-3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1.153592822398172</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24">
-        <v>8.7964594300514207</v>
+        <v>8796.45943005142</v>
       </c>
       <c r="B24">
         <f t="shared" si="4"/>
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="C24">
-        <v>-144</v>
+        <v>7.1428571428571439E-4</v>
+      </c>
+      <c r="C24" s="1">
+        <v>144</v>
       </c>
       <c r="D24">
         <f t="shared" si="5"/>
-        <v>-1.44E-4</v>
+        <v>1.44E-4</v>
       </c>
       <c r="E24">
         <f t="shared" si="6"/>
-        <v>-1.2666901579274044E-3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1.2666901579274044</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25">
-        <v>9.1106186954104</v>
+        <v>9110.6186954103996</v>
       </c>
       <c r="B25">
         <f t="shared" si="4"/>
-        <v>0.68965517241379315</v>
-      </c>
-      <c r="C25">
-        <v>-152</v>
+        <v>6.8965517241379316E-4</v>
+      </c>
+      <c r="C25" s="1">
+        <v>152</v>
       </c>
       <c r="D25">
         <f t="shared" si="5"/>
-        <v>-1.5199999999999998E-4</v>
+        <v>1.5199999999999998E-4</v>
       </c>
       <c r="E25">
         <f t="shared" si="6"/>
-        <v>-1.3848140417023805E-3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1.3848140417023804</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26">
-        <v>9.4247779607693793</v>
+        <v>9424.7779607693792</v>
       </c>
       <c r="B26">
         <f t="shared" si="4"/>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="C26">
-        <v>-160</v>
+        <v>6.6666666666666664E-4</v>
+      </c>
+      <c r="C26" s="1">
+        <v>160</v>
       </c>
       <c r="D26">
         <f t="shared" si="5"/>
-        <v>-1.5999999999999999E-4</v>
+        <v>1.5999999999999999E-4</v>
       </c>
       <c r="E26">
         <f t="shared" si="6"/>
-        <v>-1.5079644737231006E-3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1.5079644737231006</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27">
-        <v>10.053096491487338</v>
+        <v>10053.096491487338</v>
       </c>
       <c r="B27">
         <f t="shared" si="4"/>
-        <v>0.625</v>
-      </c>
-      <c r="C27">
-        <v>-152</v>
+        <v>6.2500000000000001E-4</v>
+      </c>
+      <c r="C27" s="1">
+        <v>152</v>
       </c>
       <c r="D27">
         <f t="shared" si="5"/>
-        <v>-1.5199999999999998E-4</v>
+        <v>1.5199999999999998E-4</v>
       </c>
       <c r="E27">
         <f t="shared" si="6"/>
-        <v>-1.5280706667060752E-3</v>
+        <v>1.5280706667060751</v>
       </c>
     </row>
   </sheetData>
@@ -1655,47 +2682,47 @@
   <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="4" max="4" width="8.88671875" customWidth="1"/>
-    <col min="5" max="5" width="4.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.90625" customWidth="1"/>
+    <col min="5" max="5" width="4.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
         <v>12</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" t="s">
         <v>13</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" t="s">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" t="s">
-        <v>20</v>
-      </c>
       <c r="M1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>100</v>
       </c>
@@ -1725,7 +2752,7 @@
         <v>1.72E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="C3">
         <v>6597.3445725385654</v>
       </c>
@@ -1752,7 +2779,7 @@
         <v>2.2448979591836731E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="C4">
         <v>6911.5038378975451</v>
       </c>
@@ -1779,7 +2806,7 @@
         <v>3.1020408163265306E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="C5">
         <v>7225.6631032565238</v>
       </c>
@@ -1806,7 +2833,7 @@
         <v>4.7111111111111112E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="C6">
         <v>7665.4860747590956</v>
       </c>
@@ -1833,7 +2860,7 @@
         <v>8.4714285714285707E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="C7">
         <v>7728.3179278308908</v>
       </c>
@@ -1860,7 +2887,7 @@
         <v>8.5714285714285701E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="C8">
         <v>7853.981633974483</v>
       </c>
@@ -1887,7 +2914,7 @@
         <v>7.675675675675675E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="C9">
         <v>8482.3001646924422</v>
       </c>
@@ -1914,7 +2941,7 @@
         <v>3.7446808510638303E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="C10">
         <v>8796.45943005142</v>
       </c>
@@ -1941,7 +2968,7 @@
         <v>3.0222222222222222E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="C11">
         <v>9110.6186954103996</v>
       </c>
@@ -1968,7 +2995,7 @@
         <v>2.3333333333333331E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="C12">
         <v>9424.7779607693792</v>
       </c>
@@ -1995,7 +3022,7 @@
         <v>1.8775510204081631E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="C13">
         <v>10053.096491487338</v>
       </c>
@@ -2024,74 +3051,494 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="11.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B1">
         <v>100</v>
       </c>
       <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>23</v>
       </c>
       <c r="B2">
         <v>0.1</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+      <c r="E2">
+        <v>6283.1853071795858</v>
+      </c>
+      <c r="F2">
+        <f>SQRT($B$1^2+(E2*$B$5-1/(E2*$B$3))^2)</f>
+        <v>548.7520664430341</v>
+      </c>
+      <c r="G2">
+        <f>1/F2</f>
+        <v>1.8223166000666167E-3</v>
+      </c>
+      <c r="H2">
+        <v>1.72E-3</v>
+      </c>
+      <c r="I2">
+        <f>(H2-G2)^2</f>
+        <v>1.046868664919199E-8</v>
+      </c>
+      <c r="J2">
+        <f>SUM(I2:I13)</f>
+        <v>6.338580905645502E-6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B3">
         <f>0.1*10^-6</f>
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3">
+        <v>6597.3445725385654</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F13" si="0">SQRT($B$1^2+(E3*$B$5-1/(E3*$B$3))^2)</f>
+        <v>423.16174469883822</v>
+      </c>
+      <c r="G3">
+        <f>1/F3</f>
+        <v>2.3631625791497154E-3</v>
+      </c>
+      <c r="H3">
+        <v>2.2448979591836731E-3</v>
+      </c>
+      <c r="I3">
+        <f>(H3-G3)^2</f>
+        <v>1.3986520335712422E-8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>26</v>
       </c>
       <c r="B4">
         <v>7728.3179278308908</v>
       </c>
       <c r="C4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4">
+        <v>6911.5038378975451</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>306.45346102733828</v>
+      </c>
+      <c r="G4">
+        <f t="shared" ref="G4:G13" si="1">1/F4</f>
+        <v>3.2631382156613708E-3</v>
+      </c>
+      <c r="H4">
+        <v>3.1020408163265306E-3</v>
+      </c>
+      <c r="I4">
+        <f t="shared" ref="I4:I13" si="2">(H4-G4)^2</f>
+        <v>2.5952372072448964E-8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5">
+        <v>0.16742875213553077</v>
+      </c>
+      <c r="C5" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5">
-        <f>1/(B4^2*B3)</f>
+      <c r="E5">
+        <v>7225.6631032565238</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>200.83819281032066</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="1"/>
+        <v>4.9791326341222285E-3</v>
+      </c>
+      <c r="H5">
+        <v>4.7111111111111112E-3</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="2"/>
+        <v>7.1835536797198869E-8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E6">
+        <v>7665.4860747590956</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>102.20716994628401</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>9.7840494020679757E-3</v>
+      </c>
+      <c r="H6">
+        <v>8.4714285714285707E-3</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="2"/>
+        <v>1.7229734450284815E-6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E7">
+        <v>7728.3179278308908</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>0.01</v>
+      </c>
+      <c r="H7">
+        <v>8.5714285714285701E-3</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="2"/>
+        <v>2.0408163265306167E-6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E8">
+        <v>7853.981633974483</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>108.36263799460401</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>9.228272940806366E-3</v>
+      </c>
+      <c r="H8">
+        <v>7.675675675675675E-3</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="2"/>
+        <v>2.4105582676913015E-6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9">
         <v>0.16742875213553077</v>
       </c>
-      <c r="C5" t="s">
-        <v>30</v>
+      <c r="C9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9">
+        <v>8482.3001646924422</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>261.15930246494185</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>3.8290805288631849E-3</v>
+      </c>
+      <c r="H9">
+        <v>3.7446808510638303E-3</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="2"/>
+        <v>7.1233056126348688E-9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E10">
+        <v>8796.45943005142</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>350.52615653603857</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>2.8528541489804262E-3</v>
+      </c>
+      <c r="H10">
+        <v>3.0222222222222222E-3</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="2"/>
+        <v>2.8685544233638345E-8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E11">
+        <v>9110.6186954103996</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>439.29255872509361</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>2.2763872962068394E-3</v>
+      </c>
+      <c r="H11">
+        <v>2.3333333333333331E-3</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="2"/>
+        <v>3.2428511444120002E-9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E12">
+        <v>9424.7779607693792</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>526.5292217184649</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>1.8992298219199311E-3</v>
+      </c>
+      <c r="H12">
+        <v>1.8775510204081631E-3</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="2"/>
+        <v>4.6997043498663447E-10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E13">
+        <v>10053.096491487338</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>695.68369494722708</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="1"/>
+        <v>1.4374348676891983E-3</v>
+      </c>
+      <c r="H13">
+        <v>1.3877551020408162E-3</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="2"/>
+        <v>2.468079114878167E-9</v>
+      </c>
+    </row>
+    <row r="17" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" t="s">
+        <v>34</v>
+      </c>
+      <c r="G17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E18">
+        <v>6283.1853071795858</v>
+      </c>
+      <c r="F18">
+        <f>ATAN((E18*$B$5- 1/(E18*$B$3))/$B$1)</f>
+        <v>-1.387540686649791</v>
+      </c>
+      <c r="G18">
+        <v>-1.4074335088082273</v>
+      </c>
+    </row>
+    <row r="19" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E19">
+        <v>6597.3445725385654</v>
+      </c>
+      <c r="F19">
+        <f t="shared" ref="F19:F29" si="3">ATAN((E19*$B$5- 1/(E19*$B$3))/$B$1)</f>
+        <v>-1.332223355273664</v>
+      </c>
+      <c r="G19">
+        <v>-1.3194689145077132</v>
+      </c>
+    </row>
+    <row r="20" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E20">
+        <v>6911.5038378975451</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="3"/>
+        <v>-1.2383950287734604</v>
+      </c>
+      <c r="G20">
+        <v>-1.3270087368763286</v>
+      </c>
+    </row>
+    <row r="21" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E21">
+        <v>7225.6631032565238</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="3"/>
+        <v>-1.049605435673777</v>
+      </c>
+      <c r="G21">
+        <v>-0.92488487721683499</v>
+      </c>
+    </row>
+    <row r="22" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E22">
+        <v>7665.4860747590956</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="3"/>
+        <v>-0.20819815056348626</v>
+      </c>
+      <c r="G22">
+        <v>-0.12264777719614552</v>
+      </c>
+    </row>
+    <row r="23" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E23">
+        <v>7728.3179278308908</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E24">
+        <v>7853.981633974483</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="3"/>
+        <v>0.39543965042506329</v>
+      </c>
+      <c r="G24">
+        <v>0.4398229715025711</v>
+      </c>
+    </row>
+    <row r="25" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E25">
+        <v>8482.3001646924422</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="3"/>
+        <v>1.1778541053500549</v>
+      </c>
+      <c r="G25">
+        <v>1.153592822398172</v>
+      </c>
+    </row>
+    <row r="26" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E26">
+        <v>8796.45943005142</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="3"/>
+        <v>1.2814921215279103</v>
+      </c>
+      <c r="G26">
+        <v>1.2666901579274044</v>
+      </c>
+    </row>
+    <row r="27" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E27">
+        <v>9110.6186954103996</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="3"/>
+        <v>1.3411442695020992</v>
+      </c>
+      <c r="G27">
+        <v>1.3848140417023804</v>
+      </c>
+    </row>
+    <row r="28" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E28">
+        <v>9424.7779607693792</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="3"/>
+        <v>1.379712626456064</v>
+      </c>
+      <c r="G28">
+        <v>1.5079644737231006</v>
+      </c>
+    </row>
+    <row r="29" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E29">
+        <v>10053.096491487338</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="3"/>
+        <v>1.4265531708168462</v>
+      </c>
+      <c r="G29">
+        <v>1.5280706667060751</v>
       </c>
     </row>
   </sheetData>
@@ -2107,15 +3554,15 @@
       <selection activeCell="A573" sqref="A1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="3" width="8.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="8.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="8.77734375" style="2"/>
-    <col min="11" max="13" width="8.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="8.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="8.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="8.81640625" style="2"/>
+    <col min="11" max="13" width="8.6328125" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" s="2">
         <v>-1.1999999999999999E-3</v>
       </c>
@@ -2144,7 +3591,7 @@
         <v>9.4E-2</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>-1.1999999999999999E-3</v>
       </c>
@@ -2173,7 +3620,7 @@
         <v>9.8000000000000004E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>-1.1900000000000001E-3</v>
       </c>
@@ -2202,7 +3649,7 @@
         <v>9.6000000000000002E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>-1.1900000000000001E-3</v>
       </c>
@@ -2231,7 +3678,7 @@
         <v>9.8000000000000004E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>-1.1800000000000001E-3</v>
       </c>
@@ -2260,7 +3707,7 @@
         <v>9.8000000000000004E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>-1.1800000000000001E-3</v>
       </c>
@@ -2289,7 +3736,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>-1.1800000000000001E-3</v>
       </c>
@@ -2318,7 +3765,7 @@
         <v>9.8000000000000004E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>-1.17E-3</v>
       </c>
@@ -2347,7 +3794,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>-1.17E-3</v>
       </c>
@@ -2376,7 +3823,7 @@
         <v>9.8000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>-1.16E-3</v>
       </c>
@@ -2405,7 +3852,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>-1.16E-3</v>
       </c>
@@ -2434,7 +3881,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>-1.16E-3</v>
       </c>
@@ -2463,7 +3910,7 @@
         <v>9.8000000000000004E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>-1.15E-3</v>
       </c>
@@ -2492,7 +3939,7 @@
         <v>9.8000000000000004E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>-1.15E-3</v>
       </c>
@@ -2521,7 +3968,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>-1.14E-3</v>
       </c>
@@ -2550,7 +3997,7 @@
         <v>9.6000000000000002E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <v>-1.14E-3</v>
       </c>
@@ -2579,7 +4026,7 @@
         <v>9.8000000000000004E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <v>-1.14E-3</v>
       </c>
@@ -2608,7 +4055,7 @@
         <v>9.6000000000000002E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <v>-1.1299999999999999E-3</v>
       </c>
@@ -2637,7 +4084,7 @@
         <v>9.4E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <v>-1.1299999999999999E-3</v>
       </c>
@@ -2666,7 +4113,7 @@
         <v>9.4E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
         <v>-1.1199999999999999E-3</v>
       </c>
@@ -2695,7 +4142,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
         <v>-1.1199999999999999E-3</v>
       </c>
@@ -2724,7 +4171,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
         <v>-1.1199999999999999E-3</v>
       </c>
@@ -2753,7 +4200,7 @@
         <v>8.7900000000000006E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
         <v>-1.1100000000000001E-3</v>
       </c>
@@ -2782,7 +4229,7 @@
         <v>8.7900000000000006E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
         <v>-1.1100000000000001E-3</v>
       </c>
@@ -2811,7 +4258,7 @@
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
         <v>-1.1000000000000001E-3</v>
       </c>
@@ -2840,7 +4287,7 @@
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A26" s="2">
         <v>-1.1000000000000001E-3</v>
       </c>
@@ -2869,7 +4316,7 @@
         <v>7.8E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A27" s="2">
         <v>-1.1000000000000001E-3</v>
       </c>
@@ -2898,7 +4345,7 @@
         <v>7.8E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A28" s="2">
         <v>-1.09E-3</v>
       </c>
@@ -2927,7 +4374,7 @@
         <v>7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A29" s="2">
         <v>-1.09E-3</v>
       </c>
@@ -2956,7 +4403,7 @@
         <v>7.3999999999999996E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A30" s="2">
         <v>-1.08E-3</v>
       </c>
@@ -2985,7 +4432,7 @@
         <v>6.8000000000000005E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A31" s="2">
         <v>-1.08E-3</v>
       </c>
@@ -3014,7 +4461,7 @@
         <v>6.59E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A32" s="2">
         <v>-1.08E-3</v>
       </c>
@@ -3043,7 +4490,7 @@
         <v>6.4000000000000001E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A33" s="2">
         <v>-1.07E-3</v>
       </c>
@@ -3072,7 +4519,7 @@
         <v>6.2E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A34" s="2">
         <v>-1.07E-3</v>
       </c>
@@ -3101,7 +4548,7 @@
         <v>5.8000000000000003E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A35" s="2">
         <v>-1.06E-3</v>
       </c>
@@ -3130,7 +4577,7 @@
         <v>5.8000000000000003E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A36" s="2">
         <v>-1.06E-3</v>
       </c>
@@ -3159,7 +4606,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A37" s="2">
         <v>-1.06E-3</v>
       </c>
@@ -3188,7 +4635,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A38" s="2">
         <v>-1.0499999999999999E-3</v>
       </c>
@@ -3217,7 +4664,7 @@
         <v>4.3999999999999997E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A39" s="2">
         <v>-1.0499999999999999E-3</v>
       </c>
@@ -3246,7 +4693,7 @@
         <v>4.3999999999999997E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A40" s="2">
         <v>-1.0399999999999999E-3</v>
       </c>
@@ -3275,7 +4722,7 @@
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A41" s="2">
         <v>-1.0399999999999999E-3</v>
       </c>
@@ -3304,7 +4751,7 @@
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A42" s="2">
         <v>-1.0399999999999999E-3</v>
       </c>
@@ -3333,7 +4780,7 @@
         <v>3.2000000000000001E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A43" s="2">
         <v>-1.0300000000000001E-3</v>
       </c>
@@ -3362,7 +4809,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A44" s="2">
         <v>-1.0300000000000001E-3</v>
       </c>
@@ -3391,7 +4838,7 @@
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A45" s="2">
         <v>-1.0200000000000001E-3</v>
       </c>
@@ -3420,7 +4867,7 @@
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A46" s="2">
         <v>-1.0200000000000001E-3</v>
       </c>
@@ -3449,7 +4896,7 @@
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A47" s="2">
         <v>-1.0200000000000001E-3</v>
       </c>
@@ -3478,7 +4925,7 @@
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A48" s="2">
         <v>-1.01E-3</v>
       </c>
@@ -3507,7 +4954,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A49" s="2">
         <v>-1.01E-3</v>
       </c>
@@ -3536,7 +4983,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A50" s="2">
         <v>-1E-3</v>
       </c>
@@ -3565,7 +5012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A51" s="2">
         <v>-1E-3</v>
       </c>
@@ -3594,7 +5041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A52" s="2">
         <v>-9.9599999999999992E-4</v>
       </c>
@@ -3623,7 +5070,7 @@
         <v>-8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A53" s="2">
         <v>-9.9200000000000004E-4</v>
       </c>
@@ -3652,7 +5099,7 @@
         <v>-8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A54" s="2">
         <v>-9.8799999999999995E-4</v>
       </c>
@@ -3681,7 +5128,7 @@
         <v>-1.6E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A55" s="2">
         <v>-9.8400000000000007E-4</v>
       </c>
@@ -3710,7 +5157,7 @@
         <v>-1.6E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A56" s="2">
         <v>-9.7999999999999997E-4</v>
       </c>
@@ -3739,7 +5186,7 @@
         <v>-2.4E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A57" s="2">
         <v>-9.7599999999999998E-4</v>
       </c>
@@ -3768,7 +5215,7 @@
         <v>-2.4E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A58" s="2">
         <v>-9.7199999999999999E-4</v>
       </c>
@@ -3797,7 +5244,7 @@
         <v>-3.2000000000000001E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A59" s="2">
         <v>-9.68E-4</v>
       </c>
@@ -3826,7 +5273,7 @@
         <v>-3.2000000000000001E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A60" s="2">
         <v>-9.6400000000000001E-4</v>
       </c>
@@ -3855,7 +5302,7 @@
         <v>-3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A61" s="2">
         <v>-9.6000000000000002E-4</v>
       </c>
@@ -3884,7 +5331,7 @@
         <v>-3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A62" s="2">
         <v>-9.5600000000000004E-4</v>
       </c>
@@ -3913,7 +5360,7 @@
         <v>-4.3999999999999997E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A63" s="2">
         <v>-9.5200000000000005E-4</v>
       </c>
@@ -3942,7 +5389,7 @@
         <v>-4.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A64" s="2">
         <v>-9.4799999999999995E-4</v>
       </c>
@@ -3971,7 +5418,7 @@
         <v>-5.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A65" s="2">
         <v>-9.4399999999999996E-4</v>
       </c>
@@ -4000,7 +5447,7 @@
         <v>-5.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A66" s="2">
         <v>-9.3999999999999997E-4</v>
       </c>
@@ -4029,7 +5476,7 @@
         <v>-5.6000000000000001E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A67" s="2">
         <v>-9.3599999999999998E-4</v>
       </c>
@@ -4058,7 +5505,7 @@
         <v>-5.8000000000000003E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A68" s="2">
         <v>-9.3199999999999999E-4</v>
       </c>
@@ -4087,7 +5534,7 @@
         <v>-6.4000000000000001E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A69" s="2">
         <v>-9.2800000000000001E-4</v>
       </c>
@@ -4116,7 +5563,7 @@
         <v>-6.4000000000000001E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A70" s="2">
         <v>-9.2400000000000002E-4</v>
       </c>
@@ -4145,7 +5592,7 @@
         <v>-7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A71" s="2">
         <v>-9.2000000000000003E-4</v>
       </c>
@@ -4174,7 +5621,7 @@
         <v>-7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A72" s="2">
         <v>-9.1600000000000004E-4</v>
       </c>
@@ -4203,7 +5650,7 @@
         <v>-7.5899999999999995E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A73" s="2">
         <v>-9.1200000000000005E-4</v>
       </c>
@@ -4232,7 +5679,7 @@
         <v>-7.5899999999999995E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A74" s="2">
         <v>-9.0799999999999995E-4</v>
       </c>
@@ -4261,7 +5708,7 @@
         <v>-7.9899999999999999E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A75" s="2">
         <v>-9.0399999999999996E-4</v>
       </c>
@@ -4290,7 +5737,7 @@
         <v>-7.9899999999999999E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A76" s="2">
         <v>-8.9999999999999998E-4</v>
       </c>
@@ -4319,7 +5766,7 @@
         <v>-8.4000000000000005E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A77" s="2">
         <v>-8.9599999999999999E-4</v>
       </c>
@@ -4348,7 +5795,7 @@
         <v>-8.4000000000000005E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A78" s="2">
         <v>-8.92E-4</v>
       </c>
@@ -4377,7 +5824,7 @@
         <v>-0.09</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A79" s="2">
         <v>-8.8800000000000001E-4</v>
       </c>
@@ -4406,7 +5853,7 @@
         <v>-8.7900000000000006E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A80" s="2">
         <v>-8.8400000000000002E-4</v>
       </c>
@@ -4435,7 +5882,7 @@
         <v>-9.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A81" s="2">
         <v>-8.8000000000000003E-4</v>
       </c>
@@ -4464,7 +5911,7 @@
         <v>-9.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A82" s="2">
         <v>-8.7600000000000004E-4</v>
       </c>
@@ -4493,7 +5940,7 @@
         <v>-9.6000000000000002E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A83" s="2">
         <v>-8.7200000000000005E-4</v>
       </c>
@@ -4522,7 +5969,7 @@
         <v>-9.6000000000000002E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A84" s="2">
         <v>-8.6799999999999996E-4</v>
       </c>
@@ -4551,7 +5998,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A85" s="2">
         <v>-8.6399999999999997E-4</v>
       </c>
@@ -4580,7 +6027,7 @@
         <v>-9.8000000000000004E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A86" s="2">
         <v>-8.5999999999999998E-4</v>
       </c>
@@ -4609,7 +6056,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A87" s="2">
         <v>-8.5599999999999999E-4</v>
       </c>
@@ -4638,7 +6085,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A88" s="2">
         <v>-8.52E-4</v>
       </c>
@@ -4667,7 +6114,7 @@
         <v>-0.10199999999999999</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A89" s="2">
         <v>-8.4800000000000001E-4</v>
       </c>
@@ -4696,7 +6143,7 @@
         <v>-0.104</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A90" s="2">
         <v>-8.4400000000000002E-4</v>
       </c>
@@ -4725,7 +6172,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A91" s="2">
         <v>-8.4000000000000003E-4</v>
       </c>
@@ -4754,7 +6201,7 @@
         <v>-0.10199999999999999</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A92" s="2">
         <v>-8.3600000000000005E-4</v>
       </c>
@@ -4783,7 +6230,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A93" s="2">
         <v>-8.3199999999999995E-4</v>
       </c>
@@ -4812,7 +6259,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A94" s="2">
         <v>-8.2799999999999996E-4</v>
       </c>
@@ -4841,7 +6288,7 @@
         <v>-0.10199999999999999</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A95" s="2">
         <v>-8.2399999999999997E-4</v>
       </c>
@@ -4870,7 +6317,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A96" s="2">
         <v>-8.1999999999999998E-4</v>
       </c>
@@ -4899,7 +6346,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A97" s="2">
         <v>-8.1599999999999999E-4</v>
       </c>
@@ -4928,7 +6375,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A98" s="2">
         <v>-8.12E-4</v>
       </c>
@@ -4957,7 +6404,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A99" s="2">
         <v>-8.0800000000000002E-4</v>
       </c>
@@ -4986,7 +6433,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A100" s="2">
         <v>-8.0400000000000003E-4</v>
       </c>
@@ -5015,7 +6462,7 @@
         <v>-9.8000000000000004E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A101" s="2">
         <v>-8.0000000000000004E-4</v>
       </c>
@@ -5044,7 +6491,7 @@
         <v>-9.8000000000000004E-2</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A102" s="2">
         <v>-7.9600000000000005E-4</v>
       </c>
@@ -5073,7 +6520,7 @@
         <v>-9.6000000000000002E-2</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A103" s="2">
         <v>-7.9199999999999995E-4</v>
       </c>
@@ -5102,7 +6549,7 @@
         <v>-9.6000000000000002E-2</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A104" s="2">
         <v>-7.8799999999999996E-4</v>
       </c>
@@ -5131,7 +6578,7 @@
         <v>-0.09</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A105" s="2">
         <v>-7.8399999999999997E-4</v>
       </c>
@@ -5160,7 +6607,7 @@
         <v>-9.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A106" s="2">
         <v>-7.7999999999999999E-4</v>
       </c>
@@ -5189,7 +6636,7 @@
         <v>-8.7900000000000006E-2</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A107" s="2">
         <v>-7.76E-4</v>
       </c>
@@ -5218,7 +6665,7 @@
         <v>-8.7900000000000006E-2</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A108" s="2">
         <v>-7.7200000000000001E-4</v>
       </c>
@@ -5247,7 +6694,7 @@
         <v>-8.4000000000000005E-2</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A109" s="2">
         <v>-7.6800000000000002E-4</v>
       </c>
@@ -5276,7 +6723,7 @@
         <v>-8.4000000000000005E-2</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A110" s="2">
         <v>-7.6400000000000003E-4</v>
       </c>
@@ -5305,7 +6752,7 @@
         <v>-7.8E-2</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A111" s="2">
         <v>-7.6000000000000004E-4</v>
       </c>
@@ -5334,7 +6781,7 @@
         <v>-7.8E-2</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A112" s="2">
         <v>-7.5600000000000005E-4</v>
       </c>
@@ -5363,7 +6810,7 @@
         <v>-7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A113" s="2">
         <v>-7.5199999999999996E-4</v>
       </c>
@@ -5392,7 +6839,7 @@
         <v>-7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A114" s="2">
         <v>-7.4799999999999997E-4</v>
       </c>
@@ -5421,7 +6868,7 @@
         <v>-6.8000000000000005E-2</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A115" s="2">
         <v>-7.4399999999999998E-4</v>
       </c>
@@ -5450,7 +6897,7 @@
         <v>-6.59E-2</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A116" s="2">
         <v>-7.3999999999999999E-4</v>
       </c>
@@ -5479,7 +6926,7 @@
         <v>-6.2E-2</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A117" s="2">
         <v>-7.36E-4</v>
       </c>
@@ -5508,7 +6955,7 @@
         <v>-6.2E-2</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A118" s="2">
         <v>-7.3200000000000001E-4</v>
       </c>
@@ -5537,7 +6984,7 @@
         <v>-5.6000000000000001E-2</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A119" s="2">
         <v>-7.2800000000000002E-4</v>
       </c>
@@ -5566,7 +7013,7 @@
         <v>-5.6000000000000001E-2</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A120" s="2">
         <v>-7.2400000000000003E-4</v>
       </c>
@@ -5595,7 +7042,7 @@
         <v>-0.05</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A121" s="2">
         <v>-7.2000000000000005E-4</v>
       </c>
@@ -5624,7 +7071,7 @@
         <v>-4.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A122" s="2">
         <v>-7.1599999999999995E-4</v>
       </c>
@@ -5653,7 +7100,7 @@
         <v>-4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A123" s="2">
         <v>-7.1199999999999996E-4</v>
       </c>
@@ -5682,7 +7129,7 @@
         <v>-0.04</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A124" s="2">
         <v>-7.0799999999999997E-4</v>
       </c>
@@ -5711,7 +7158,7 @@
         <v>-3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A125" s="2">
         <v>-7.0399999999999998E-4</v>
       </c>
@@ -5740,7 +7187,7 @@
         <v>-3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A126" s="2">
         <v>-6.9999999999999999E-4</v>
       </c>
@@ -5769,7 +7216,7 @@
         <v>-2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A127" s="2">
         <v>-6.96E-4</v>
       </c>
@@ -5798,7 +7245,7 @@
         <v>-2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A128" s="2">
         <v>-6.9200000000000002E-4</v>
       </c>
@@ -5827,7 +7274,7 @@
         <v>-0.02</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A129" s="2">
         <v>-6.8800000000000003E-4</v>
       </c>
@@ -5856,7 +7303,7 @@
         <v>-0.02</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A130" s="2">
         <v>-6.8400000000000004E-4</v>
       </c>
@@ -5885,7 +7332,7 @@
         <v>-1.2E-2</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A131" s="2">
         <v>-6.8000000000000005E-4</v>
       </c>
@@ -5914,7 +7361,7 @@
         <v>-1.2E-2</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A132" s="2">
         <v>-6.7599999999999995E-4</v>
       </c>
@@ -5943,7 +7390,7 @@
         <v>-6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A133" s="2">
         <v>-6.7199999999999996E-4</v>
       </c>
@@ -5972,7 +7419,7 @@
         <v>-4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A134" s="2">
         <v>-6.6799999999999997E-4</v>
       </c>
@@ -6001,7 +7448,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A135" s="2">
         <v>-6.6399999999999999E-4</v>
       </c>
@@ -6030,7 +7477,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A136" s="2">
         <v>-6.6E-4</v>
       </c>
@@ -6059,7 +7506,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A137" s="2">
         <v>-6.5600000000000001E-4</v>
       </c>
@@ -6088,7 +7535,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A138" s="2">
         <v>-6.5200000000000002E-4</v>
       </c>
@@ -6117,7 +7564,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A139" s="2">
         <v>-6.4800000000000003E-4</v>
       </c>
@@ -6146,7 +7593,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A140" s="2">
         <v>-6.4400000000000004E-4</v>
       </c>
@@ -6175,7 +7622,7 @@
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A141" s="2">
         <v>-6.4000000000000005E-4</v>
       </c>
@@ -6204,7 +7651,7 @@
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A142" s="2">
         <v>-6.3599999999999996E-4</v>
       </c>
@@ -6233,7 +7680,7 @@
         <v>3.2000000000000001E-2</v>
       </c>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A143" s="2">
         <v>-6.3199999999999997E-4</v>
       </c>
@@ -6262,7 +7709,7 @@
         <v>3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A144" s="2">
         <v>-6.2799999999999998E-4</v>
       </c>
@@ -6291,7 +7738,7 @@
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A145" s="2">
         <v>-6.2399999999999999E-4</v>
       </c>
@@ -6320,7 +7767,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A146" s="2">
         <v>-6.2E-4</v>
       </c>
@@ -6349,7 +7796,7 @@
         <v>4.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A147" s="2">
         <v>-6.1600000000000001E-4</v>
       </c>
@@ -6378,7 +7825,7 @@
         <v>4.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A148" s="2">
         <v>-6.1200000000000002E-4</v>
       </c>
@@ -6407,7 +7854,7 @@
         <v>5.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A149" s="2">
         <v>-6.0800000000000003E-4</v>
       </c>
@@ -6436,7 +7883,7 @@
         <v>5.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A150" s="2">
         <v>-6.0400000000000004E-4</v>
       </c>
@@ -6465,7 +7912,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A151" s="2">
         <v>-5.9999999999999995E-4</v>
       </c>
@@ -6494,7 +7941,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A152" s="2">
         <v>-5.9599999999999996E-4</v>
       </c>
@@ -6523,7 +7970,7 @@
         <v>6.59E-2</v>
       </c>
     </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A153" s="2">
         <v>-5.9199999999999997E-4</v>
       </c>
@@ -6552,7 +7999,7 @@
         <v>6.59E-2</v>
       </c>
     </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A154" s="2">
         <v>-5.8799999999999998E-4</v>
       </c>
@@ -6581,7 +8028,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A155" s="2">
         <v>-5.8399999999999999E-4</v>
       </c>
@@ -6610,7 +8057,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A156" s="2">
         <v>-5.8E-4</v>
       </c>
@@ -6639,7 +8086,7 @@
         <v>7.8E-2</v>
       </c>
     </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A157" s="2">
         <v>-5.7600000000000001E-4</v>
       </c>
@@ -6668,7 +8115,7 @@
         <v>7.8E-2</v>
       </c>
     </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A158" s="2">
         <v>-5.7200000000000003E-4</v>
       </c>
@@ -6697,7 +8144,7 @@
         <v>7.9899999999999999E-2</v>
       </c>
     </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A159" s="2">
         <v>-5.6800000000000004E-4</v>
       </c>
@@ -6726,7 +8173,7 @@
         <v>8.1900000000000001E-2</v>
       </c>
     </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A160" s="2">
         <v>-5.6400000000000005E-4</v>
       </c>
@@ -6755,7 +8202,7 @@
         <v>8.5999999999999993E-2</v>
       </c>
     </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A161" s="2">
         <v>-5.5999999999999995E-4</v>
       </c>
@@ -6784,7 +8231,7 @@
         <v>8.5999999999999993E-2</v>
       </c>
     </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A162" s="2">
         <v>-5.5599999999999996E-4</v>
       </c>
@@ -6813,7 +8260,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A163" s="2">
         <v>-5.5199999999999997E-4</v>
       </c>
@@ -6842,7 +8289,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A164" s="2">
         <v>-5.4799999999999998E-4</v>
       </c>
@@ -6871,7 +8318,7 @@
         <v>9.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A165" s="2">
         <v>-5.44E-4</v>
       </c>
@@ -6900,7 +8347,7 @@
         <v>9.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A166" s="2">
         <v>-5.4000000000000001E-4</v>
       </c>
@@ -6929,7 +8376,7 @@
         <v>9.4E-2</v>
       </c>
     </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A167" s="2">
         <v>-5.3600000000000002E-4</v>
       </c>
@@ -6958,7 +8405,7 @@
         <v>9.4E-2</v>
       </c>
     </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A168" s="2">
         <v>-5.3200000000000003E-4</v>
       </c>
@@ -6987,7 +8434,7 @@
         <v>9.6000000000000002E-2</v>
       </c>
     </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A169" s="2">
         <v>-5.2800000000000004E-4</v>
       </c>
@@ -7016,7 +8463,7 @@
         <v>9.4E-2</v>
       </c>
     </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A170" s="2">
         <v>-5.2400000000000005E-4</v>
       </c>
@@ -7045,7 +8492,7 @@
         <v>9.8000000000000004E-2</v>
       </c>
     </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A171" s="2">
         <v>-5.1999999999999995E-4</v>
       </c>
@@ -7074,7 +8521,7 @@
         <v>9.8000000000000004E-2</v>
       </c>
     </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A172" s="2">
         <v>-5.1599999999999997E-4</v>
       </c>
@@ -7103,7 +8550,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A173" s="2">
         <v>-5.1199999999999998E-4</v>
       </c>
@@ -7132,7 +8579,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A174" s="2">
         <v>-5.0799999999999999E-4</v>
       </c>
@@ -7161,7 +8608,7 @@
         <v>9.8000000000000004E-2</v>
       </c>
     </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A175" s="2">
         <v>-5.04E-4</v>
       </c>
@@ -7190,7 +8637,7 @@
         <v>0.10199999999999999</v>
       </c>
     </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A176" s="2">
         <v>-5.0000000000000001E-4</v>
       </c>
@@ -7219,7 +8666,7 @@
         <v>9.8000000000000004E-2</v>
       </c>
     </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A177" s="2">
         <v>-4.9600000000000002E-4</v>
       </c>
@@ -7248,7 +8695,7 @@
         <v>9.8000000000000004E-2</v>
       </c>
     </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A178" s="2">
         <v>-4.9200000000000003E-4</v>
       </c>
@@ -7277,7 +8724,7 @@
         <v>9.8000000000000004E-2</v>
       </c>
     </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A179" s="2">
         <v>-4.8799999999999999E-4</v>
       </c>
@@ -7306,7 +8753,7 @@
         <v>9.8000000000000004E-2</v>
       </c>
     </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A180" s="2">
         <v>-4.84E-4</v>
       </c>
@@ -7335,7 +8782,7 @@
         <v>9.8000000000000004E-2</v>
       </c>
     </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A181" s="2">
         <v>-4.8000000000000001E-4</v>
       </c>
@@ -7364,7 +8811,7 @@
         <v>9.8000000000000004E-2</v>
       </c>
     </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A182" s="2">
         <v>-4.7600000000000002E-4</v>
       </c>
@@ -7393,7 +8840,7 @@
         <v>9.6000000000000002E-2</v>
       </c>
     </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A183" s="2">
         <v>-4.7199999999999998E-4</v>
       </c>
@@ -7422,7 +8869,7 @@
         <v>9.6000000000000002E-2</v>
       </c>
     </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A184" s="2">
         <v>-4.6799999999999999E-4</v>
       </c>
@@ -7451,7 +8898,7 @@
         <v>9.4E-2</v>
       </c>
     </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A185" s="2">
         <v>-4.64E-4</v>
       </c>
@@ -7480,7 +8927,7 @@
         <v>9.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A186" s="2">
         <v>-4.6000000000000001E-4</v>
       </c>
@@ -7509,7 +8956,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A187" s="2">
         <v>-4.5600000000000003E-4</v>
       </c>
@@ -7538,7 +8985,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A188" s="2">
         <v>-4.5199999999999998E-4</v>
       </c>
@@ -7567,7 +9014,7 @@
         <v>8.5999999999999993E-2</v>
       </c>
     </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A189" s="2">
         <v>-4.4799999999999999E-4</v>
       </c>
@@ -7596,7 +9043,7 @@
         <v>8.5999999999999993E-2</v>
       </c>
     </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A190" s="2">
         <v>-4.44E-4</v>
       </c>
@@ -7625,7 +9072,7 @@
         <v>8.1900000000000001E-2</v>
       </c>
     </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A191" s="2">
         <v>-4.4000000000000002E-4</v>
       </c>
@@ -7654,7 +9101,7 @@
         <v>8.1900000000000001E-2</v>
       </c>
     </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A192" s="2">
         <v>-4.3600000000000003E-4</v>
       </c>
@@ -7683,7 +9130,7 @@
         <v>7.8E-2</v>
       </c>
     </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A193" s="2">
         <v>-4.3199999999999998E-4</v>
       </c>
@@ -7712,7 +9159,7 @@
         <v>7.5899999999999995E-2</v>
       </c>
     </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A194" s="2">
         <v>-4.28E-4</v>
       </c>
@@ -7741,7 +9188,7 @@
         <v>7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A195" s="2">
         <v>-4.2400000000000001E-4</v>
       </c>
@@ -7770,7 +9217,7 @@
         <v>7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A196" s="2">
         <v>-4.2000000000000002E-4</v>
       </c>
@@ -7799,7 +9246,7 @@
         <v>6.59E-2</v>
       </c>
     </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A197" s="2">
         <v>-4.1599999999999997E-4</v>
       </c>
@@ -7828,7 +9275,7 @@
         <v>6.59E-2</v>
       </c>
     </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A198" s="2">
         <v>-4.1199999999999999E-4</v>
       </c>
@@ -7857,7 +9304,7 @@
         <v>6.2E-2</v>
       </c>
     </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A199" s="2">
         <v>-4.08E-4</v>
       </c>
@@ -7886,7 +9333,7 @@
         <v>6.2E-2</v>
       </c>
     </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A200" s="2">
         <v>-4.0400000000000001E-4</v>
       </c>
@@ -7915,7 +9362,7 @@
         <v>5.6000000000000001E-2</v>
       </c>
     </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A201" s="2">
         <v>-4.0000000000000002E-4</v>
       </c>
@@ -7944,7 +9391,7 @@
         <v>5.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A202" s="2">
         <v>-3.9599999999999998E-4</v>
       </c>
@@ -7973,7 +9420,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A203" s="2">
         <v>-3.9199999999999999E-4</v>
       </c>
@@ -8002,7 +9449,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A204" s="2">
         <v>-3.88E-4</v>
       </c>
@@ -8031,7 +9478,7 @@
         <v>4.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A205" s="2">
         <v>-3.8400000000000001E-4</v>
       </c>
@@ -8060,7 +9507,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A206" s="2">
         <v>-3.8000000000000002E-4</v>
       </c>
@@ -8089,7 +9536,7 @@
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A207" s="2">
         <v>-3.7599999999999998E-4</v>
       </c>
@@ -8118,7 +9565,7 @@
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A208" s="2">
         <v>-3.7199999999999999E-4</v>
       </c>
@@ -8147,7 +9594,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="209" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A209" s="2">
         <v>-3.68E-4</v>
       </c>
@@ -8176,7 +9623,7 @@
         <v>2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="210" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A210" s="2">
         <v>-3.6400000000000001E-4</v>
       </c>
@@ -8205,7 +9652,7 @@
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="211" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A211" s="2">
         <v>-3.6000000000000002E-4</v>
       </c>
@@ -8234,7 +9681,7 @@
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="212" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A212" s="2">
         <v>-3.5599999999999998E-4</v>
       </c>
@@ -8263,7 +9710,7 @@
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="213" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A213" s="2">
         <v>-3.5199999999999999E-4</v>
       </c>
@@ -8292,7 +9739,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="214" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A214" s="2">
         <v>-3.48E-4</v>
       </c>
@@ -8321,7 +9768,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="215" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A215" s="2">
         <v>-3.4400000000000001E-4</v>
       </c>
@@ -8350,7 +9797,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="216" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A216" s="2">
         <v>-3.4000000000000002E-4</v>
       </c>
@@ -8379,7 +9826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A217" s="2">
         <v>-3.3599999999999998E-4</v>
       </c>
@@ -8408,7 +9855,7 @@
         <v>-4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="218" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A218" s="2">
         <v>-3.3199999999999999E-4</v>
       </c>
@@ -8437,7 +9884,7 @@
         <v>-8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="219" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A219" s="2">
         <v>-3.28E-4</v>
       </c>
@@ -8466,7 +9913,7 @@
         <v>-8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="220" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A220" s="2">
         <v>-3.2400000000000001E-4</v>
       </c>
@@ -8495,7 +9942,7 @@
         <v>-1.6E-2</v>
       </c>
     </row>
-    <row r="221" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A221" s="2">
         <v>-3.2000000000000003E-4</v>
       </c>
@@ -8524,7 +9971,7 @@
         <v>-1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="222" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A222" s="2">
         <v>-3.1599999999999998E-4</v>
       </c>
@@ -8553,7 +10000,7 @@
         <v>-2.4E-2</v>
       </c>
     </row>
-    <row r="223" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A223" s="2">
         <v>-3.1199999999999999E-4</v>
       </c>
@@ -8582,7 +10029,7 @@
         <v>-2.4E-2</v>
       </c>
     </row>
-    <row r="224" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A224" s="2">
         <v>-3.0800000000000001E-4</v>
       </c>
@@ -8611,7 +10058,7 @@
         <v>-3.2000000000000001E-2</v>
       </c>
     </row>
-    <row r="225" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A225" s="2">
         <v>-3.0400000000000002E-4</v>
       </c>
@@ -8640,7 +10087,7 @@
         <v>-3.2000000000000001E-2</v>
       </c>
     </row>
-    <row r="226" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A226" s="2">
         <v>-2.9999999999999997E-4</v>
       </c>
@@ -8669,7 +10116,7 @@
         <v>-0.04</v>
       </c>
     </row>
-    <row r="227" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A227" s="2">
         <v>-2.9599999999999998E-4</v>
       </c>
@@ -8698,7 +10145,7 @@
         <v>-0.04</v>
       </c>
     </row>
-    <row r="228" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A228" s="2">
         <v>-2.92E-4</v>
       </c>
@@ -8727,7 +10174,7 @@
         <v>-4.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="229" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A229" s="2">
         <v>-2.8800000000000001E-4</v>
       </c>
@@ -8756,7 +10203,7 @@
         <v>-4.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="230" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A230" s="2">
         <v>-2.8400000000000002E-4</v>
       </c>
@@ -8785,7 +10232,7 @@
         <v>-5.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="231" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A231" s="2">
         <v>-2.7999999999999998E-4</v>
       </c>
@@ -8814,7 +10261,7 @@
         <v>-5.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="232" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A232" s="2">
         <v>-2.7599999999999999E-4</v>
       </c>
@@ -8843,7 +10290,7 @@
         <v>-0.06</v>
       </c>
     </row>
-    <row r="233" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A233" s="2">
         <v>-2.72E-4</v>
       </c>
@@ -8872,7 +10319,7 @@
         <v>-0.06</v>
       </c>
     </row>
-    <row r="234" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A234" s="2">
         <v>-2.6800000000000001E-4</v>
       </c>
@@ -8901,7 +10348,7 @@
         <v>-6.4000000000000001E-2</v>
       </c>
     </row>
-    <row r="235" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A235" s="2">
         <v>-2.6400000000000002E-4</v>
       </c>
@@ -8930,7 +10377,7 @@
         <v>-6.59E-2</v>
       </c>
     </row>
-    <row r="236" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A236" s="2">
         <v>-2.5999999999999998E-4</v>
       </c>
@@ -8959,7 +10406,7 @@
         <v>-7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="237" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A237" s="2">
         <v>-2.5599999999999999E-4</v>
       </c>
@@ -8988,7 +10435,7 @@
         <v>-7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="238" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A238" s="2">
         <v>-2.52E-4</v>
       </c>
@@ -9017,7 +10464,7 @@
         <v>-7.5899999999999995E-2</v>
       </c>
     </row>
-    <row r="239" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A239" s="2">
         <v>-2.4800000000000001E-4</v>
       </c>
@@ -9046,7 +10493,7 @@
         <v>-7.5899999999999995E-2</v>
       </c>
     </row>
-    <row r="240" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A240" s="2">
         <v>-2.4399999999999999E-4</v>
       </c>
@@ -9075,7 +10522,7 @@
         <v>-8.4000000000000005E-2</v>
       </c>
     </row>
-    <row r="241" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A241" s="2">
         <v>-2.4000000000000001E-4</v>
       </c>
@@ -9104,7 +10551,7 @@
         <v>-8.1900000000000001E-2</v>
       </c>
     </row>
-    <row r="242" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A242" s="2">
         <v>-2.3599999999999999E-4</v>
       </c>
@@ -9133,7 +10580,7 @@
         <v>-8.4000000000000005E-2</v>
       </c>
     </row>
-    <row r="243" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A243" s="2">
         <v>-2.32E-4</v>
       </c>
@@ -9162,7 +10609,7 @@
         <v>-8.5999999999999993E-2</v>
       </c>
     </row>
-    <row r="244" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A244" s="2">
         <v>-2.2800000000000001E-4</v>
       </c>
@@ -9191,7 +10638,7 @@
         <v>-0.09</v>
       </c>
     </row>
-    <row r="245" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A245" s="2">
         <v>-2.24E-4</v>
       </c>
@@ -9220,7 +10667,7 @@
         <v>-0.09</v>
       </c>
     </row>
-    <row r="246" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A246" s="2">
         <v>-2.2000000000000001E-4</v>
       </c>
@@ -9249,7 +10696,7 @@
         <v>-9.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="247" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A247" s="2">
         <v>-2.1599999999999999E-4</v>
       </c>
@@ -9278,7 +10725,7 @@
         <v>-9.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="248" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A248" s="2">
         <v>-2.12E-4</v>
       </c>
@@ -9307,7 +10754,7 @@
         <v>-9.4E-2</v>
       </c>
     </row>
-    <row r="249" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A249" s="2">
         <v>-2.0799999999999999E-4</v>
       </c>
@@ -9336,7 +10783,7 @@
         <v>-9.6000000000000002E-2</v>
       </c>
     </row>
-    <row r="250" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A250" s="2">
         <v>-2.04E-4</v>
       </c>
@@ -9365,7 +10812,7 @@
         <v>-9.8000000000000004E-2</v>
       </c>
     </row>
-    <row r="251" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A251" s="2">
         <v>-2.0000000000000001E-4</v>
       </c>
@@ -9394,7 +10841,7 @@
         <v>-9.8000000000000004E-2</v>
       </c>
     </row>
-    <row r="252" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A252" s="2">
         <v>-1.9599999999999999E-4</v>
       </c>
@@ -9423,7 +10870,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="253" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A253" s="2">
         <v>-1.92E-4</v>
       </c>
@@ -9452,7 +10899,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="254" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A254" s="2">
         <v>-1.8799999999999999E-4</v>
       </c>
@@ -9481,7 +10928,7 @@
         <v>-0.10199999999999999</v>
       </c>
     </row>
-    <row r="255" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A255" s="2">
         <v>-1.84E-4</v>
       </c>
@@ -9510,7 +10957,7 @@
         <v>-0.10199999999999999</v>
       </c>
     </row>
-    <row r="256" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A256" s="2">
         <v>-1.8000000000000001E-4</v>
       </c>
@@ -9539,7 +10986,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="257" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A257" s="2">
         <v>-1.76E-4</v>
       </c>
@@ -9568,7 +11015,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="258" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A258" s="2">
         <v>-1.7200000000000001E-4</v>
       </c>
@@ -9597,7 +11044,7 @@
         <v>-0.104</v>
       </c>
     </row>
-    <row r="259" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A259" s="2">
         <v>-1.6799999999999999E-4</v>
       </c>
@@ -9626,7 +11073,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="260" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A260" s="2">
         <v>-1.64E-4</v>
       </c>
@@ -9655,7 +11102,7 @@
         <v>-0.10199999999999999</v>
       </c>
     </row>
-    <row r="261" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A261" s="2">
         <v>-1.6000000000000001E-4</v>
       </c>
@@ -9684,7 +11131,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="262" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A262" s="2">
         <v>-1.56E-4</v>
       </c>
@@ -9713,7 +11160,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="263" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A263" s="2">
         <v>-1.5200000000000001E-4</v>
       </c>
@@ -9742,7 +11189,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="264" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A264" s="2">
         <v>-1.4799999999999999E-4</v>
       </c>
@@ -9771,7 +11218,7 @@
         <v>-9.8000000000000004E-2</v>
       </c>
     </row>
-    <row r="265" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A265" s="2">
         <v>-1.44E-4</v>
       </c>
@@ -9800,7 +11247,7 @@
         <v>-9.8000000000000004E-2</v>
       </c>
     </row>
-    <row r="266" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A266" s="2">
         <v>-1.3999999999999999E-4</v>
       </c>
@@ -9829,7 +11276,7 @@
         <v>-9.6000000000000002E-2</v>
       </c>
     </row>
-    <row r="267" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A267" s="2">
         <v>-1.36E-4</v>
       </c>
@@ -9858,7 +11305,7 @@
         <v>-9.6000000000000002E-2</v>
       </c>
     </row>
-    <row r="268" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A268" s="2">
         <v>-1.3200000000000001E-4</v>
       </c>
@@ -9887,7 +11334,7 @@
         <v>-9.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="269" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A269" s="2">
         <v>-1.2799999999999999E-4</v>
       </c>
@@ -9916,7 +11363,7 @@
         <v>-9.4E-2</v>
       </c>
     </row>
-    <row r="270" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A270" s="2">
         <v>-1.2400000000000001E-4</v>
       </c>
@@ -9945,7 +11392,7 @@
         <v>-0.09</v>
       </c>
     </row>
-    <row r="271" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A271" s="2">
         <v>-1.2E-4</v>
       </c>
@@ -9974,7 +11421,7 @@
         <v>-0.09</v>
       </c>
     </row>
-    <row r="272" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A272" s="2">
         <v>-1.16E-4</v>
       </c>
@@ -10003,7 +11450,7 @@
         <v>-8.5999999999999993E-2</v>
       </c>
     </row>
-    <row r="273" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A273" s="2">
         <v>-1.12E-4</v>
       </c>
@@ -10032,7 +11479,7 @@
         <v>-8.5999999999999993E-2</v>
       </c>
     </row>
-    <row r="274" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A274" s="2">
         <v>-1.08E-4</v>
       </c>
@@ -10061,7 +11508,7 @@
         <v>-8.1900000000000001E-2</v>
       </c>
     </row>
-    <row r="275" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A275" s="2">
         <v>-1.0399999999999999E-4</v>
       </c>
@@ -10090,7 +11537,7 @@
         <v>-8.4000000000000005E-2</v>
       </c>
     </row>
-    <row r="276" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A276" s="2">
         <v>-1E-4</v>
       </c>
@@ -10119,7 +11566,7 @@
         <v>-7.8E-2</v>
       </c>
     </row>
-    <row r="277" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A277" s="2">
         <v>-9.6000000000000002E-5</v>
       </c>
@@ -10148,7 +11595,7 @@
         <v>-7.8E-2</v>
       </c>
     </row>
-    <row r="278" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A278" s="2">
         <v>-9.2E-5</v>
       </c>
@@ -10177,7 +11624,7 @@
         <v>-7.3999999999999996E-2</v>
       </c>
     </row>
-    <row r="279" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A279" s="2">
         <v>-8.7999999999999998E-5</v>
       </c>
@@ -10206,7 +11653,7 @@
         <v>-7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="280" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A280" s="2">
         <v>-8.3999999999999995E-5</v>
       </c>
@@ -10235,7 +11682,7 @@
         <v>-6.59E-2</v>
       </c>
     </row>
-    <row r="281" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A281" s="2">
         <v>-8.0000000000000007E-5</v>
       </c>
@@ -10264,7 +11711,7 @@
         <v>-6.59E-2</v>
       </c>
     </row>
-    <row r="282" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A282" s="2">
         <v>-7.6000000000000004E-5</v>
       </c>
@@ -10293,7 +11740,7 @@
         <v>-0.06</v>
       </c>
     </row>
-    <row r="283" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A283" s="2">
         <v>-7.2000000000000002E-5</v>
       </c>
@@ -10322,7 +11769,7 @@
         <v>-0.06</v>
       </c>
     </row>
-    <row r="284" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A284" s="2">
         <v>-6.7999999999999999E-5</v>
       </c>
@@ -10351,7 +11798,7 @@
         <v>-5.6000000000000001E-2</v>
       </c>
     </row>
-    <row r="285" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A285" s="2">
         <v>-6.3999999999999997E-5</v>
       </c>
@@ -10380,7 +11827,7 @@
         <v>-5.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="286" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A286" s="2">
         <v>-6.0000000000000002E-5</v>
       </c>
@@ -10409,7 +11856,7 @@
         <v>-0.05</v>
       </c>
     </row>
-    <row r="287" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A287" s="2">
         <v>-5.5999999999999999E-5</v>
       </c>
@@ -10438,7 +11885,7 @@
         <v>-4.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="288" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A288" s="2">
         <v>-5.1999999999999997E-5</v>
       </c>
@@ -10467,7 +11914,7 @@
         <v>-4.3999999999999997E-2</v>
       </c>
     </row>
-    <row r="289" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A289" s="2">
         <v>-4.8000000000000001E-5</v>
       </c>
@@ -10496,7 +11943,7 @@
         <v>-0.04</v>
       </c>
     </row>
-    <row r="290" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A290" s="2">
         <v>-4.3999999999999999E-5</v>
       </c>
@@ -10525,7 +11972,7 @@
         <v>-3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="291" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A291" s="2">
         <v>-4.0000000000000003E-5</v>
       </c>
@@ -10554,7 +12001,7 @@
         <v>-3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="292" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A292" s="2">
         <v>-3.6000000000000001E-5</v>
       </c>
@@ -10583,7 +12030,7 @@
         <v>-2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="293" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A293" s="2">
         <v>-3.1999999999999999E-5</v>
       </c>
@@ -10612,7 +12059,7 @@
         <v>-2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="294" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A294" s="2">
         <v>-2.8E-5</v>
       </c>
@@ -10641,7 +12088,7 @@
         <v>-0.02</v>
       </c>
     </row>
-    <row r="295" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A295" s="2">
         <v>-2.4000000000000001E-5</v>
       </c>
@@ -10670,7 +12117,7 @@
         <v>-1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="296" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A296" s="2">
         <v>-2.0000000000000002E-5</v>
       </c>
@@ -10699,7 +12146,7 @@
         <v>-1.2E-2</v>
       </c>
     </row>
-    <row r="297" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A297" s="2">
         <v>-1.5999999999999999E-5</v>
       </c>
@@ -10728,7 +12175,7 @@
         <v>-1.2E-2</v>
       </c>
     </row>
-    <row r="298" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A298" s="2">
         <v>-1.2E-5</v>
       </c>
@@ -10757,7 +12204,7 @@
         <v>-4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="299" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A299" s="2">
         <v>-7.9999999999999996E-6</v>
       </c>
@@ -10786,7 +12233,7 @@
         <v>-4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="300" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A300" s="2">
         <v>-3.9999999999999998E-6</v>
       </c>
@@ -10815,7 +12262,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="301" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A301" s="2">
         <v>0</v>
       </c>
@@ -10844,7 +12291,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="302" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A302" s="2">
         <v>3.9999999999999998E-6</v>
       </c>
@@ -10873,7 +12320,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="303" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A303" s="2">
         <v>7.9999999999999996E-6</v>
       </c>
@@ -10902,7 +12349,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="304" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A304" s="2">
         <v>1.2E-5</v>
       </c>
@@ -10931,7 +12378,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="305" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A305" s="2">
         <v>1.5999999999999999E-5</v>
       </c>
@@ -10960,7 +12407,7 @@
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="306" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A306" s="2">
         <v>2.0000000000000002E-5</v>
       </c>
@@ -10989,7 +12436,7 @@
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="307" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A307" s="2">
         <v>2.4000000000000001E-5</v>
       </c>
@@ -11018,7 +12465,7 @@
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="308" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A308" s="2">
         <v>2.8E-5</v>
       </c>
@@ -11047,7 +12494,7 @@
         <v>3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="309" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A309" s="2">
         <v>3.1999999999999999E-5</v>
       </c>
@@ -11076,7 +12523,7 @@
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="310" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A310" s="2">
         <v>3.6000000000000001E-5</v>
       </c>
@@ -11105,7 +12552,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="311" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A311" s="2">
         <v>4.0000000000000003E-5</v>
       </c>
@@ -11134,7 +12581,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="312" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A312" s="2">
         <v>4.3999999999999999E-5</v>
       </c>
@@ -11163,7 +12610,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="313" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A313" s="2">
         <v>4.8000000000000001E-5</v>
       </c>
@@ -11192,7 +12639,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="314" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A314" s="2">
         <v>5.1999999999999997E-5</v>
       </c>
@@ -11221,7 +12668,7 @@
         <v>5.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="315" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A315" s="2">
         <v>5.5999999999999999E-5</v>
       </c>
@@ -11250,7 +12697,7 @@
         <v>5.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="316" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A316" s="2">
         <v>6.0000000000000002E-5</v>
       </c>
@@ -11279,7 +12726,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="317" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A317" s="2">
         <v>6.3999999999999997E-5</v>
       </c>
@@ -11308,7 +12755,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="318" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A318" s="2">
         <v>6.7999999999999999E-5</v>
       </c>
@@ -11337,7 +12784,7 @@
         <v>6.4000000000000001E-2</v>
       </c>
     </row>
-    <row r="319" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A319" s="2">
         <v>7.2000000000000002E-5</v>
       </c>
@@ -11366,7 +12813,7 @@
         <v>6.59E-2</v>
       </c>
     </row>
-    <row r="320" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A320" s="2">
         <v>7.6000000000000004E-5</v>
       </c>
@@ -11395,7 +12842,7 @@
         <v>7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="321" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A321" s="2">
         <v>8.0000000000000007E-5</v>
       </c>
@@ -11424,7 +12871,7 @@
         <v>7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="322" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A322" s="2">
         <v>8.3999999999999995E-5</v>
       </c>
@@ -11453,7 +12900,7 @@
         <v>7.5899999999999995E-2</v>
       </c>
     </row>
-    <row r="323" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A323" s="2">
         <v>8.7999999999999998E-5</v>
       </c>
@@ -11482,7 +12929,7 @@
         <v>7.5899999999999995E-2</v>
       </c>
     </row>
-    <row r="324" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A324" s="2">
         <v>9.2E-5</v>
       </c>
@@ -11511,7 +12958,7 @@
         <v>8.1900000000000001E-2</v>
       </c>
     </row>
-    <row r="325" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A325" s="2">
         <v>9.6000000000000002E-5</v>
       </c>
@@ -11540,7 +12987,7 @@
         <v>7.9899999999999999E-2</v>
       </c>
     </row>
-    <row r="326" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A326" s="2">
         <v>1E-4</v>
       </c>
@@ -11569,7 +13016,7 @@
         <v>8.5999999999999993E-2</v>
       </c>
     </row>
-    <row r="327" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A327" s="2">
         <v>1.0399999999999999E-4</v>
       </c>
@@ -11598,7 +13045,7 @@
         <v>8.5999999999999993E-2</v>
       </c>
     </row>
-    <row r="328" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A328" s="2">
         <v>1.08E-4</v>
       </c>
@@ -11627,7 +13074,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="329" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A329" s="2">
         <v>1.12E-4</v>
       </c>
@@ -11656,7 +13103,7 @@
         <v>8.7900000000000006E-2</v>
       </c>
     </row>
-    <row r="330" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A330" s="2">
         <v>1.16E-4</v>
       </c>
@@ -11685,7 +13132,7 @@
         <v>9.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="331" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A331" s="2">
         <v>1.2E-4</v>
       </c>
@@ -11714,7 +13161,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="332" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A332" s="2">
         <v>1.2400000000000001E-4</v>
       </c>
@@ -11743,7 +13190,7 @@
         <v>9.4E-2</v>
       </c>
     </row>
-    <row r="333" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A333" s="2">
         <v>1.2799999999999999E-4</v>
       </c>
@@ -11772,7 +13219,7 @@
         <v>9.4E-2</v>
       </c>
     </row>
-    <row r="334" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A334" s="2">
         <v>1.3200000000000001E-4</v>
       </c>
@@ -11801,7 +13248,7 @@
         <v>9.8000000000000004E-2</v>
       </c>
     </row>
-    <row r="335" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A335" s="2">
         <v>1.36E-4</v>
       </c>
@@ -11830,7 +13277,7 @@
         <v>9.6000000000000002E-2</v>
       </c>
     </row>
-    <row r="336" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A336" s="2">
         <v>1.3999999999999999E-4</v>
       </c>
@@ -11859,7 +13306,7 @@
         <v>9.8000000000000004E-2</v>
       </c>
     </row>
-    <row r="337" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A337" s="2">
         <v>1.44E-4</v>
       </c>
@@ -11888,7 +13335,7 @@
         <v>9.8000000000000004E-2</v>
       </c>
     </row>
-    <row r="338" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A338" s="2">
         <v>1.4799999999999999E-4</v>
       </c>
@@ -11917,7 +13364,7 @@
         <v>9.6000000000000002E-2</v>
       </c>
     </row>
-    <row r="339" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A339" s="2">
         <v>1.5200000000000001E-4</v>
       </c>
@@ -11946,7 +13393,7 @@
         <v>9.8000000000000004E-2</v>
       </c>
     </row>
-    <row r="340" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A340" s="2">
         <v>1.56E-4</v>
       </c>
@@ -11975,7 +13422,7 @@
         <v>0.10199999999999999</v>
       </c>
     </row>
-    <row r="341" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A341" s="2">
         <v>1.6000000000000001E-4</v>
       </c>
@@ -12004,7 +13451,7 @@
         <v>9.8000000000000004E-2</v>
       </c>
     </row>
-    <row r="342" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A342" s="2">
         <v>1.64E-4</v>
       </c>
@@ -12033,7 +13480,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="343" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A343" s="2">
         <v>1.6799999999999999E-4</v>
       </c>
@@ -12062,7 +13509,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="344" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A344" s="2">
         <v>1.7200000000000001E-4</v>
       </c>
@@ -12091,7 +13538,7 @@
         <v>9.6000000000000002E-2</v>
       </c>
     </row>
-    <row r="345" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A345" s="2">
         <v>1.76E-4</v>
       </c>
@@ -12120,7 +13567,7 @@
         <v>9.8000000000000004E-2</v>
       </c>
     </row>
-    <row r="346" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A346" s="2">
         <v>1.8000000000000001E-4</v>
       </c>
@@ -12149,7 +13596,7 @@
         <v>9.6000000000000002E-2</v>
       </c>
     </row>
-    <row r="347" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A347" s="2">
         <v>1.84E-4</v>
       </c>
@@ -12178,7 +13625,7 @@
         <v>9.6000000000000002E-2</v>
       </c>
     </row>
-    <row r="348" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A348" s="2">
         <v>1.8799999999999999E-4</v>
       </c>
@@ -12207,7 +13654,7 @@
         <v>9.4E-2</v>
       </c>
     </row>
-    <row r="349" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A349" s="2">
         <v>1.92E-4</v>
       </c>
@@ -12236,7 +13683,7 @@
         <v>9.4E-2</v>
       </c>
     </row>
-    <row r="350" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A350" s="2">
         <v>1.9599999999999999E-4</v>
       </c>
@@ -12265,7 +13712,7 @@
         <v>9.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="351" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A351" s="2">
         <v>2.0000000000000001E-4</v>
       </c>
@@ -12294,7 +13741,7 @@
         <v>9.4E-2</v>
       </c>
     </row>
-    <row r="352" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A352" s="2">
         <v>2.04E-4</v>
       </c>
@@ -12323,7 +13770,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="353" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A353" s="2">
         <v>2.0799999999999999E-4</v>
       </c>
@@ -12352,7 +13799,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="354" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A354" s="2">
         <v>2.12E-4</v>
       </c>
@@ -12381,7 +13828,7 @@
         <v>8.5999999999999993E-2</v>
       </c>
     </row>
-    <row r="355" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A355" s="2">
         <v>2.1599999999999999E-4</v>
       </c>
@@ -12410,7 +13857,7 @@
         <v>8.5999999999999993E-2</v>
       </c>
     </row>
-    <row r="356" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A356" s="2">
         <v>2.2000000000000001E-4</v>
       </c>
@@ -12439,7 +13886,7 @@
         <v>8.1900000000000001E-2</v>
       </c>
     </row>
-    <row r="357" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A357" s="2">
         <v>2.24E-4</v>
       </c>
@@ -12468,7 +13915,7 @@
         <v>8.1900000000000001E-2</v>
       </c>
     </row>
-    <row r="358" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A358" s="2">
         <v>2.2800000000000001E-4</v>
       </c>
@@ -12497,7 +13944,7 @@
         <v>7.8E-2</v>
       </c>
     </row>
-    <row r="359" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A359" s="2">
         <v>2.32E-4</v>
       </c>
@@ -12526,7 +13973,7 @@
         <v>7.8E-2</v>
       </c>
     </row>
-    <row r="360" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A360" s="2">
         <v>2.3599999999999999E-4</v>
       </c>
@@ -12555,7 +14002,7 @@
         <v>7.3999999999999996E-2</v>
       </c>
     </row>
-    <row r="361" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A361" s="2">
         <v>2.4000000000000001E-4</v>
       </c>
@@ -12584,7 +14031,7 @@
         <v>7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="362" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A362" s="2">
         <v>2.4399999999999999E-4</v>
       </c>
@@ -12613,7 +14060,7 @@
         <v>6.59E-2</v>
       </c>
     </row>
-    <row r="363" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A363" s="2">
         <v>2.4800000000000001E-4</v>
       </c>
@@ -12642,7 +14089,7 @@
         <v>6.59E-2</v>
       </c>
     </row>
-    <row r="364" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A364" s="2">
         <v>2.52E-4</v>
       </c>
@@ -12671,7 +14118,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="365" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A365" s="2">
         <v>2.5599999999999999E-4</v>
       </c>
@@ -12700,7 +14147,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="366" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A366" s="2">
         <v>2.5999999999999998E-4</v>
       </c>
@@ -12729,7 +14176,7 @@
         <v>5.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="367" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A367" s="2">
         <v>2.6400000000000002E-4</v>
       </c>
@@ -12758,7 +14205,7 @@
         <v>5.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="368" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A368" s="2">
         <v>2.6800000000000001E-4</v>
       </c>
@@ -12787,7 +14234,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="369" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A369" s="2">
         <v>2.72E-4</v>
       </c>
@@ -12816,7 +14263,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="370" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A370" s="2">
         <v>2.7599999999999999E-4</v>
       </c>
@@ -12845,7 +14292,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="371" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A371" s="2">
         <v>2.7999999999999998E-4</v>
       </c>
@@ -12874,7 +14321,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="372" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A372" s="2">
         <v>2.8400000000000002E-4</v>
       </c>
@@ -12903,7 +14350,7 @@
         <v>3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="373" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A373" s="2">
         <v>2.8800000000000001E-4</v>
       </c>
@@ -12932,7 +14379,7 @@
         <v>3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="374" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A374" s="2">
         <v>2.92E-4</v>
       </c>
@@ -12961,7 +14408,7 @@
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="375" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A375" s="2">
         <v>2.9599999999999998E-4</v>
       </c>
@@ -12990,7 +14437,7 @@
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="376" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A376" s="2">
         <v>2.9999999999999997E-4</v>
       </c>
@@ -13019,7 +14466,7 @@
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="377" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A377" s="2">
         <v>3.0400000000000002E-4</v>
       </c>
@@ -13048,7 +14495,7 @@
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="378" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A378" s="2">
         <v>3.0800000000000001E-4</v>
       </c>
@@ -13077,7 +14524,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="379" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A379" s="2">
         <v>3.1199999999999999E-4</v>
       </c>
@@ -13106,7 +14553,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="380" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A380" s="2">
         <v>3.1599999999999998E-4</v>
       </c>
@@ -13135,7 +14582,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="381" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A381" s="2">
         <v>3.2000000000000003E-4</v>
       </c>
@@ -13164,7 +14611,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="382" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A382" s="2">
         <v>3.2400000000000001E-4</v>
       </c>
@@ -13193,7 +14640,7 @@
         <v>-4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="383" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A383" s="2">
         <v>3.28E-4</v>
       </c>
@@ -13222,7 +14669,7 @@
         <v>-4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="384" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A384" s="2">
         <v>3.3199999999999999E-4</v>
       </c>
@@ -13251,7 +14698,7 @@
         <v>-1.2E-2</v>
       </c>
     </row>
-    <row r="385" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A385" s="2">
         <v>3.3599999999999998E-4</v>
       </c>
@@ -13280,7 +14727,7 @@
         <v>-0.01</v>
       </c>
     </row>
-    <row r="386" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A386" s="2">
         <v>3.4000000000000002E-4</v>
       </c>
@@ -13309,7 +14756,7 @@
         <v>-1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="387" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A387" s="2">
         <v>3.4400000000000001E-4</v>
       </c>
@@ -13338,7 +14785,7 @@
         <v>-0.02</v>
       </c>
     </row>
-    <row r="388" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A388" s="2">
         <v>3.48E-4</v>
       </c>
@@ -13367,7 +14814,7 @@
         <v>-2.4E-2</v>
       </c>
     </row>
-    <row r="389" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A389" s="2">
         <v>3.5199999999999999E-4</v>
       </c>
@@ -13396,7 +14843,7 @@
         <v>-2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="390" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A390" s="2">
         <v>3.5599999999999998E-4</v>
       </c>
@@ -13425,7 +14872,7 @@
         <v>-3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="391" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A391" s="2">
         <v>3.6000000000000002E-4</v>
       </c>
@@ -13454,7 +14901,7 @@
         <v>-3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="392" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A392" s="2">
         <v>3.6400000000000001E-4</v>
       </c>
@@ -13483,7 +14930,7 @@
         <v>-0.04</v>
       </c>
     </row>
-    <row r="393" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A393" s="2">
         <v>3.68E-4</v>
       </c>
@@ -13512,7 +14959,7 @@
         <v>-4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="394" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A394" s="2">
         <v>3.7199999999999999E-4</v>
       </c>
@@ -13541,7 +14988,7 @@
         <v>-4.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="395" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A395" s="2">
         <v>3.7599999999999998E-4</v>
       </c>
@@ -13570,7 +15017,7 @@
         <v>-4.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="396" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A396" s="2">
         <v>3.8000000000000002E-4</v>
       </c>
@@ -13599,7 +15046,7 @@
         <v>-5.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="397" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A397" s="2">
         <v>3.8400000000000001E-4</v>
       </c>
@@ -13628,7 +15075,7 @@
         <v>-5.6000000000000001E-2</v>
       </c>
     </row>
-    <row r="398" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A398" s="2">
         <v>3.88E-4</v>
       </c>
@@ -13657,7 +15104,7 @@
         <v>-0.06</v>
       </c>
     </row>
-    <row r="399" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A399" s="2">
         <v>3.9199999999999999E-4</v>
       </c>
@@ -13686,7 +15133,7 @@
         <v>-0.06</v>
       </c>
     </row>
-    <row r="400" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A400" s="2">
         <v>3.9599999999999998E-4</v>
       </c>
@@ -13715,7 +15162,7 @@
         <v>-6.59E-2</v>
       </c>
     </row>
-    <row r="401" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A401" s="2">
         <v>4.0000000000000002E-4</v>
       </c>
@@ -13744,7 +15191,7 @@
         <v>-6.59E-2</v>
       </c>
     </row>
-    <row r="402" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A402" s="2">
         <v>4.0400000000000001E-4</v>
       </c>
@@ -13773,7 +15220,7 @@
         <v>-7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="403" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A403" s="2">
         <v>4.08E-4</v>
       </c>
@@ -13802,7 +15249,7 @@
         <v>-7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="404" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A404" s="2">
         <v>4.1199999999999999E-4</v>
       </c>
@@ -13831,7 +15278,7 @@
         <v>-7.5899999999999995E-2</v>
       </c>
     </row>
-    <row r="405" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A405" s="2">
         <v>4.1599999999999997E-4</v>
       </c>
@@ -13860,7 +15307,7 @@
         <v>-7.8E-2</v>
       </c>
     </row>
-    <row r="406" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A406" s="2">
         <v>4.2000000000000002E-4</v>
       </c>
@@ -13889,7 +15336,7 @@
         <v>-7.9899999999999999E-2</v>
       </c>
     </row>
-    <row r="407" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A407" s="2">
         <v>4.2400000000000001E-4</v>
       </c>
@@ -13918,7 +15365,7 @@
         <v>-8.1900000000000001E-2</v>
       </c>
     </row>
-    <row r="408" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A408" s="2">
         <v>4.28E-4</v>
       </c>
@@ -13947,7 +15394,7 @@
         <v>-8.5999999999999993E-2</v>
       </c>
     </row>
-    <row r="409" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A409" s="2">
         <v>4.3199999999999998E-4</v>
       </c>
@@ -13976,7 +15423,7 @@
         <v>-8.5999999999999993E-2</v>
       </c>
     </row>
-    <row r="410" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A410" s="2">
         <v>4.3600000000000003E-4</v>
       </c>
@@ -14005,7 +15452,7 @@
         <v>-0.09</v>
       </c>
     </row>
-    <row r="411" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A411" s="2">
         <v>4.4000000000000002E-4</v>
       </c>
@@ -14034,7 +15481,7 @@
         <v>-0.09</v>
       </c>
     </row>
-    <row r="412" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A412" s="2">
         <v>4.44E-4</v>
       </c>
@@ -14063,7 +15510,7 @@
         <v>-9.4E-2</v>
       </c>
     </row>
-    <row r="413" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A413" s="2">
         <v>4.4799999999999999E-4</v>
       </c>
@@ -14092,7 +15539,7 @@
         <v>-9.4E-2</v>
       </c>
     </row>
-    <row r="414" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A414" s="2">
         <v>4.5199999999999998E-4</v>
       </c>
@@ -14121,7 +15568,7 @@
         <v>-9.6000000000000002E-2</v>
       </c>
     </row>
-    <row r="415" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A415" s="2">
         <v>4.5600000000000003E-4</v>
       </c>
@@ -14150,7 +15597,7 @@
         <v>-9.8000000000000004E-2</v>
       </c>
     </row>
-    <row r="416" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A416" s="2">
         <v>4.6000000000000001E-4</v>
       </c>
@@ -14179,7 +15626,7 @@
         <v>-9.6000000000000002E-2</v>
       </c>
     </row>
-    <row r="417" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A417" s="2">
         <v>4.64E-4</v>
       </c>
@@ -14208,7 +15655,7 @@
         <v>-9.8000000000000004E-2</v>
       </c>
     </row>
-    <row r="418" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A418" s="2">
         <v>4.6799999999999999E-4</v>
       </c>
@@ -14237,7 +15684,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="419" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A419" s="2">
         <v>4.7199999999999998E-4</v>
       </c>
@@ -14266,7 +15713,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="420" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A420" s="2">
         <v>4.7600000000000002E-4</v>
       </c>
@@ -14295,7 +15742,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="421" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A421" s="2">
         <v>4.8000000000000001E-4</v>
       </c>
@@ -14324,7 +15771,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="422" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A422" s="2">
         <v>4.84E-4</v>
       </c>
@@ -14353,7 +15800,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="423" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A423" s="2">
         <v>4.8799999999999999E-4</v>
       </c>
@@ -14382,7 +15829,7 @@
         <v>-0.10199999999999999</v>
       </c>
     </row>
-    <row r="424" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A424" s="2">
         <v>4.9200000000000003E-4</v>
       </c>
@@ -14411,7 +15858,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="425" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A425" s="2">
         <v>4.9600000000000002E-4</v>
       </c>
@@ -14440,7 +15887,7 @@
         <v>-0.10199999999999999</v>
       </c>
     </row>
-    <row r="426" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A426" s="2">
         <v>5.0000000000000001E-4</v>
       </c>
@@ -14469,7 +15916,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="427" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A427" s="2">
         <v>5.04E-4</v>
       </c>
@@ -14498,7 +15945,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="428" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A428" s="2">
         <v>5.0799999999999999E-4</v>
       </c>
@@ -14527,7 +15974,7 @@
         <v>-0.10199999999999999</v>
       </c>
     </row>
-    <row r="429" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A429" s="2">
         <v>5.1199999999999998E-4</v>
       </c>
@@ -14556,7 +16003,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="430" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A430" s="2">
         <v>5.1599999999999997E-4</v>
       </c>
@@ -14585,7 +16032,7 @@
         <v>-9.8000000000000004E-2</v>
       </c>
     </row>
-    <row r="431" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A431" s="2">
         <v>5.1999999999999995E-4</v>
       </c>
@@ -14614,7 +16061,7 @@
         <v>-9.8000000000000004E-2</v>
       </c>
     </row>
-    <row r="432" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A432" s="2">
         <v>5.2400000000000005E-4</v>
       </c>
@@ -14643,7 +16090,7 @@
         <v>-9.6000000000000002E-2</v>
       </c>
     </row>
-    <row r="433" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A433" s="2">
         <v>5.2800000000000004E-4</v>
       </c>
@@ -14672,7 +16119,7 @@
         <v>-9.6000000000000002E-2</v>
       </c>
     </row>
-    <row r="434" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A434" s="2">
         <v>5.3200000000000003E-4</v>
       </c>
@@ -14701,7 +16148,7 @@
         <v>-9.4E-2</v>
       </c>
     </row>
-    <row r="435" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A435" s="2">
         <v>5.3600000000000002E-4</v>
       </c>
@@ -14730,7 +16177,7 @@
         <v>-9.4E-2</v>
       </c>
     </row>
-    <row r="436" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A436" s="2">
         <v>5.4000000000000001E-4</v>
       </c>
@@ -14759,7 +16206,7 @@
         <v>-0.09</v>
       </c>
     </row>
-    <row r="437" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A437" s="2">
         <v>5.44E-4</v>
       </c>
@@ -14788,7 +16235,7 @@
         <v>-0.09</v>
       </c>
     </row>
-    <row r="438" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A438" s="2">
         <v>5.4799999999999998E-4</v>
       </c>
@@ -14817,7 +16264,7 @@
         <v>-8.5999999999999993E-2</v>
       </c>
     </row>
-    <row r="439" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A439" s="2">
         <v>5.5199999999999997E-4</v>
       </c>
@@ -14846,7 +16293,7 @@
         <v>-8.5999999999999993E-2</v>
       </c>
     </row>
-    <row r="440" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A440" s="2">
         <v>5.5599999999999996E-4</v>
       </c>
@@ -14875,7 +16322,7 @@
         <v>-8.1900000000000001E-2</v>
       </c>
     </row>
-    <row r="441" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A441" s="2">
         <v>5.5999999999999995E-4</v>
       </c>
@@ -14904,7 +16351,7 @@
         <v>-8.1900000000000001E-2</v>
       </c>
     </row>
-    <row r="442" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A442" s="2">
         <v>5.6400000000000005E-4</v>
       </c>
@@ -14933,7 +16380,7 @@
         <v>-7.5899999999999995E-2</v>
       </c>
     </row>
-    <row r="443" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A443" s="2">
         <v>5.6800000000000004E-4</v>
       </c>
@@ -14962,7 +16409,7 @@
         <v>-7.5899999999999995E-2</v>
       </c>
     </row>
-    <row r="444" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A444" s="2">
         <v>5.7200000000000003E-4</v>
       </c>
@@ -14991,7 +16438,7 @@
         <v>-7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="445" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A445" s="2">
         <v>5.7600000000000001E-4</v>
       </c>
@@ -15020,7 +16467,7 @@
         <v>-7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="446" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A446" s="2">
         <v>5.8E-4</v>
       </c>
@@ -15049,7 +16496,7 @@
         <v>-6.8000000000000005E-2</v>
       </c>
     </row>
-    <row r="447" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A447" s="2">
         <v>5.8399999999999999E-4</v>
       </c>
@@ -15078,7 +16525,7 @@
         <v>-6.59E-2</v>
       </c>
     </row>
-    <row r="448" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A448" s="2">
         <v>5.8799999999999998E-4</v>
       </c>
@@ -15107,7 +16554,7 @@
         <v>-0.06</v>
       </c>
     </row>
-    <row r="449" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A449" s="2">
         <v>5.9199999999999997E-4</v>
       </c>
@@ -15136,7 +16583,7 @@
         <v>-0.06</v>
       </c>
     </row>
-    <row r="450" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A450" s="2">
         <v>5.9599999999999996E-4</v>
       </c>
@@ -15165,7 +16612,7 @@
         <v>-5.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="451" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A451" s="2">
         <v>5.9999999999999995E-4</v>
       </c>
@@ -15194,7 +16641,7 @@
         <v>-5.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="452" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A452" s="2">
         <v>6.0400000000000004E-4</v>
       </c>
@@ -15223,7 +16670,7 @@
         <v>-4.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="453" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A453" s="2">
         <v>6.0800000000000003E-4</v>
       </c>
@@ -15252,7 +16699,7 @@
         <v>-4.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="454" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A454" s="2">
         <v>6.1200000000000002E-4</v>
       </c>
@@ -15281,7 +16728,7 @@
         <v>-0.04</v>
       </c>
     </row>
-    <row r="455" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A455" s="2">
         <v>6.1600000000000001E-4</v>
       </c>
@@ -15310,7 +16757,7 @@
         <v>-0.04</v>
       </c>
     </row>
-    <row r="456" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A456" s="2">
         <v>6.2E-4</v>
       </c>
@@ -15339,7 +16786,7 @@
         <v>-3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="457" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A457" s="2">
         <v>6.2399999999999999E-4</v>
       </c>
@@ -15368,7 +16815,7 @@
         <v>-3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="458" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A458" s="2">
         <v>6.2799999999999998E-4</v>
       </c>
@@ -15397,7 +16844,7 @@
         <v>-2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="459" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A459" s="2">
         <v>6.3199999999999997E-4</v>
       </c>
@@ -15426,7 +16873,7 @@
         <v>-2.4E-2</v>
       </c>
     </row>
-    <row r="460" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A460" s="2">
         <v>6.3599999999999996E-4</v>
       </c>
@@ -15455,7 +16902,7 @@
         <v>-0.02</v>
       </c>
     </row>
-    <row r="461" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A461" s="2">
         <v>6.4000000000000005E-4</v>
       </c>
@@ -15484,7 +16931,7 @@
         <v>-1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="462" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A462" s="2">
         <v>6.4400000000000004E-4</v>
       </c>
@@ -15513,7 +16960,7 @@
         <v>-0.01</v>
       </c>
     </row>
-    <row r="463" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A463" s="2">
         <v>6.4800000000000003E-4</v>
       </c>
@@ -15542,7 +16989,7 @@
         <v>-0.01</v>
       </c>
     </row>
-    <row r="464" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A464" s="2">
         <v>6.5200000000000002E-4</v>
       </c>
@@ -15571,7 +17018,7 @@
         <v>-4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="465" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A465" s="2">
         <v>6.5600000000000001E-4</v>
       </c>
@@ -15600,7 +17047,7 @@
         <v>-4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="466" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A466" s="2">
         <v>6.6E-4</v>
       </c>
@@ -15629,7 +17076,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="467" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A467" s="2">
         <v>6.6399999999999999E-4</v>
       </c>
@@ -15658,7 +17105,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="468" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A468" s="2">
         <v>6.6799999999999997E-4</v>
       </c>
@@ -15687,7 +17134,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="469" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A469" s="2">
         <v>6.7199999999999996E-4</v>
       </c>
@@ -15716,7 +17163,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="470" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A470" s="2">
         <v>6.7599999999999995E-4</v>
       </c>
@@ -15745,7 +17192,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="471" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A471" s="2">
         <v>6.8000000000000005E-4</v>
       </c>
@@ -15774,7 +17221,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="472" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A472" s="2">
         <v>6.8400000000000004E-4</v>
       </c>
@@ -15803,7 +17250,7 @@
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="473" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A473" s="2">
         <v>6.8800000000000003E-4</v>
       </c>
@@ -15832,7 +17279,7 @@
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="474" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A474" s="2">
         <v>6.9200000000000002E-4</v>
       </c>
@@ -15861,7 +17308,7 @@
         <v>3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="475" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A475" s="2">
         <v>6.96E-4</v>
       </c>
@@ -15890,7 +17337,7 @@
         <v>3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="476" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A476" s="2">
         <v>6.9999999999999999E-4</v>
       </c>
@@ -15919,7 +17366,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="477" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A477" s="2">
         <v>7.0399999999999998E-4</v>
       </c>
@@ -15948,7 +17395,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="478" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A478" s="2">
         <v>7.0799999999999997E-4</v>
       </c>
@@ -15977,7 +17424,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="479" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A479" s="2">
         <v>7.1199999999999996E-4</v>
       </c>
@@ -16006,7 +17453,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="480" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A480" s="2">
         <v>7.1599999999999995E-4</v>
       </c>
@@ -16035,7 +17482,7 @@
         <v>5.6000000000000001E-2</v>
       </c>
     </row>
-    <row r="481" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A481" s="2">
         <v>7.2000000000000005E-4</v>
       </c>
@@ -16064,7 +17511,7 @@
         <v>5.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="482" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A482" s="2">
         <v>7.2400000000000003E-4</v>
       </c>
@@ -16093,7 +17540,7 @@
         <v>6.2E-2</v>
       </c>
     </row>
-    <row r="483" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A483" s="2">
         <v>7.2800000000000002E-4</v>
       </c>
@@ -16122,7 +17569,7 @@
         <v>6.2E-2</v>
       </c>
     </row>
-    <row r="484" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A484" s="2">
         <v>7.3200000000000001E-4</v>
       </c>
@@ -16151,7 +17598,7 @@
         <v>6.59E-2</v>
       </c>
     </row>
-    <row r="485" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A485" s="2">
         <v>7.36E-4</v>
       </c>
@@ -16180,7 +17627,7 @@
         <v>6.59E-2</v>
       </c>
     </row>
-    <row r="486" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A486" s="2">
         <v>7.3999999999999999E-4</v>
       </c>
@@ -16209,7 +17656,7 @@
         <v>7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="487" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A487" s="2">
         <v>7.4399999999999998E-4</v>
       </c>
@@ -16238,7 +17685,7 @@
         <v>7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="488" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A488" s="2">
         <v>7.4799999999999997E-4</v>
       </c>
@@ -16267,7 +17714,7 @@
         <v>7.8E-2</v>
       </c>
     </row>
-    <row r="489" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A489" s="2">
         <v>7.5199999999999996E-4</v>
       </c>
@@ -16296,7 +17743,7 @@
         <v>7.8E-2</v>
       </c>
     </row>
-    <row r="490" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A490" s="2">
         <v>7.5600000000000005E-4</v>
       </c>
@@ -16325,7 +17772,7 @@
         <v>8.1900000000000001E-2</v>
       </c>
     </row>
-    <row r="491" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A491" s="2">
         <v>7.6000000000000004E-4</v>
       </c>
@@ -16354,7 +17801,7 @@
         <v>8.1900000000000001E-2</v>
       </c>
     </row>
-    <row r="492" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A492" s="2">
         <v>7.6400000000000003E-4</v>
       </c>
@@ -16383,7 +17830,7 @@
         <v>8.5999999999999993E-2</v>
       </c>
     </row>
-    <row r="493" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A493" s="2">
         <v>7.6800000000000002E-4</v>
       </c>
@@ -16412,7 +17859,7 @@
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
-    <row r="494" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A494" s="2">
         <v>7.7200000000000001E-4</v>
       </c>
@@ -16441,7 +17888,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="495" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A495" s="2">
         <v>7.76E-4</v>
       </c>
@@ -16470,7 +17917,7 @@
         <v>8.7900000000000006E-2</v>
       </c>
     </row>
-    <row r="496" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A496" s="2">
         <v>7.7999999999999999E-4</v>
       </c>
@@ -16499,7 +17946,7 @@
         <v>9.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="497" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A497" s="2">
         <v>7.8399999999999997E-4</v>
       </c>
@@ -16528,7 +17975,7 @@
         <v>9.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="498" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A498" s="2">
         <v>7.8799999999999996E-4</v>
       </c>
@@ -16557,7 +18004,7 @@
         <v>9.4E-2</v>
       </c>
     </row>
-    <row r="499" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A499" s="2">
         <v>7.9199999999999995E-4</v>
       </c>
@@ -16586,7 +18033,7 @@
         <v>9.4E-2</v>
       </c>
     </row>
-    <row r="500" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A500" s="2">
         <v>7.9600000000000005E-4</v>
       </c>
@@ -16615,7 +18062,7 @@
         <v>9.6000000000000002E-2</v>
       </c>
     </row>
-    <row r="501" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A501" s="2">
         <v>8.0000000000000004E-4</v>
       </c>
@@ -16644,7 +18091,7 @@
         <v>9.6000000000000002E-2</v>
       </c>
     </row>
-    <row r="502" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A502" s="2">
         <v>8.0400000000000003E-4</v>
       </c>
@@ -16673,7 +18120,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="503" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A503" s="2">
         <v>8.0800000000000002E-4</v>
       </c>
@@ -16702,7 +18149,7 @@
         <v>9.6000000000000002E-2</v>
       </c>
     </row>
-    <row r="504" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A504" s="2">
         <v>8.12E-4</v>
       </c>
@@ -16731,7 +18178,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="505" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A505" s="2">
         <v>8.1599999999999999E-4</v>
       </c>
@@ -16760,7 +18207,7 @@
         <v>9.8000000000000004E-2</v>
       </c>
     </row>
-    <row r="506" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A506" s="2">
         <v>8.1999999999999998E-4</v>
       </c>
@@ -16789,7 +18236,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="507" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A507" s="2">
         <v>8.2399999999999997E-4</v>
       </c>
@@ -16818,7 +18265,7 @@
         <v>9.8000000000000004E-2</v>
       </c>
     </row>
-    <row r="508" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A508" s="2">
         <v>8.2799999999999996E-4</v>
       </c>
@@ -16847,7 +18294,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="509" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A509" s="2">
         <v>8.3199999999999995E-4</v>
       </c>
@@ -16876,7 +18323,7 @@
         <v>9.8000000000000004E-2</v>
       </c>
     </row>
-    <row r="510" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A510" s="2">
         <v>8.3600000000000005E-4</v>
       </c>
@@ -16905,7 +18352,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="511" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A511" s="2">
         <v>8.4000000000000003E-4</v>
       </c>
@@ -16934,7 +18381,7 @@
         <v>9.8000000000000004E-2</v>
       </c>
     </row>
-    <row r="512" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A512" s="2">
         <v>8.4400000000000002E-4</v>
       </c>
@@ -16963,7 +18410,7 @@
         <v>9.6000000000000002E-2</v>
       </c>
     </row>
-    <row r="513" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A513" s="2">
         <v>8.4800000000000001E-4</v>
       </c>
@@ -16992,7 +18439,7 @@
         <v>9.6000000000000002E-2</v>
       </c>
     </row>
-    <row r="514" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A514" s="2">
         <v>8.52E-4</v>
       </c>
@@ -17021,7 +18468,7 @@
         <v>9.4E-2</v>
       </c>
     </row>
-    <row r="515" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A515" s="2">
         <v>8.5599999999999999E-4</v>
       </c>
@@ -17050,7 +18497,7 @@
         <v>9.4E-2</v>
       </c>
     </row>
-    <row r="516" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A516" s="2">
         <v>8.5999999999999998E-4</v>
       </c>
@@ -17079,7 +18526,7 @@
         <v>9.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="517" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A517" s="2">
         <v>8.6399999999999997E-4</v>
       </c>
@@ -17108,7 +18555,7 @@
         <v>9.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="518" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A518" s="2">
         <v>8.6799999999999996E-4</v>
       </c>
@@ -17137,7 +18584,7 @@
         <v>8.7900000000000006E-2</v>
       </c>
     </row>
-    <row r="519" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A519" s="2">
         <v>8.7200000000000005E-4</v>
       </c>
@@ -17166,7 +18613,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="520" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A520" s="2">
         <v>8.7600000000000004E-4</v>
       </c>
@@ -17195,7 +18642,7 @@
         <v>8.5999999999999993E-2</v>
       </c>
     </row>
-    <row r="521" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A521" s="2">
         <v>8.8000000000000003E-4</v>
       </c>
@@ -17224,7 +18671,7 @@
         <v>8.5999999999999993E-2</v>
       </c>
     </row>
-    <row r="522" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A522" s="2">
         <v>8.8400000000000002E-4</v>
       </c>
@@ -17253,7 +18700,7 @@
         <v>8.1900000000000001E-2</v>
       </c>
     </row>
-    <row r="523" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A523" s="2">
         <v>8.8800000000000001E-4</v>
       </c>
@@ -17282,7 +18729,7 @@
         <v>7.9899999999999999E-2</v>
       </c>
     </row>
-    <row r="524" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A524" s="2">
         <v>8.92E-4</v>
       </c>
@@ -17311,7 +18758,7 @@
         <v>7.5899999999999995E-2</v>
       </c>
     </row>
-    <row r="525" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A525" s="2">
         <v>8.9599999999999999E-4</v>
       </c>
@@ -17340,7 +18787,7 @@
         <v>7.5899999999999995E-2</v>
       </c>
     </row>
-    <row r="526" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A526" s="2">
         <v>8.9999999999999998E-4</v>
       </c>
@@ -17369,7 +18816,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="527" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A527" s="2">
         <v>9.0399999999999996E-4</v>
       </c>
@@ -17398,7 +18845,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="528" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A528" s="2">
         <v>9.0799999999999995E-4</v>
       </c>
@@ -17427,7 +18874,7 @@
         <v>6.59E-2</v>
       </c>
     </row>
-    <row r="529" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A529" s="2">
         <v>9.1200000000000005E-4</v>
       </c>
@@ -17456,7 +18903,7 @@
         <v>6.59E-2</v>
       </c>
     </row>
-    <row r="530" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A530" s="2">
         <v>9.1600000000000004E-4</v>
       </c>
@@ -17485,7 +18932,7 @@
         <v>6.2E-2</v>
       </c>
     </row>
-    <row r="531" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A531" s="2">
         <v>9.2000000000000003E-4</v>
       </c>
@@ -17514,7 +18961,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="532" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A532" s="2">
         <v>9.2400000000000002E-4</v>
       </c>
@@ -17543,7 +18990,7 @@
         <v>5.6000000000000001E-2</v>
       </c>
     </row>
-    <row r="533" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A533" s="2">
         <v>9.2800000000000001E-4</v>
       </c>
@@ -17572,7 +19019,7 @@
         <v>5.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="534" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A534" s="2">
         <v>9.3199999999999999E-4</v>
       </c>
@@ -17601,7 +19048,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="535" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A535" s="2">
         <v>9.3599999999999998E-4</v>
       </c>
@@ -17630,7 +19077,7 @@
         <v>4.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="536" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A536" s="2">
         <v>9.3999999999999997E-4</v>
       </c>
@@ -17659,7 +19106,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="537" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A537" s="2">
         <v>9.4399999999999996E-4</v>
       </c>
@@ -17688,7 +19135,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="538" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A538" s="2">
         <v>9.4799999999999995E-4</v>
       </c>
@@ -17717,7 +19164,7 @@
         <v>3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="539" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A539" s="2">
         <v>9.5200000000000005E-4</v>
       </c>
@@ -17746,7 +19193,7 @@
         <v>3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="540" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A540" s="2">
         <v>9.5600000000000004E-4</v>
       </c>
@@ -17775,7 +19222,7 @@
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="541" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A541" s="2">
         <v>9.6000000000000002E-4</v>
       </c>
@@ -17804,7 +19251,7 @@
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="542" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A542" s="2">
         <v>9.6400000000000001E-4</v>
       </c>
@@ -17833,7 +19280,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="543" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A543" s="2">
         <v>9.68E-4</v>
       </c>
@@ -17862,7 +19309,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="544" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A544" s="2">
         <v>9.7199999999999999E-4</v>
       </c>
@@ -17891,7 +19338,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="545" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A545" s="2">
         <v>9.7599999999999998E-4</v>
       </c>
@@ -17920,7 +19367,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="546" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A546" s="2">
         <v>9.7999999999999997E-4</v>
       </c>
@@ -17949,7 +19396,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="547" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A547" s="2">
         <v>9.8400000000000007E-4</v>
       </c>
@@ -17978,7 +19425,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="548" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A548" s="2">
         <v>9.8799999999999995E-4</v>
       </c>
@@ -18007,7 +19454,7 @@
         <v>-4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="549" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A549" s="2">
         <v>9.9200000000000004E-4</v>
       </c>
@@ -18036,7 +19483,7 @@
         <v>-4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="550" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A550" s="2">
         <v>9.9599999999999992E-4</v>
       </c>
@@ -18065,7 +19512,7 @@
         <v>-1.2E-2</v>
       </c>
     </row>
-    <row r="551" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A551" s="2">
         <v>1E-3</v>
       </c>
@@ -18094,7 +19541,7 @@
         <v>-1.2E-2</v>
       </c>
     </row>
-    <row r="552" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A552" s="2">
         <v>1E-3</v>
       </c>
@@ -18123,7 +19570,7 @@
         <v>-0.02</v>
       </c>
     </row>
-    <row r="553" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A553" s="2">
         <v>1.01E-3</v>
       </c>
@@ -18152,7 +19599,7 @@
         <v>-0.02</v>
       </c>
     </row>
-    <row r="554" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A554" s="2">
         <v>1.01E-3</v>
       </c>
@@ -18181,7 +19628,7 @@
         <v>-2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="555" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A555" s="2">
         <v>1.0200000000000001E-3</v>
       </c>
@@ -18210,7 +19657,7 @@
         <v>-2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="556" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A556" s="2">
         <v>1.0200000000000001E-3</v>
       </c>
@@ -18239,7 +19686,7 @@
         <v>-3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="557" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A557" s="2">
         <v>1.0200000000000001E-3</v>
       </c>
@@ -18268,7 +19715,7 @@
         <v>-3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="558" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A558" s="2">
         <v>1.0300000000000001E-3</v>
       </c>
@@ -18297,7 +19744,7 @@
         <v>-4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="559" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A559" s="2">
         <v>1.0300000000000001E-3</v>
       </c>
@@ -18326,7 +19773,7 @@
         <v>-4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="560" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A560" s="2">
         <v>1.0399999999999999E-3</v>
       </c>
@@ -18355,7 +19802,7 @@
         <v>-4.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="561" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A561" s="2">
         <v>1.0399999999999999E-3</v>
       </c>
@@ -18384,7 +19831,7 @@
         <v>-4.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="562" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A562" s="2">
         <v>1.0399999999999999E-3</v>
       </c>
@@ -18413,7 +19860,7 @@
         <v>-5.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="563" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A563" s="2">
         <v>1.0499999999999999E-3</v>
       </c>
@@ -18442,7 +19889,7 @@
         <v>-5.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="564" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A564" s="2">
         <v>1.0499999999999999E-3</v>
       </c>
@@ -18471,7 +19918,7 @@
         <v>-0.06</v>
       </c>
     </row>
-    <row r="565" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A565" s="2">
         <v>1.06E-3</v>
       </c>
@@ -18500,7 +19947,7 @@
         <v>-0.06</v>
       </c>
     </row>
-    <row r="566" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A566" s="2">
         <v>1.06E-3</v>
       </c>
@@ -18529,7 +19976,7 @@
         <v>-6.59E-2</v>
       </c>
     </row>
-    <row r="567" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A567" s="2">
         <v>1.06E-3</v>
       </c>
@@ -18558,7 +20005,7 @@
         <v>-6.8000000000000005E-2</v>
       </c>
     </row>
-    <row r="568" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A568" s="2">
         <v>1.07E-3</v>
       </c>
@@ -18587,7 +20034,7 @@
         <v>-7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="569" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A569" s="2">
         <v>1.07E-3</v>
       </c>
@@ -18616,7 +20063,7 @@
         <v>-7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="570" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A570" s="2">
         <v>1.08E-3</v>
       </c>
@@ -18645,7 +20092,7 @@
         <v>-7.8E-2</v>
       </c>
     </row>
-    <row r="571" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A571" s="2">
         <v>1.08E-3</v>
       </c>
@@ -18674,7 +20121,7 @@
         <v>-7.8E-2</v>
       </c>
     </row>
-    <row r="572" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A572" s="2">
         <v>1.08E-3</v>
       </c>
@@ -18703,7 +20150,7 @@
         <v>-8.1900000000000001E-2</v>
       </c>
     </row>
-    <row r="573" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A573" s="2">
         <v>1.09E-3</v>
       </c>
@@ -18732,7 +20179,7 @@
         <v>-8.1900000000000001E-2</v>
       </c>
     </row>
-    <row r="574" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A574" s="2">
         <v>1.09E-3</v>
       </c>
@@ -18761,7 +20208,7 @@
         <v>-8.7900000000000006E-2</v>
       </c>
     </row>
-    <row r="575" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A575" s="2">
         <v>1.1000000000000001E-3</v>
       </c>
@@ -18790,7 +20237,7 @@
         <v>-8.5999999999999993E-2</v>
       </c>
     </row>
-    <row r="576" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A576" s="2">
         <v>1.1000000000000001E-3</v>
       </c>
@@ -18819,7 +20266,7 @@
         <v>-0.09</v>
       </c>
     </row>
-    <row r="577" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A577" s="2">
         <v>1.1000000000000001E-3</v>
       </c>
@@ -18848,7 +20295,7 @@
         <v>-0.09</v>
       </c>
     </row>
-    <row r="578" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A578" s="2">
         <v>1.1100000000000001E-3</v>
       </c>
@@ -18877,7 +20324,7 @@
         <v>-9.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="579" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A579" s="2">
         <v>1.1100000000000001E-3</v>
       </c>
@@ -18906,7 +20353,7 @@
         <v>-9.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="580" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A580" s="2">
         <v>1.1199999999999999E-3</v>
       </c>
@@ -18935,7 +20382,7 @@
         <v>-9.8000000000000004E-2</v>
       </c>
     </row>
-    <row r="581" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A581" s="2">
         <v>1.1199999999999999E-3</v>
       </c>
@@ -18964,7 +20411,7 @@
         <v>-9.6000000000000002E-2</v>
       </c>
     </row>
-    <row r="582" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A582" s="2">
         <v>1.1199999999999999E-3</v>
       </c>
@@ -18993,7 +20440,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="583" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A583" s="2">
         <v>1.1299999999999999E-3</v>
       </c>
@@ -19022,7 +20469,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="584" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A584" s="2">
         <v>1.1299999999999999E-3</v>
       </c>
@@ -19051,7 +20498,7 @@
         <v>-9.8000000000000004E-2</v>
       </c>
     </row>
-    <row r="585" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A585" s="2">
         <v>1.14E-3</v>
       </c>
@@ -19080,7 +20527,7 @@
         <v>-0.10199999999999999</v>
       </c>
     </row>
-    <row r="586" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A586" s="2">
         <v>1.14E-3</v>
       </c>
@@ -19109,7 +20556,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="587" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A587" s="2">
         <v>1.14E-3</v>
       </c>
@@ -19138,7 +20585,7 @@
         <v>-9.4E-2</v>
       </c>
     </row>
-    <row r="588" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A588" s="2">
         <v>1.15E-3</v>
       </c>
@@ -19167,7 +20614,7 @@
         <v>-0.10199999999999999</v>
       </c>
     </row>
-    <row r="589" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A589" s="2">
         <v>1.15E-3</v>
       </c>
@@ -19196,7 +20643,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="590" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A590" s="2">
         <v>1.16E-3</v>
       </c>
@@ -19225,7 +20672,7 @@
         <v>-0.10199999999999999</v>
       </c>
     </row>
-    <row r="591" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A591" s="2">
         <v>1.16E-3</v>
       </c>
@@ -19254,7 +20701,7 @@
         <v>-0.10199999999999999</v>
       </c>
     </row>
-    <row r="592" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A592" s="2">
         <v>1.16E-3</v>
       </c>
@@ -19283,7 +20730,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="593" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A593" s="2">
         <v>1.17E-3</v>
       </c>
@@ -19312,7 +20759,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="594" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A594" s="2">
         <v>1.17E-3</v>
       </c>
@@ -19341,7 +20788,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="595" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A595" s="2">
         <v>1.1800000000000001E-3</v>
       </c>
@@ -19370,7 +20817,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="596" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A596" s="2">
         <v>1.1800000000000001E-3</v>
       </c>
@@ -19399,7 +20846,7 @@
         <v>-9.8000000000000004E-2</v>
       </c>
     </row>
-    <row r="597" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A597" s="2">
         <v>1.1800000000000001E-3</v>
       </c>
@@ -19428,7 +20875,7 @@
         <v>-9.8000000000000004E-2</v>
       </c>
     </row>
-    <row r="598" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A598" s="2">
         <v>1.1900000000000001E-3</v>
       </c>
@@ -19457,7 +20904,7 @@
         <v>-9.6000000000000002E-2</v>
       </c>
     </row>
-    <row r="599" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A599" s="2">
         <v>1.1900000000000001E-3</v>
       </c>
@@ -19486,7 +20933,7 @@
         <v>-9.6000000000000002E-2</v>
       </c>
     </row>
-    <row r="600" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A600" s="2">
         <v>1.1999999999999999E-3</v>
       </c>
